--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary van Valkenburg\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F464F73B-96BB-42CD-A0F9-F56B1265BEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="90" windowWidth="21877" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -1178,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1256,21 +1259,42 @@
       <c r="C2">
         <v>341243679.13</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>-15396420.870000005</v>
+      </c>
+      <c r="E2" s="5">
+        <f>D2/B2</f>
+        <v>-4.3170750765267295E-2</v>
+      </c>
       <c r="G2">
         <v>382685200</v>
       </c>
       <c r="H2">
         <v>346340810.81999999</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="I2">
+        <f>H2-G2</f>
+        <v>-36344389.180000007</v>
+      </c>
+      <c r="J2" s="5">
+        <f>I2/G2</f>
+        <v>-9.4972027086493035E-2</v>
+      </c>
       <c r="L2">
         <v>376548600</v>
       </c>
       <c r="M2">
         <v>355279492.22999901</v>
       </c>
-      <c r="O2" s="5"/>
+      <c r="N2">
+        <f>M2-L2</f>
+        <v>-21269107.770000994</v>
+      </c>
+      <c r="O2" s="5">
+        <f>N2/L2</f>
+        <v>-5.6484362894991494E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
@@ -1282,21 +1306,42 @@
       <c r="C3">
         <v>321214.59000000003</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="D3">
+        <f t="shared" ref="D3:D52" si="0">C3-B3</f>
+        <v>-7585.4099999999744</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E52" si="1">D3/B3</f>
+        <v>-2.3069981751824741E-2</v>
+      </c>
       <c r="G3">
         <v>334800</v>
       </c>
       <c r="H3">
         <v>312433.70999999897</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="I3">
+        <f t="shared" ref="I3:I52" si="2">H3-G3</f>
+        <v>-22366.290000001027</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J52" si="3">I3/G3</f>
+        <v>-6.6804928315415249E-2</v>
+      </c>
       <c r="L3">
         <v>322700</v>
       </c>
       <c r="M3">
         <v>322263.03999999998</v>
       </c>
-      <c r="O3" s="5"/>
+      <c r="N3">
+        <f t="shared" ref="N3:N52" si="4">M3-L3</f>
+        <v>-436.96000000002095</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O52" si="5">N3/L3</f>
+        <v>-1.3540749922529313E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
@@ -1308,21 +1353,42 @@
       <c r="C4">
         <v>3115157.5599999898</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-15442.440000010189</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>-4.9327413275443007E-3</v>
+      </c>
       <c r="G4">
         <v>3652300</v>
       </c>
       <c r="H4">
         <v>3589693.2099999902</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>-62606.790000009816</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.7141743558856015E-2</v>
+      </c>
       <c r="L4">
         <v>3662400</v>
       </c>
       <c r="M4">
         <v>3564983.04999999</v>
       </c>
-      <c r="O4" s="5"/>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>-97416.950000009965</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="5"/>
+        <v>-2.6599210899959033E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
@@ -1334,21 +1400,42 @@
       <c r="C5">
         <v>6947552.6699999999</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-723147.33000000007</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>-9.4273968477453174E-2</v>
+      </c>
       <c r="G5">
         <v>7968300</v>
       </c>
       <c r="H5">
         <v>7020609.3200000003</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>-947690.6799999997</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.118932605449092</v>
+      </c>
       <c r="L5">
         <v>7759600</v>
       </c>
       <c r="M5">
         <v>7497322.9100000001</v>
       </c>
-      <c r="O5" s="5"/>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>-262277.08999999985</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="5"/>
+        <v>-3.3800336357544182E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
@@ -1360,21 +1447,42 @@
       <c r="C6">
         <v>385908.52</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-23391.479999999981</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>-5.7149963352064452E-2</v>
+      </c>
       <c r="G6">
         <v>428500</v>
       </c>
       <c r="H6">
         <v>427758.64</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>-741.35999999998603</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.7301283547257551E-3</v>
+      </c>
       <c r="L6">
         <v>445200</v>
       </c>
       <c r="M6">
         <v>445114.28999999899</v>
       </c>
-      <c r="O6" s="5"/>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>-85.710000001010485</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.925202156356929E-4</v>
+      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
@@ -1386,21 +1494,42 @@
       <c r="C7">
         <v>2946071.21</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-382928.79000000004</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.11502817362571344</v>
+      </c>
       <c r="G7">
         <v>3390900</v>
       </c>
       <c r="H7">
         <v>3051483.41</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>-339416.58999999985</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.10009631366303927</v>
+      </c>
       <c r="L7">
         <v>3345200</v>
       </c>
       <c r="M7">
         <v>2946440.08</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>-398759.91999999993</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.11920361114432618</v>
+      </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
@@ -1412,21 +1541,42 @@
       <c r="C8">
         <v>1315623.30999999</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-236476.69000000996</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.15235918433091292</v>
+      </c>
       <c r="G8">
         <v>1590700</v>
       </c>
       <c r="H8">
         <v>1383905.98999999</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>-206794.01000001002</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.13000189224870184</v>
+      </c>
       <c r="L8">
         <v>1579300</v>
       </c>
       <c r="M8">
         <v>1337735.3199999901</v>
       </c>
-      <c r="O8" s="5"/>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>-241564.68000000995</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.15295680364719175</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
@@ -1438,21 +1588,42 @@
       <c r="C9">
         <v>8952825.2799999993</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-396574.72000000067</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>-4.2417130511048909E-2</v>
+      </c>
       <c r="G9">
         <v>11073700</v>
       </c>
       <c r="H9">
         <v>9929059.5199999996</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>-1144640.4800000004</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.10336567542917005</v>
+      </c>
       <c r="L9">
         <v>10790500</v>
       </c>
       <c r="M9">
         <v>9993599.52999999</v>
       </c>
-      <c r="O9" s="5"/>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>-796900.47000000998</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="5"/>
+        <v>-7.3852043000788653E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
@@ -1464,21 +1635,42 @@
       <c r="C10">
         <v>407090.37</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>-8.1681998646514792E-2</v>
+      </c>
       <c r="G10">
         <v>495200</v>
       </c>
       <c r="H10">
         <v>467907.84000000003</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="3"/>
+        <v>-5.5113408723747932E-2</v>
+      </c>
       <c r="L10">
         <v>487500</v>
       </c>
       <c r="M10">
         <v>478318.92</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>-9181.0800000000163</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.883298461538465E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
@@ -1490,21 +1682,42 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L11">
         <v>375000</v>
       </c>
       <c r="M11">
         <v>63771.91</v>
       </c>
-      <c r="O11" s="5"/>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>-311228.08999999997</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.82994157333333329</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
@@ -1516,21 +1729,42 @@
       <c r="C12">
         <v>4066595.33</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-214304.66999999993</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>-5.0060657805601608E-2</v>
+      </c>
       <c r="G12">
         <v>4700400</v>
       </c>
       <c r="H12">
         <v>4205555.5999999996</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>-494844.40000000037</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.10527708280146378</v>
+      </c>
       <c r="L12">
         <v>4677800</v>
       </c>
       <c r="M12">
         <v>4371713.1399999997</v>
       </c>
-      <c r="O12" s="5"/>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>-306086.86000000034</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="5"/>
+        <v>-6.5433934755654441E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
@@ -1542,21 +1776,42 @@
       <c r="C13">
         <v>5772288.3300000001</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-75511.669999999925</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.2912833886247806E-2</v>
+      </c>
       <c r="G13">
         <v>6223700</v>
       </c>
       <c r="H13">
         <v>5909077.9399999902</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>-314622.06000000983</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="3"/>
+        <v>-5.0552253482656594E-2</v>
+      </c>
       <c r="L13">
         <v>6207300</v>
       </c>
       <c r="M13">
         <v>6056976.6699999999</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>-150323.33000000007</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="5"/>
+        <v>-2.4217184605222895E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
@@ -1568,21 +1823,42 @@
       <c r="C14">
         <v>505017.37</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-6982.6300000000047</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.3637949218750009E-2</v>
+      </c>
       <c r="G14">
         <v>530500</v>
       </c>
       <c r="H14">
         <v>524402.98</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>-6097.0200000000186</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.1492968897266765E-2</v>
+      </c>
       <c r="L14">
         <v>526200</v>
       </c>
       <c r="M14">
         <v>504989.88</v>
       </c>
-      <c r="O14" s="5"/>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>-21210.119999999995</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="5"/>
+        <v>-4.0308095781071827E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1594,21 +1870,42 @@
       <c r="C15">
         <v>156545919.90000001</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>496819.90000000596</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>3.1837408866824991E-3</v>
+      </c>
       <c r="G15">
         <v>184167800</v>
       </c>
       <c r="H15">
         <v>175966389.24999899</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>-8201410.7500010133</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.4532273014072019E-2</v>
+      </c>
       <c r="L15">
         <v>188953500</v>
       </c>
       <c r="M15">
         <v>184450910.84999901</v>
       </c>
-      <c r="O15" s="5"/>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>-4502589.1500009894</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="5"/>
+        <v>-2.3829085727446114E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
@@ -1620,21 +1917,42 @@
       <c r="C16">
         <v>6522480.4599999897</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-78219.540000010282</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.1850188616360429E-2</v>
+      </c>
       <c r="G16">
         <v>7352500</v>
       </c>
       <c r="H16">
         <v>7350464.0800000001</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>-2035.9199999999255</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.769017341040361E-4</v>
+      </c>
       <c r="L16">
         <v>7397200</v>
       </c>
       <c r="M16">
         <v>7397093</v>
       </c>
-      <c r="O16" s="5"/>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>-107</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.4464932677229222E-5</v>
+      </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
@@ -1646,21 +1964,42 @@
       <c r="C17">
         <v>14439480.050000001</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-421319.94999999925</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.8351094826658003E-2</v>
+      </c>
       <c r="G17">
         <v>15309700</v>
       </c>
       <c r="H17">
         <v>14645233.51</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>-664466.49000000022</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.3401666263871937E-2</v>
+      </c>
       <c r="L17">
         <v>15311800</v>
       </c>
       <c r="M17">
         <v>14346057.039999999</v>
       </c>
-      <c r="O17" s="5"/>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>-965742.96000000089</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="5"/>
+        <v>-6.3071811282801551E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
@@ -1672,21 +2011,42 @@
       <c r="C18">
         <v>2615303.8999999901</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>-5.4037002206391245E-2</v>
+      </c>
       <c r="G18">
         <v>2861000</v>
       </c>
       <c r="H18">
         <v>2671745.94</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="3"/>
+        <v>-6.6149619014330668E-2</v>
+      </c>
       <c r="L18">
         <v>2910600</v>
       </c>
       <c r="M18">
         <v>2535637.09</v>
       </c>
-      <c r="O18" s="5"/>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>-374962.91000000015</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.12882667147667154</v>
+      </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
@@ -1698,21 +2058,42 @@
       <c r="C19">
         <v>8460963.1999999899</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-376336.80000001006</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>-4.258504294298146E-2</v>
+      </c>
       <c r="G19">
         <v>9713300</v>
       </c>
       <c r="H19">
         <v>8991707.2399999909</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>-721592.76000000909</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="3"/>
+        <v>-7.4289145810384635E-2</v>
+      </c>
       <c r="L19">
         <v>9343000</v>
       </c>
       <c r="M19">
         <v>8766655.9100000001</v>
       </c>
-      <c r="O19" s="5"/>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>-576344.08999999985</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="5"/>
+        <v>-6.1687262121374278E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
@@ -1724,21 +2105,42 @@
       <c r="C20">
         <v>124384360.159999</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-1539.8400010019541</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.2379538203300809E-5</v>
+      </c>
       <c r="G20">
         <v>131849400</v>
       </c>
       <c r="H20">
         <v>131839624.37</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>-9775.6299999952316</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="3"/>
+        <v>-7.4142392760188761E-5</v>
+      </c>
       <c r="L20">
         <v>130621400</v>
       </c>
       <c r="M20">
         <v>130621283.53999899</v>
       </c>
-      <c r="O20" s="5"/>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>-116.46000100672245</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="5"/>
+        <v>-8.9158438821450736E-7</v>
+      </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
@@ -1750,21 +2152,42 @@
       <c r="C21">
         <v>22408587.5499999</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-1923512.4500000998</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>-7.9052463618023094E-2</v>
+      </c>
       <c r="G21">
         <v>24497400</v>
       </c>
       <c r="H21">
         <v>22655993.629999999</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>-1841406.370000001</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="3"/>
+        <v>-7.5167420624229556E-2</v>
+      </c>
       <c r="L21">
         <v>24323000</v>
       </c>
       <c r="M21">
         <v>23434073.089999899</v>
       </c>
-      <c r="O21" s="5"/>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>-888926.91000010073</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="5"/>
+        <v>-3.6546762734864152E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
@@ -1776,21 +2199,42 @@
       <c r="C22">
         <v>11412339.8799999</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-153660.12000009976</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.3285502334437123E-2</v>
+      </c>
       <c r="G22">
         <v>11980700</v>
       </c>
       <c r="H22">
         <v>11791977.9699999</v>
       </c>
-      <c r="J22" s="5"/>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>-188722.03000009991</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.5752170574348738E-2</v>
+      </c>
       <c r="L22">
         <v>11935200</v>
       </c>
       <c r="M22">
         <v>11934454.77</v>
       </c>
-      <c r="O22" s="5"/>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>-745.23000000044703</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="5"/>
+        <v>-6.2439674240938325E-5</v>
+      </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
@@ -1802,21 +2246,42 @@
       <c r="C23">
         <v>20036743.4099999</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-825956.59000010043</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>-3.9590110100806722E-2</v>
+      </c>
       <c r="G23">
         <v>22683800</v>
       </c>
       <c r="H23">
         <v>21722126.219999898</v>
       </c>
-      <c r="J23" s="5"/>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>-961673.78000010177</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.2394738976719144E-2</v>
+      </c>
       <c r="L23">
         <v>23220300</v>
       </c>
       <c r="M23">
         <v>22619057.440000001</v>
       </c>
-      <c r="O23" s="5"/>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>-601242.55999999866</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="5"/>
+        <v>-2.5892971236375011E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
@@ -1828,21 +2293,42 @@
       <c r="C24">
         <v>904969.19</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.3334943305713101E-2</v>
+      </c>
       <c r="G24">
         <v>1112700</v>
       </c>
       <c r="H24">
         <v>1067214.42</v>
       </c>
-      <c r="J24" s="5"/>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.087856565111897E-2</v>
+      </c>
       <c r="L24">
         <v>1112600</v>
       </c>
       <c r="M24">
         <v>1112527.1200000001</v>
       </c>
-      <c r="O24" s="5"/>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>-72.879999999888241</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="5"/>
+        <v>-6.5504224339284781E-5</v>
+      </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
@@ -1854,21 +2340,42 @@
       <c r="C25">
         <v>479149.53</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.0226130964676661E-2</v>
+      </c>
       <c r="G25">
         <v>505200</v>
       </c>
       <c r="H25">
         <v>497194.20999999897</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.5846773555029746E-2</v>
+      </c>
       <c r="L25">
         <v>496500</v>
       </c>
       <c r="M25">
         <v>494775.1</v>
       </c>
-      <c r="O25" s="5"/>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>-1724.9000000000233</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" si="5"/>
+        <v>-3.4741188318228064E-3</v>
+      </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
@@ -1880,21 +2387,42 @@
       <c r="C26">
         <v>4801960.08</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-447839.91999999993</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="1"/>
+        <v>-8.5306091660634673E-2</v>
+      </c>
       <c r="G26">
         <v>5442200</v>
       </c>
       <c r="H26">
         <v>5122329.02999999</v>
       </c>
-      <c r="J26" s="5"/>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>-319870.97000000998</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="3"/>
+        <v>-5.8776040939327839E-2</v>
+      </c>
       <c r="L26">
         <v>5430700</v>
       </c>
       <c r="M26">
         <v>5117235.21</v>
       </c>
-      <c r="O26" s="5"/>
+      <c r="N26">
+        <f t="shared" si="4"/>
+        <v>-313464.79000000004</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="5"/>
+        <v>-5.7720881286022069E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
@@ -1906,21 +2434,42 @@
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="J27" s="5"/>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="O27" s="5"/>
+      <c r="N27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
@@ -1932,21 +2481,42 @@
       <c r="C28">
         <v>1250442.02</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>-132457.97999999998</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="1"/>
+        <v>-9.5782760864849215E-2</v>
+      </c>
       <c r="G28">
         <v>1545700</v>
       </c>
       <c r="H28">
         <v>1281335.23</v>
       </c>
-      <c r="J28" s="5"/>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>-264364.77</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.17103239309050916</v>
+      </c>
       <c r="L28">
         <v>1525900</v>
       </c>
       <c r="M28">
         <v>1393285.06</v>
       </c>
-      <c r="O28" s="5"/>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>-132614.93999999994</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="5"/>
+        <v>-8.6909325643882263E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
@@ -1958,21 +2528,42 @@
       <c r="C29">
         <v>2523884.71</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>-37915.290000000037</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.4800253727847622E-2</v>
+      </c>
       <c r="G29">
         <v>2779500</v>
       </c>
       <c r="H29">
         <v>2665264.4399999902</v>
       </c>
-      <c r="J29" s="5"/>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>-114235.56000000983</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.1099320021590155E-2</v>
+      </c>
       <c r="L29">
         <v>2889900</v>
       </c>
       <c r="M29">
         <v>2889864.67</v>
       </c>
-      <c r="O29" s="5"/>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>-35.330000000074506</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.2225336516860273E-5</v>
+      </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
@@ -1984,21 +2575,42 @@
       <c r="C30">
         <v>12030494.1</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>-101705.90000000037</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="1"/>
+        <v>-8.3831374359143746E-3</v>
+      </c>
       <c r="G30">
         <v>12735900</v>
       </c>
       <c r="H30">
         <v>12685514.279999901</v>
       </c>
-      <c r="J30" s="5"/>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>-50385.720000099391</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.9561962641116366E-3</v>
+      </c>
       <c r="L30">
         <v>12861300</v>
       </c>
       <c r="M30">
         <v>12826009.609999999</v>
       </c>
-      <c r="O30" s="5"/>
+      <c r="N30">
+        <f t="shared" si="4"/>
+        <v>-35290.390000000596</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="5"/>
+        <v>-2.7439209100169185E-3</v>
+      </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
@@ -2010,21 +2622,42 @@
       <c r="C31">
         <v>1740827.69</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>-24772.310000000056</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.4030533529678329E-2</v>
+      </c>
       <c r="G31">
         <v>1823300</v>
       </c>
       <c r="H31">
         <v>1762676.85</v>
       </c>
-      <c r="J31" s="5"/>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>-60623.149999999907</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.3249136181648611E-2</v>
+      </c>
       <c r="L31">
         <v>1870700</v>
       </c>
       <c r="M31">
         <v>1801391.34</v>
       </c>
-      <c r="O31" s="5"/>
+      <c r="N31">
+        <f t="shared" si="4"/>
+        <v>-69308.659999999916</v>
+      </c>
+      <c r="O31" s="5">
+        <f t="shared" si="5"/>
+        <v>-3.7049585716576634E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
@@ -2036,21 +2669,42 @@
       <c r="C32">
         <v>5925637.7199999904</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>-73762.280000009574</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.2294942827617691E-2</v>
+      </c>
       <c r="G32">
         <v>6195500</v>
       </c>
       <c r="H32">
         <v>6084985.4699999997</v>
       </c>
-      <c r="J32" s="5"/>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>-110514.53000000026</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.7837871035428981E-2</v>
+      </c>
       <c r="L32">
         <v>6157400</v>
       </c>
       <c r="M32">
         <v>5987572.0199999996</v>
       </c>
-      <c r="O32" s="5"/>
+      <c r="N32">
+        <f t="shared" si="4"/>
+        <v>-169827.98000000045</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="5"/>
+        <v>-2.7581118653977402E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
@@ -2062,21 +2716,42 @@
       <c r="C33">
         <v>920284264.73000002</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>-7418835.2699990273</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="1"/>
+        <v>-7.9969930789269058E-3</v>
+      </c>
       <c r="G33">
         <v>979671000</v>
       </c>
       <c r="H33">
         <v>977068513.48000002</v>
       </c>
-      <c r="J33" s="5"/>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>-2602486.5199999809</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.6564903115433454E-3</v>
+      </c>
       <c r="L33">
         <v>989572899.99999905</v>
       </c>
       <c r="M33">
         <v>984116289.40999901</v>
       </c>
-      <c r="O33" s="5"/>
+      <c r="N33">
+        <f t="shared" si="4"/>
+        <v>-5456610.5900000334</v>
+      </c>
+      <c r="O33" s="5">
+        <f t="shared" si="5"/>
+        <v>-5.5141067323084929E-3</v>
+      </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
@@ -2088,21 +2763,42 @@
       <c r="C34">
         <v>4109958.22</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>-79341.779999999795</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.8939149738619768E-2</v>
+      </c>
       <c r="G34">
         <v>4350600</v>
       </c>
       <c r="H34">
         <v>4137588.7699999898</v>
       </c>
-      <c r="J34" s="5"/>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>-213011.23000001023</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.8961345561534093E-2</v>
+      </c>
       <c r="L34">
         <v>4345600</v>
       </c>
       <c r="M34">
         <v>4229801.51</v>
       </c>
-      <c r="O34" s="5"/>
+      <c r="N34">
+        <f t="shared" si="4"/>
+        <v>-115798.49000000022</v>
+      </c>
+      <c r="O34" s="5">
+        <f t="shared" si="5"/>
+        <v>-2.6647296115611244E-2</v>
+      </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="s">
@@ -2114,21 +2810,42 @@
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="J35" s="5"/>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="O35" s="5"/>
+      <c r="N35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
@@ -2140,21 +2857,42 @@
       <c r="C36">
         <v>735423.27999999898</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>-62776.72000000102</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="1"/>
+        <v>-7.8647857679780775E-2</v>
+      </c>
       <c r="G36">
         <v>898700</v>
       </c>
       <c r="H36">
         <v>740966.94999999902</v>
       </c>
-      <c r="J36" s="5"/>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>-157733.05000000098</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.17551246244575608</v>
+      </c>
       <c r="L36">
         <v>878300</v>
       </c>
       <c r="M36">
         <v>777215.28999999899</v>
       </c>
-      <c r="O36" s="5"/>
+      <c r="N36">
+        <f t="shared" si="4"/>
+        <v>-101084.71000000101</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.11509132414892521</v>
+      </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
@@ -2166,21 +2904,42 @@
       <c r="C37">
         <v>2005447.73999999</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>-82352.260000010021</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="1"/>
+        <v>-3.9444515758219188E-2</v>
+      </c>
       <c r="G37">
         <v>2229200</v>
       </c>
       <c r="H37">
         <v>2118943.21</v>
       </c>
-      <c r="J37" s="5"/>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>-110256.79000000004</v>
+      </c>
+      <c r="J37" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.9460250314014013E-2</v>
+      </c>
       <c r="L37">
         <v>2296900</v>
       </c>
       <c r="M37">
         <v>2108718.34</v>
       </c>
-      <c r="O37" s="5"/>
+      <c r="N37">
+        <f t="shared" si="4"/>
+        <v>-188181.66000000015</v>
+      </c>
+      <c r="O37" s="5">
+        <f t="shared" si="5"/>
+        <v>-8.1928538464887526E-2</v>
+      </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
@@ -2192,21 +2951,42 @@
       <c r="C38">
         <v>838669.82</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>-16630.180000000051</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.9443680579913542E-2</v>
+      </c>
       <c r="G38">
         <v>792800</v>
       </c>
       <c r="H38">
         <v>753451.96</v>
       </c>
-      <c r="J38" s="5"/>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>-39348.040000000037</v>
+      </c>
+      <c r="J38" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.9631735620585316E-2</v>
+      </c>
       <c r="L38">
         <v>777800</v>
       </c>
       <c r="M38">
         <v>777663.26</v>
       </c>
-      <c r="O38" s="5"/>
+      <c r="N38">
+        <f t="shared" si="4"/>
+        <v>-136.73999999999069</v>
+      </c>
+      <c r="O38" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.7580354847003174E-4</v>
+      </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
@@ -2218,21 +2998,42 @@
       <c r="C39">
         <v>813108.87</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>-70791.13</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="1"/>
+        <v>-8.008952370177623E-2</v>
+      </c>
       <c r="G39">
         <v>1294400</v>
       </c>
       <c r="H39">
         <v>1114242.27999999</v>
       </c>
-      <c r="J39" s="5"/>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>-180157.72000000998</v>
+      </c>
+      <c r="J39" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.13918241656366656</v>
+      </c>
       <c r="L39">
         <v>1759500</v>
       </c>
       <c r="M39">
         <v>1680463.8699999901</v>
       </c>
-      <c r="O39" s="5"/>
+      <c r="N39">
+        <f t="shared" si="4"/>
+        <v>-79036.1300000099</v>
+      </c>
+      <c r="O39" s="5">
+        <f t="shared" si="5"/>
+        <v>-4.4919653310605226E-2</v>
+      </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="s">
@@ -2244,21 +3045,42 @@
       <c r="C40">
         <v>37565141.859999903</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>-816758.14000009745</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.1279773539092578E-2</v>
+      </c>
       <c r="G40">
         <v>39964900</v>
       </c>
       <c r="H40">
         <v>38095240.189999901</v>
       </c>
-      <c r="J40" s="5"/>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>-1869659.8100000992</v>
+      </c>
+      <c r="J40" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.6782546934937892E-2</v>
+      </c>
       <c r="L40">
         <v>40216700</v>
       </c>
       <c r="M40">
         <v>39606263.709999897</v>
       </c>
-      <c r="O40" s="5"/>
+      <c r="N40">
+        <f t="shared" si="4"/>
+        <v>-610436.29000010341</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.5178676768608648E-2</v>
+      </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
@@ -2270,21 +3092,42 @@
       <c r="C41">
         <v>4409060.2099999897</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="1"/>
+        <v>-4.0110550149132493E-2</v>
+      </c>
       <c r="G41">
         <v>5089500</v>
       </c>
       <c r="H41">
         <v>4956043.6699999897</v>
       </c>
-      <c r="J41" s="5"/>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.6221894095689226E-2</v>
+      </c>
       <c r="L41">
         <v>4799900</v>
       </c>
       <c r="M41">
         <v>4717822.6500000004</v>
       </c>
-      <c r="O41" s="5"/>
+      <c r="N41">
+        <f t="shared" si="4"/>
+        <v>-82077.349999999627</v>
+      </c>
+      <c r="O41" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.7099804162586642E-2</v>
+      </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" t="s">
@@ -2296,21 +3139,42 @@
       <c r="C42">
         <v>188551675.67999899</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>-41624.320001006126</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.2070943135841053E-4</v>
+      </c>
       <c r="G42">
         <v>199130300</v>
       </c>
       <c r="H42">
         <v>196755033.31</v>
       </c>
-      <c r="J42" s="5"/>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>-2375266.6899999976</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.1928203241796942E-2</v>
+      </c>
       <c r="L42">
         <v>199954600</v>
       </c>
       <c r="M42">
         <v>199954563.74999899</v>
       </c>
-      <c r="O42" s="5"/>
+      <c r="N42">
+        <f t="shared" si="4"/>
+        <v>-36.250001013278961</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.8129115815929696E-7</v>
+      </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" t="s">
@@ -2322,21 +3186,42 @@
       <c r="C43">
         <v>7968645.8300000001</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>-166754.16999999993</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.0497353541313264E-2</v>
+      </c>
       <c r="G43">
         <v>8560800</v>
       </c>
       <c r="H43">
         <v>8171472.0199999996</v>
       </c>
-      <c r="J43" s="5"/>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>-389327.98000000045</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.5477990374731388E-2</v>
+      </c>
       <c r="L43">
         <v>8497500</v>
       </c>
       <c r="M43">
         <v>8150982.5699999901</v>
       </c>
-      <c r="O43" s="5"/>
+      <c r="N43">
+        <f t="shared" si="4"/>
+        <v>-346517.43000000995</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="5"/>
+        <v>-4.0778750220654303E-2</v>
+      </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" t="s">
@@ -2348,21 +3233,42 @@
       <c r="C44">
         <v>29789104.379999999</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>-294095.62000000104</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="1"/>
+        <v>-9.7760750186150751E-3</v>
+      </c>
       <c r="G44">
         <v>31040700</v>
       </c>
       <c r="H44">
         <v>30793711.48</v>
       </c>
-      <c r="J44" s="5"/>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>-246988.51999999955</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="3"/>
+        <v>-7.9569249404813532E-3</v>
+      </c>
       <c r="L44">
         <v>31282200</v>
       </c>
       <c r="M44">
         <v>31282141.25</v>
       </c>
-      <c r="O44" s="5"/>
+      <c r="N44">
+        <f t="shared" si="4"/>
+        <v>-58.75</v>
+      </c>
+      <c r="O44" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.8780648419868168E-6</v>
+      </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" t="s">
@@ -2374,21 +3280,42 @@
       <c r="C45">
         <v>54589584.0499999</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>-712015.95000009984</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.287514194887851E-2</v>
+      </c>
       <c r="G45">
         <v>56792200</v>
       </c>
       <c r="H45">
         <v>54594953.959999897</v>
       </c>
-      <c r="J45" s="5"/>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>-2197246.0400001034</v>
+      </c>
+      <c r="J45" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.8689222111488959E-2</v>
+      </c>
       <c r="L45">
         <v>56027100</v>
       </c>
       <c r="M45">
         <v>55386549.6599999</v>
       </c>
-      <c r="O45" s="5"/>
+      <c r="N45">
+        <f t="shared" si="4"/>
+        <v>-640550.34000010043</v>
+      </c>
+      <c r="O45" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.1432866237947358E-2</v>
+      </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
@@ -2400,21 +3327,42 @@
       <c r="C46">
         <v>258322.43</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>-777.57000000000698</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="1"/>
+        <v>-3.0010420686993711E-3</v>
+      </c>
       <c r="G46">
         <v>266000</v>
       </c>
       <c r="H46">
         <v>257402.90999999901</v>
       </c>
-      <c r="J46" s="5"/>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>-8597.090000000986</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.2319887218048821E-2</v>
+      </c>
       <c r="L46">
         <v>267100</v>
       </c>
       <c r="M46">
         <v>254753.15999999901</v>
       </c>
-      <c r="O46" s="5"/>
+      <c r="N46">
+        <f t="shared" si="4"/>
+        <v>-12346.840000000986</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" si="5"/>
+        <v>-4.6225533508053113E-2</v>
+      </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" t="s">
@@ -2426,21 +3374,42 @@
       <c r="C47">
         <v>70378426.719999999</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>-12273.280000001192</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.7435939690898361E-4</v>
+      </c>
       <c r="G47">
         <v>73467000</v>
       </c>
       <c r="H47">
         <v>73442541.659999996</v>
       </c>
-      <c r="J47" s="5"/>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>-24458.340000003576</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.3291600310348285E-4</v>
+      </c>
       <c r="L47">
         <v>75072800</v>
       </c>
       <c r="M47">
         <v>75050829.179999903</v>
       </c>
-      <c r="O47" s="5"/>
+      <c r="N47">
+        <f t="shared" si="4"/>
+        <v>-21970.820000097156</v>
+      </c>
+      <c r="O47" s="5">
+        <f t="shared" si="5"/>
+        <v>-2.9266019117572752E-4</v>
+      </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" t="s">
@@ -2452,21 +3421,42 @@
       <c r="C48">
         <v>6527352.5699999901</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>-209747.43000000995</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="1"/>
+        <v>-3.1133192323107857E-2</v>
+      </c>
       <c r="G48">
         <v>7214700</v>
       </c>
       <c r="H48">
         <v>6922072.5599999996</v>
       </c>
-      <c r="J48" s="5"/>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>-292627.44000000041</v>
+      </c>
+      <c r="J48" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.0559890224125802E-2</v>
+      </c>
       <c r="L48">
         <v>7289800</v>
       </c>
       <c r="M48">
         <v>6882350.23999999</v>
       </c>
-      <c r="O48" s="5"/>
+      <c r="N48">
+        <f t="shared" si="4"/>
+        <v>-407449.76000001002</v>
+      </c>
+      <c r="O48" s="5">
+        <f t="shared" si="5"/>
+        <v>-5.5893132870587676E-2</v>
+      </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
@@ -2478,21 +3468,42 @@
       <c r="C49">
         <v>90499.43</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>-1700.570000000007</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.8444360086767971E-2</v>
+      </c>
       <c r="G49">
         <v>102600</v>
       </c>
       <c r="H49">
         <v>95466.880000000005</v>
       </c>
-      <c r="J49" s="5"/>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>-7133.1199999999953</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" si="3"/>
+        <v>-6.9523586744639335E-2</v>
+      </c>
       <c r="L49">
         <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
-      <c r="O49" s="5"/>
+      <c r="N49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" t="s">
@@ -2504,21 +3515,42 @@
       <c r="C50">
         <v>832600</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G50">
         <v>859100</v>
       </c>
       <c r="H50">
         <v>859100</v>
       </c>
-      <c r="J50" s="5"/>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L50">
         <v>843200</v>
       </c>
       <c r="M50">
         <v>843200</v>
       </c>
-      <c r="O50" s="5"/>
+      <c r="N50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" t="s">
@@ -2530,21 +3562,42 @@
       <c r="C51">
         <v>8499425.3399999905</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>-110074.66000000946</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.2785255822058129E-2</v>
+      </c>
       <c r="G51">
         <v>8925500</v>
       </c>
       <c r="H51">
         <v>8599059.6199999992</v>
       </c>
-      <c r="J51" s="5"/>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>-326440.38000000082</v>
+      </c>
+      <c r="J51" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.6573903982970231E-2</v>
+      </c>
       <c r="L51">
         <v>8833900</v>
       </c>
       <c r="M51">
         <v>8735843.3100000005</v>
       </c>
-      <c r="O51" s="5"/>
+      <c r="N51">
+        <f t="shared" si="4"/>
+        <v>-98056.689999999478</v>
+      </c>
+      <c r="O51" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.1100045280114048E-2</v>
+      </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" t="s">
@@ -2556,21 +3609,42 @@
       <c r="C52">
         <v>2254684.7999999998</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>-196315.20000000019</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="1"/>
+        <v>-8.009596083231342E-2</v>
+      </c>
       <c r="G52">
         <v>2440700</v>
       </c>
       <c r="H52">
         <v>2204672.88</v>
       </c>
-      <c r="J52" s="5"/>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>-236027.12000000011</v>
+      </c>
+      <c r="J52" s="5">
+        <f t="shared" si="3"/>
+        <v>-9.6704683082722218E-2</v>
+      </c>
       <c r="L52">
         <v>2321600</v>
       </c>
       <c r="M52">
         <v>2056835.26</v>
       </c>
-      <c r="O52" s="5"/>
+      <c r="N52">
+        <f t="shared" si="4"/>
+        <v>-264764.74</v>
+      </c>
+      <c r="O52" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.11404408166781529</v>
+      </c>
     </row>
     <row r="54" spans="1:15" ht="15">
       <c r="A54" s="2" t="s">

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary van Valkenburg\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F464F73B-96BB-42CD-A0F9-F56B1265BEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E242C3BA-478D-401F-99B9-F9A0AED01DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="90" windowWidth="21877" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -812,7 +812,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -824,6 +824,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1182,7 +1186,7 @@
   <dimension ref="A1:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1263,9 +1267,13 @@
         <f>C2-B2</f>
         <v>-15396420.870000005</v>
       </c>
-      <c r="E2" s="5">
-        <f>D2/B2</f>
+      <c r="E2" s="9">
+        <f>IFERROR((D2/B2), "0")</f>
         <v>-4.3170750765267295E-2</v>
+      </c>
+      <c r="F2" s="10">
+        <f>RANK(E2,$E$2:$E$52,1)+COUNTIF($E$2:E2,E2)-1</f>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>382685200</v>
@@ -1277,9 +1285,13 @@
         <f>H2-G2</f>
         <v>-36344389.180000007</v>
       </c>
-      <c r="J2" s="5">
-        <f>I2/G2</f>
+      <c r="J2" s="9">
+        <f>IFERROR((I2/G2), "0")</f>
         <v>-9.4972027086493035E-2</v>
+      </c>
+      <c r="K2" s="10">
+        <f>RANK(J2,$J$2:$J$52,1)+COUNTIF($J$2:J2,J2)-1</f>
+        <v>10</v>
       </c>
       <c r="L2">
         <v>376548600</v>
@@ -1291,9 +1303,13 @@
         <f>M2-L2</f>
         <v>-21269107.770000994</v>
       </c>
-      <c r="O2" s="5">
-        <f>N2/L2</f>
+      <c r="O2" s="9">
+        <f>IFERROR((N2/L2),"0")</f>
         <v>-5.6484362894991494E-2</v>
+      </c>
+      <c r="P2" s="10">
+        <f>RANK(O2,$O$2:$O$52,1)+COUNTIF($O$2:O2,O2)-1</f>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1310,9 +1326,13 @@
         <f t="shared" ref="D3:D52" si="0">C3-B3</f>
         <v>-7585.4099999999744</v>
       </c>
-      <c r="E3" s="5">
-        <f t="shared" ref="E3:E52" si="1">D3/B3</f>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E52" si="1">IFERROR((D3/B3), "0")</f>
         <v>-2.3069981751824741E-2</v>
+      </c>
+      <c r="F3" s="10">
+        <f>RANK(E3,$E$2:$E$52,1)+COUNTIF($E$2:E3,E3)-1</f>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>334800</v>
@@ -1324,9 +1344,13 @@
         <f t="shared" ref="I3:I52" si="2">H3-G3</f>
         <v>-22366.290000001027</v>
       </c>
-      <c r="J3" s="5">
-        <f t="shared" ref="J3:J52" si="3">I3/G3</f>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J52" si="3">IFERROR((I3/G3), "0")</f>
         <v>-6.6804928315415249E-2</v>
+      </c>
+      <c r="K3" s="10">
+        <f>RANK(J3,$J$2:$J$52,1)+COUNTIF($J$2:J3,J3)-1</f>
+        <v>14</v>
       </c>
       <c r="L3">
         <v>322700</v>
@@ -1338,9 +1362,13 @@
         <f t="shared" ref="N3:N52" si="4">M3-L3</f>
         <v>-436.96000000002095</v>
       </c>
-      <c r="O3" s="5">
-        <f t="shared" ref="O3:O52" si="5">N3/L3</f>
+      <c r="O3" s="9">
+        <f t="shared" ref="O3:O52" si="5">IFERROR((N3/L3),"0")</f>
         <v>-1.3540749922529313E-3</v>
+      </c>
+      <c r="P3" s="10">
+        <f>RANK(O3,$O$2:$O$52,1)+COUNTIF($O$2:O3,O3)-1</f>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1357,9 +1385,13 @@
         <f t="shared" si="0"/>
         <v>-15442.440000010189</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="9">
         <f t="shared" si="1"/>
         <v>-4.9327413275443007E-3</v>
+      </c>
+      <c r="F4" s="10">
+        <f>RANK(E4,$E$2:$E$52,1)+COUNTIF($E$2:E4,E4)-1</f>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>3652300</v>
@@ -1371,9 +1403,13 @@
         <f t="shared" si="2"/>
         <v>-62606.790000009816</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="9">
         <f t="shared" si="3"/>
         <v>-1.7141743558856015E-2</v>
+      </c>
+      <c r="K4" s="10">
+        <f>RANK(J4,$J$2:$J$52,1)+COUNTIF($J$2:J4,J4)-1</f>
+        <v>36</v>
       </c>
       <c r="L4">
         <v>3662400</v>
@@ -1385,9 +1421,13 @@
         <f t="shared" si="4"/>
         <v>-97416.950000009965</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="9">
         <f t="shared" si="5"/>
         <v>-2.6599210899959033E-2</v>
+      </c>
+      <c r="P4" s="10">
+        <f>RANK(O4,$O$2:$O$52,1)+COUNTIF($O$2:O4,O4)-1</f>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1404,9 +1444,13 @@
         <f t="shared" si="0"/>
         <v>-723147.33000000007</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="9">
         <f t="shared" si="1"/>
         <v>-9.4273968477453174E-2</v>
+      </c>
+      <c r="F5" s="10">
+        <f>RANK(E5,$E$2:$E$52,1)+COUNTIF($E$2:E5,E5)-1</f>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>7968300</v>
@@ -1418,9 +1462,13 @@
         <f t="shared" si="2"/>
         <v>-947690.6799999997</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="9">
         <f t="shared" si="3"/>
         <v>-0.118932605449092</v>
+      </c>
+      <c r="K5" s="10">
+        <f>RANK(J5,$J$2:$J$52,1)+COUNTIF($J$2:J5,J5)-1</f>
+        <v>5</v>
       </c>
       <c r="L5">
         <v>7759600</v>
@@ -1432,9 +1480,13 @@
         <f t="shared" si="4"/>
         <v>-262277.08999999985</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="9">
         <f t="shared" si="5"/>
         <v>-3.3800336357544182E-2</v>
+      </c>
+      <c r="P5" s="10">
+        <f>RANK(O5,$O$2:$O$52,1)+COUNTIF($O$2:O5,O5)-1</f>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1451,9 +1503,13 @@
         <f t="shared" si="0"/>
         <v>-23391.479999999981</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="9">
         <f t="shared" si="1"/>
         <v>-5.7149963352064452E-2</v>
+      </c>
+      <c r="F6" s="10">
+        <f>RANK(E6,$E$2:$E$52,1)+COUNTIF($E$2:E6,E6)-1</f>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>428500</v>
@@ -1465,9 +1521,13 @@
         <f t="shared" si="2"/>
         <v>-741.35999999998603</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="9">
         <f t="shared" si="3"/>
         <v>-1.7301283547257551E-3</v>
+      </c>
+      <c r="K6" s="10">
+        <f>RANK(J6,$J$2:$J$52,1)+COUNTIF($J$2:J6,J6)-1</f>
+        <v>44</v>
       </c>
       <c r="L6">
         <v>445200</v>
@@ -1479,9 +1539,13 @@
         <f t="shared" si="4"/>
         <v>-85.710000001010485</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="9">
         <f t="shared" si="5"/>
         <v>-1.925202156356929E-4</v>
+      </c>
+      <c r="P6" s="10">
+        <f>RANK(O6,$O$2:$O$52,1)+COUNTIF($O$2:O6,O6)-1</f>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1498,9 +1562,13 @@
         <f t="shared" si="0"/>
         <v>-382928.79000000004</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="9">
         <f t="shared" si="1"/>
         <v>-0.11502817362571344</v>
+      </c>
+      <c r="F7" s="10">
+        <f>RANK(E7,$E$2:$E$52,1)+COUNTIF($E$2:E7,E7)-1</f>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>3390900</v>
@@ -1512,9 +1580,13 @@
         <f t="shared" si="2"/>
         <v>-339416.58999999985</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="9">
         <f t="shared" si="3"/>
         <v>-0.10009631366303927</v>
+      </c>
+      <c r="K7" s="10">
+        <f>RANK(J7,$J$2:$J$52,1)+COUNTIF($J$2:J7,J7)-1</f>
+        <v>8</v>
       </c>
       <c r="L7">
         <v>3345200</v>
@@ -1526,9 +1598,13 @@
         <f t="shared" si="4"/>
         <v>-398759.91999999993</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="9">
         <f t="shared" si="5"/>
         <v>-0.11920361114432618</v>
+      </c>
+      <c r="P7" s="10">
+        <f>RANK(O7,$O$2:$O$52,1)+COUNTIF($O$2:O7,O7)-1</f>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1545,9 +1621,13 @@
         <f t="shared" si="0"/>
         <v>-236476.69000000996</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="9">
         <f t="shared" si="1"/>
         <v>-0.15235918433091292</v>
+      </c>
+      <c r="F8" s="10">
+        <f>RANK(E8,$E$2:$E$52,1)+COUNTIF($E$2:E8,E8)-1</f>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>1590700</v>
@@ -1559,9 +1639,13 @@
         <f t="shared" si="2"/>
         <v>-206794.01000001002</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="9">
         <f t="shared" si="3"/>
         <v>-0.13000189224870184</v>
+      </c>
+      <c r="K8" s="10">
+        <f>RANK(J8,$J$2:$J$52,1)+COUNTIF($J$2:J8,J8)-1</f>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>1579300</v>
@@ -1573,9 +1657,13 @@
         <f t="shared" si="4"/>
         <v>-241564.68000000995</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="9">
         <f t="shared" si="5"/>
         <v>-0.15295680364719175</v>
+      </c>
+      <c r="P8" s="10">
+        <f>RANK(O8,$O$2:$O$52,1)+COUNTIF($O$2:O8,O8)-1</f>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1592,9 +1680,13 @@
         <f t="shared" si="0"/>
         <v>-396574.72000000067</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="9">
         <f t="shared" si="1"/>
         <v>-4.2417130511048909E-2</v>
+      </c>
+      <c r="F9" s="10">
+        <f>RANK(E9,$E$2:$E$52,1)+COUNTIF($E$2:E9,E9)-1</f>
+        <v>16</v>
       </c>
       <c r="G9">
         <v>11073700</v>
@@ -1606,9 +1698,13 @@
         <f t="shared" si="2"/>
         <v>-1144640.4800000004</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="9">
         <f t="shared" si="3"/>
         <v>-0.10336567542917005</v>
+      </c>
+      <c r="K9" s="10">
+        <f>RANK(J9,$J$2:$J$52,1)+COUNTIF($J$2:J9,J9)-1</f>
+        <v>7</v>
       </c>
       <c r="L9">
         <v>10790500</v>
@@ -1620,9 +1716,13 @@
         <f t="shared" si="4"/>
         <v>-796900.47000000998</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="9">
         <f t="shared" si="5"/>
         <v>-7.3852043000788653E-2</v>
+      </c>
+      <c r="P9" s="10">
+        <f>RANK(O9,$O$2:$O$52,1)+COUNTIF($O$2:O9,O9)-1</f>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1639,9 +1739,13 @@
         <f t="shared" si="0"/>
         <v>-36209.630000000005</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="9">
         <f t="shared" si="1"/>
         <v>-8.1681998646514792E-2</v>
+      </c>
+      <c r="F10" s="10">
+        <f>RANK(E10,$E$2:$E$52,1)+COUNTIF($E$2:E10,E10)-1</f>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>495200</v>
@@ -1653,9 +1757,13 @@
         <f t="shared" si="2"/>
         <v>-27292.159999999974</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="9">
         <f t="shared" si="3"/>
         <v>-5.5113408723747932E-2</v>
+      </c>
+      <c r="K10" s="10">
+        <f>RANK(J10,$J$2:$J$52,1)+COUNTIF($J$2:J10,J10)-1</f>
+        <v>17</v>
       </c>
       <c r="L10">
         <v>487500</v>
@@ -1667,9 +1775,13 @@
         <f t="shared" si="4"/>
         <v>-9181.0800000000163</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="9">
         <f t="shared" si="5"/>
         <v>-1.883298461538465E-2</v>
+      </c>
+      <c r="P10" s="10">
+        <f>RANK(O10,$O$2:$O$52,1)+COUNTIF($O$2:O10,O10)-1</f>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1686,9 +1798,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="E11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <f>RANK(E11,$E$2:$E$52,1)+COUNTIF($E$2:E11,E11)-1</f>
+        <v>47</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1700,9 +1816,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="J11" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <f>RANK(J11,$J$2:$J$52,1)+COUNTIF($J$2:J11,J11)-1</f>
+        <v>48</v>
       </c>
       <c r="L11">
         <v>375000</v>
@@ -1714,9 +1834,13 @@
         <f t="shared" si="4"/>
         <v>-311228.08999999997</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="9">
         <f t="shared" si="5"/>
         <v>-0.82994157333333329</v>
+      </c>
+      <c r="P11" s="10">
+        <f>RANK(O11,$O$2:$O$52,1)+COUNTIF($O$2:O11,O11)-1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1733,9 +1857,13 @@
         <f t="shared" si="0"/>
         <v>-214304.66999999993</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="9">
         <f t="shared" si="1"/>
         <v>-5.0060657805601608E-2</v>
+      </c>
+      <c r="F12" s="10">
+        <f>RANK(E12,$E$2:$E$52,1)+COUNTIF($E$2:E12,E12)-1</f>
+        <v>13</v>
       </c>
       <c r="G12">
         <v>4700400</v>
@@ -1747,9 +1875,13 @@
         <f t="shared" si="2"/>
         <v>-494844.40000000037</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="9">
         <f t="shared" si="3"/>
         <v>-0.10527708280146378</v>
+      </c>
+      <c r="K12" s="10">
+        <f>RANK(J12,$J$2:$J$52,1)+COUNTIF($J$2:J12,J12)-1</f>
+        <v>6</v>
       </c>
       <c r="L12">
         <v>4677800</v>
@@ -1761,9 +1893,13 @@
         <f t="shared" si="4"/>
         <v>-306086.86000000034</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="9">
         <f t="shared" si="5"/>
         <v>-6.5433934755654441E-2</v>
+      </c>
+      <c r="P12" s="10">
+        <f>RANK(O12,$O$2:$O$52,1)+COUNTIF($O$2:O12,O12)-1</f>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1780,9 +1916,13 @@
         <f t="shared" si="0"/>
         <v>-75511.669999999925</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="9">
         <f t="shared" si="1"/>
         <v>-1.2912833886247806E-2</v>
+      </c>
+      <c r="F13" s="10">
+        <f>RANK(E13,$E$2:$E$52,1)+COUNTIF($E$2:E13,E13)-1</f>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>6223700</v>
@@ -1794,9 +1934,13 @@
         <f t="shared" si="2"/>
         <v>-314622.06000000983</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="9">
         <f t="shared" si="3"/>
         <v>-5.0552253482656594E-2</v>
+      </c>
+      <c r="K13" s="10">
+        <f>RANK(J13,$J$2:$J$52,1)+COUNTIF($J$2:J13,J13)-1</f>
+        <v>18</v>
       </c>
       <c r="L13">
         <v>6207300</v>
@@ -1808,9 +1952,13 @@
         <f t="shared" si="4"/>
         <v>-150323.33000000007</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="9">
         <f t="shared" si="5"/>
         <v>-2.4217184605222895E-2</v>
+      </c>
+      <c r="P13" s="10">
+        <f>RANK(O13,$O$2:$O$52,1)+COUNTIF($O$2:O13,O13)-1</f>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1827,9 +1975,13 @@
         <f t="shared" si="0"/>
         <v>-6982.6300000000047</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="9">
         <f t="shared" si="1"/>
         <v>-1.3637949218750009E-2</v>
+      </c>
+      <c r="F14" s="10">
+        <f>RANK(E14,$E$2:$E$52,1)+COUNTIF($E$2:E14,E14)-1</f>
+        <v>30</v>
       </c>
       <c r="G14">
         <v>530500</v>
@@ -1841,9 +1993,13 @@
         <f t="shared" si="2"/>
         <v>-6097.0200000000186</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="9">
         <f t="shared" si="3"/>
         <v>-1.1492968897266765E-2</v>
+      </c>
+      <c r="K14" s="10">
+        <f>RANK(J14,$J$2:$J$52,1)+COUNTIF($J$2:J14,J14)-1</f>
+        <v>40</v>
       </c>
       <c r="L14">
         <v>526200</v>
@@ -1855,9 +2011,13 @@
         <f t="shared" si="4"/>
         <v>-21210.119999999995</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="9">
         <f t="shared" si="5"/>
         <v>-4.0308095781071827E-2</v>
+      </c>
+      <c r="P14" s="10">
+        <f>RANK(O14,$O$2:$O$52,1)+COUNTIF($O$2:O14,O14)-1</f>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1874,9 +2034,13 @@
         <f t="shared" si="0"/>
         <v>496819.90000000596</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="9">
         <f t="shared" si="1"/>
         <v>3.1837408866824991E-3</v>
+      </c>
+      <c r="F15" s="10">
+        <f>RANK(E15,$E$2:$E$52,1)+COUNTIF($E$2:E15,E15)-1</f>
+        <v>48</v>
       </c>
       <c r="G15">
         <v>184167800</v>
@@ -1888,9 +2052,13 @@
         <f t="shared" si="2"/>
         <v>-8201410.7500010133</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="9">
         <f t="shared" si="3"/>
         <v>-4.4532273014072019E-2</v>
+      </c>
+      <c r="K15" s="10">
+        <f>RANK(J15,$J$2:$J$52,1)+COUNTIF($J$2:J15,J15)-1</f>
+        <v>24</v>
       </c>
       <c r="L15">
         <v>188953500</v>
@@ -1902,9 +2070,13 @@
         <f t="shared" si="4"/>
         <v>-4502589.1500009894</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="9">
         <f t="shared" si="5"/>
         <v>-2.3829085727446114E-2</v>
+      </c>
+      <c r="P15" s="10">
+        <f>RANK(O15,$O$2:$O$52,1)+COUNTIF($O$2:O15,O15)-1</f>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1921,9 +2093,13 @@
         <f t="shared" si="0"/>
         <v>-78219.540000010282</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="9">
         <f t="shared" si="1"/>
         <v>-1.1850188616360429E-2</v>
+      </c>
+      <c r="F16" s="10">
+        <f>RANK(E16,$E$2:$E$52,1)+COUNTIF($E$2:E16,E16)-1</f>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>7352500</v>
@@ -1935,9 +2111,13 @@
         <f t="shared" si="2"/>
         <v>-2035.9199999999255</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="9">
         <f t="shared" si="3"/>
         <v>-2.769017341040361E-4</v>
+      </c>
+      <c r="K16" s="10">
+        <f>RANK(J16,$J$2:$J$52,1)+COUNTIF($J$2:J16,J16)-1</f>
+        <v>46</v>
       </c>
       <c r="L16">
         <v>7397200</v>
@@ -1949,12 +2129,16 @@
         <f t="shared" si="4"/>
         <v>-107</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="9">
         <f t="shared" si="5"/>
         <v>-1.4464932677229222E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="10">
+        <f>RANK(O16,$O$2:$O$52,1)+COUNTIF($O$2:O16,O16)-1</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1968,9 +2152,13 @@
         <f t="shared" si="0"/>
         <v>-421319.94999999925</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="9">
         <f t="shared" si="1"/>
         <v>-2.8351094826658003E-2</v>
+      </c>
+      <c r="F17" s="10">
+        <f>RANK(E17,$E$2:$E$52,1)+COUNTIF($E$2:E17,E17)-1</f>
+        <v>21</v>
       </c>
       <c r="G17">
         <v>15309700</v>
@@ -1982,9 +2170,13 @@
         <f t="shared" si="2"/>
         <v>-664466.49000000022</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="9">
         <f t="shared" si="3"/>
         <v>-4.3401666263871937E-2</v>
+      </c>
+      <c r="K17" s="10">
+        <f>RANK(J17,$J$2:$J$52,1)+COUNTIF($J$2:J17,J17)-1</f>
+        <v>25</v>
       </c>
       <c r="L17">
         <v>15311800</v>
@@ -1996,12 +2188,16 @@
         <f t="shared" si="4"/>
         <v>-965742.96000000089</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="9">
         <f t="shared" si="5"/>
         <v>-6.3071811282801551E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="10">
+        <f>RANK(O17,$O$2:$O$52,1)+COUNTIF($O$2:O17,O17)-1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2015,9 +2211,13 @@
         <f t="shared" si="0"/>
         <v>-149396.10000000987</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="9">
         <f t="shared" si="1"/>
         <v>-5.4037002206391245E-2</v>
+      </c>
+      <c r="F18" s="10">
+        <f>RANK(E18,$E$2:$E$52,1)+COUNTIF($E$2:E18,E18)-1</f>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>2861000</v>
@@ -2029,9 +2229,13 @@
         <f t="shared" si="2"/>
         <v>-189254.06000000006</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="9">
         <f t="shared" si="3"/>
         <v>-6.6149619014330668E-2</v>
+      </c>
+      <c r="K18" s="10">
+        <f>RANK(J18,$J$2:$J$52,1)+COUNTIF($J$2:J18,J18)-1</f>
+        <v>15</v>
       </c>
       <c r="L18">
         <v>2910600</v>
@@ -2043,12 +2247,16 @@
         <f t="shared" si="4"/>
         <v>-374962.91000000015</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="9">
         <f t="shared" si="5"/>
         <v>-0.12882667147667154</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="10">
+        <f>RANK(O18,$O$2:$O$52,1)+COUNTIF($O$2:O18,O18)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2062,9 +2270,13 @@
         <f t="shared" si="0"/>
         <v>-376336.80000001006</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="9">
         <f t="shared" si="1"/>
         <v>-4.258504294298146E-2</v>
+      </c>
+      <c r="F19" s="10">
+        <f>RANK(E19,$E$2:$E$52,1)+COUNTIF($E$2:E19,E19)-1</f>
+        <v>15</v>
       </c>
       <c r="G19">
         <v>9713300</v>
@@ -2076,9 +2288,13 @@
         <f t="shared" si="2"/>
         <v>-721592.76000000909</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="9">
         <f t="shared" si="3"/>
         <v>-7.4289145810384635E-2</v>
+      </c>
+      <c r="K19" s="10">
+        <f>RANK(J19,$J$2:$J$52,1)+COUNTIF($J$2:J19,J19)-1</f>
+        <v>12</v>
       </c>
       <c r="L19">
         <v>9343000</v>
@@ -2090,12 +2306,16 @@
         <f t="shared" si="4"/>
         <v>-576344.08999999985</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="9">
         <f t="shared" si="5"/>
         <v>-6.1687262121374278E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="10">
+        <f>RANK(O19,$O$2:$O$52,1)+COUNTIF($O$2:O19,O19)-1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2109,9 +2329,13 @@
         <f t="shared" si="0"/>
         <v>-1539.8400010019541</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="9">
         <f t="shared" si="1"/>
         <v>-1.2379538203300809E-5</v>
+      </c>
+      <c r="F20" s="10">
+        <f>RANK(E20,$E$2:$E$52,1)+COUNTIF($E$2:E20,E20)-1</f>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>131849400</v>
@@ -2123,9 +2347,13 @@
         <f t="shared" si="2"/>
         <v>-9775.6299999952316</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="9">
         <f t="shared" si="3"/>
         <v>-7.4142392760188761E-5</v>
+      </c>
+      <c r="K20" s="10">
+        <f>RANK(J20,$J$2:$J$52,1)+COUNTIF($J$2:J20,J20)-1</f>
+        <v>47</v>
       </c>
       <c r="L20">
         <v>130621400</v>
@@ -2137,12 +2365,16 @@
         <f t="shared" si="4"/>
         <v>-116.46000100672245</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="9">
         <f t="shared" si="5"/>
         <v>-8.9158438821450736E-7</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="10">
+        <f>RANK(O20,$O$2:$O$52,1)+COUNTIF($O$2:O20,O20)-1</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2156,9 +2388,13 @@
         <f t="shared" si="0"/>
         <v>-1923512.4500000998</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="9">
         <f t="shared" si="1"/>
         <v>-7.9052463618023094E-2</v>
+      </c>
+      <c r="F21" s="10">
+        <f>RANK(E21,$E$2:$E$52,1)+COUNTIF($E$2:E21,E21)-1</f>
+        <v>9</v>
       </c>
       <c r="G21">
         <v>24497400</v>
@@ -2170,9 +2406,13 @@
         <f t="shared" si="2"/>
         <v>-1841406.370000001</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="9">
         <f t="shared" si="3"/>
         <v>-7.5167420624229556E-2</v>
+      </c>
+      <c r="K21" s="10">
+        <f>RANK(J21,$J$2:$J$52,1)+COUNTIF($J$2:J21,J21)-1</f>
+        <v>11</v>
       </c>
       <c r="L21">
         <v>24323000</v>
@@ -2184,12 +2424,16 @@
         <f t="shared" si="4"/>
         <v>-888926.91000010073</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="9">
         <f t="shared" si="5"/>
         <v>-3.6546762734864152E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="10">
+        <f>RANK(O21,$O$2:$O$52,1)+COUNTIF($O$2:O21,O21)-1</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -2203,9 +2447,13 @@
         <f t="shared" si="0"/>
         <v>-153660.12000009976</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="9">
         <f t="shared" si="1"/>
         <v>-1.3285502334437123E-2</v>
+      </c>
+      <c r="F22" s="10">
+        <f>RANK(E22,$E$2:$E$52,1)+COUNTIF($E$2:E22,E22)-1</f>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>11980700</v>
@@ -2217,9 +2465,13 @@
         <f t="shared" si="2"/>
         <v>-188722.03000009991</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="9">
         <f t="shared" si="3"/>
         <v>-1.5752170574348738E-2</v>
+      </c>
+      <c r="K22" s="10">
+        <f>RANK(J22,$J$2:$J$52,1)+COUNTIF($J$2:J22,J22)-1</f>
+        <v>38</v>
       </c>
       <c r="L22">
         <v>11935200</v>
@@ -2231,12 +2483,16 @@
         <f t="shared" si="4"/>
         <v>-745.23000000044703</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="9">
         <f t="shared" si="5"/>
         <v>-6.2439674240938325E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="10">
+        <f>RANK(O22,$O$2:$O$52,1)+COUNTIF($O$2:O22,O22)-1</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2250,9 +2506,13 @@
         <f t="shared" si="0"/>
         <v>-825956.59000010043</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="9">
         <f t="shared" si="1"/>
         <v>-3.9590110100806722E-2</v>
+      </c>
+      <c r="F23" s="10">
+        <f>RANK(E23,$E$2:$E$52,1)+COUNTIF($E$2:E23,E23)-1</f>
+        <v>18</v>
       </c>
       <c r="G23">
         <v>22683800</v>
@@ -2264,9 +2524,13 @@
         <f t="shared" si="2"/>
         <v>-961673.78000010177</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="9">
         <f t="shared" si="3"/>
         <v>-4.2394738976719144E-2</v>
+      </c>
+      <c r="K23" s="10">
+        <f>RANK(J23,$J$2:$J$52,1)+COUNTIF($J$2:J23,J23)-1</f>
+        <v>26</v>
       </c>
       <c r="L23">
         <v>23220300</v>
@@ -2278,12 +2542,16 @@
         <f t="shared" si="4"/>
         <v>-601242.55999999866</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="9">
         <f t="shared" si="5"/>
         <v>-2.5892971236375011E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="10">
+        <f>RANK(O23,$O$2:$O$52,1)+COUNTIF($O$2:O23,O23)-1</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -2297,9 +2565,13 @@
         <f t="shared" si="0"/>
         <v>-12230.810000000056</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="9">
         <f t="shared" si="1"/>
         <v>-1.3334943305713101E-2</v>
+      </c>
+      <c r="F24" s="10">
+        <f>RANK(E24,$E$2:$E$52,1)+COUNTIF($E$2:E24,E24)-1</f>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>1112700</v>
@@ -2311,9 +2583,13 @@
         <f t="shared" si="2"/>
         <v>-45485.580000000075</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="9">
         <f t="shared" si="3"/>
         <v>-4.087856565111897E-2</v>
+      </c>
+      <c r="K24" s="10">
+        <f>RANK(J24,$J$2:$J$52,1)+COUNTIF($J$2:J24,J24)-1</f>
+        <v>28</v>
       </c>
       <c r="L24">
         <v>1112600</v>
@@ -2325,12 +2601,16 @@
         <f t="shared" si="4"/>
         <v>-72.879999999888241</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="9">
         <f t="shared" si="5"/>
         <v>-6.5504224339284781E-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="10">
+        <f>RANK(O24,$O$2:$O$52,1)+COUNTIF($O$2:O24,O24)-1</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2344,9 +2624,13 @@
         <f t="shared" si="0"/>
         <v>-4950.4699999999721</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="9">
         <f t="shared" si="1"/>
         <v>-1.0226130964676661E-2</v>
+      </c>
+      <c r="F25" s="10">
+        <f>RANK(E25,$E$2:$E$52,1)+COUNTIF($E$2:E25,E25)-1</f>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>505200</v>
@@ -2358,9 +2642,13 @@
         <f t="shared" si="2"/>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="9">
         <f t="shared" si="3"/>
         <v>-1.5846773555029746E-2</v>
+      </c>
+      <c r="K25" s="10">
+        <f>RANK(J25,$J$2:$J$52,1)+COUNTIF($J$2:J25,J25)-1</f>
+        <v>37</v>
       </c>
       <c r="L25">
         <v>496500</v>
@@ -2372,12 +2660,16 @@
         <f t="shared" si="4"/>
         <v>-1724.9000000000233</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="9">
         <f t="shared" si="5"/>
         <v>-3.4741188318228064E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="10">
+        <f>RANK(O25,$O$2:$O$52,1)+COUNTIF($O$2:O25,O25)-1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -2391,9 +2683,13 @@
         <f t="shared" si="0"/>
         <v>-447839.91999999993</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="9">
         <f t="shared" si="1"/>
         <v>-8.5306091660634673E-2</v>
+      </c>
+      <c r="F26" s="10">
+        <f>RANK(E26,$E$2:$E$52,1)+COUNTIF($E$2:E26,E26)-1</f>
+        <v>5</v>
       </c>
       <c r="G26">
         <v>5442200</v>
@@ -2405,9 +2701,13 @@
         <f t="shared" si="2"/>
         <v>-319870.97000000998</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="9">
         <f t="shared" si="3"/>
         <v>-5.8776040939327839E-2</v>
+      </c>
+      <c r="K26" s="10">
+        <f>RANK(J26,$J$2:$J$52,1)+COUNTIF($J$2:J26,J26)-1</f>
+        <v>16</v>
       </c>
       <c r="L26">
         <v>5430700</v>
@@ -2419,12 +2719,16 @@
         <f t="shared" si="4"/>
         <v>-313464.79000000004</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="9">
         <f t="shared" si="5"/>
         <v>-5.7720881286022069E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="10">
+        <f>RANK(O26,$O$2:$O$52,1)+COUNTIF($O$2:O26,O26)-1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -2438,9 +2742,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="E27" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <f>RANK(E27,$E$2:$E$52,1)+COUNTIF($E$2:E27,E27)-1</f>
+        <v>48</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2452,9 +2760,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J27" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="J27" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="10">
+        <f>RANK(J27,$J$2:$J$52,1)+COUNTIF($J$2:J27,J27)-1</f>
+        <v>49</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2466,12 +2778,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O27" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="O27" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
+        <f>RANK(O27,$O$2:$O$52,1)+COUNTIF($O$2:O27,O27)-1</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -2485,9 +2801,13 @@
         <f t="shared" si="0"/>
         <v>-132457.97999999998</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="9">
         <f t="shared" si="1"/>
         <v>-9.5782760864849215E-2</v>
+      </c>
+      <c r="F28" s="10">
+        <f>RANK(E28,$E$2:$E$52,1)+COUNTIF($E$2:E28,E28)-1</f>
+        <v>3</v>
       </c>
       <c r="G28">
         <v>1545700</v>
@@ -2499,9 +2819,13 @@
         <f t="shared" si="2"/>
         <v>-264364.77</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="9">
         <f t="shared" si="3"/>
         <v>-0.17103239309050916</v>
+      </c>
+      <c r="K28" s="10">
+        <f>RANK(J28,$J$2:$J$52,1)+COUNTIF($J$2:J28,J28)-1</f>
+        <v>2</v>
       </c>
       <c r="L28">
         <v>1525900</v>
@@ -2513,12 +2837,16 @@
         <f t="shared" si="4"/>
         <v>-132614.93999999994</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="9">
         <f t="shared" si="5"/>
         <v>-8.6909325643882263E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="10">
+        <f>RANK(O28,$O$2:$O$52,1)+COUNTIF($O$2:O28,O28)-1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -2532,9 +2860,13 @@
         <f t="shared" si="0"/>
         <v>-37915.290000000037</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="9">
         <f t="shared" si="1"/>
         <v>-1.4800253727847622E-2</v>
+      </c>
+      <c r="F29" s="10">
+        <f>RANK(E29,$E$2:$E$52,1)+COUNTIF($E$2:E29,E29)-1</f>
+        <v>28</v>
       </c>
       <c r="G29">
         <v>2779500</v>
@@ -2546,9 +2878,13 @@
         <f t="shared" si="2"/>
         <v>-114235.56000000983</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="9">
         <f t="shared" si="3"/>
         <v>-4.1099320021590155E-2</v>
+      </c>
+      <c r="K29" s="10">
+        <f>RANK(J29,$J$2:$J$52,1)+COUNTIF($J$2:J29,J29)-1</f>
+        <v>27</v>
       </c>
       <c r="L29">
         <v>2889900</v>
@@ -2560,12 +2896,16 @@
         <f t="shared" si="4"/>
         <v>-35.330000000074506</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="9">
         <f t="shared" si="5"/>
         <v>-1.2225336516860273E-5</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="10">
+        <f>RANK(O29,$O$2:$O$52,1)+COUNTIF($O$2:O29,O29)-1</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -2579,9 +2919,13 @@
         <f t="shared" si="0"/>
         <v>-101705.90000000037</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="9">
         <f t="shared" si="1"/>
         <v>-8.3831374359143746E-3</v>
+      </c>
+      <c r="F30" s="10">
+        <f>RANK(E30,$E$2:$E$52,1)+COUNTIF($E$2:E30,E30)-1</f>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>12735900</v>
@@ -2593,9 +2937,13 @@
         <f t="shared" si="2"/>
         <v>-50385.720000099391</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="9">
         <f t="shared" si="3"/>
         <v>-3.9561962641116366E-3</v>
+      </c>
+      <c r="K30" s="10">
+        <f>RANK(J30,$J$2:$J$52,1)+COUNTIF($J$2:J30,J30)-1</f>
+        <v>42</v>
       </c>
       <c r="L30">
         <v>12861300</v>
@@ -2607,12 +2955,16 @@
         <f t="shared" si="4"/>
         <v>-35290.390000000596</v>
       </c>
-      <c r="O30" s="5">
+      <c r="O30" s="9">
         <f t="shared" si="5"/>
         <v>-2.7439209100169185E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" s="10">
+        <f>RANK(O30,$O$2:$O$52,1)+COUNTIF($O$2:O30,O30)-1</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -2626,9 +2978,13 @@
         <f t="shared" si="0"/>
         <v>-24772.310000000056</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="9">
         <f t="shared" si="1"/>
         <v>-1.4030533529678329E-2</v>
+      </c>
+      <c r="F31" s="10">
+        <f>RANK(E31,$E$2:$E$52,1)+COUNTIF($E$2:E31,E31)-1</f>
+        <v>29</v>
       </c>
       <c r="G31">
         <v>1823300</v>
@@ -2640,9 +2996,13 @@
         <f t="shared" si="2"/>
         <v>-60623.149999999907</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="9">
         <f t="shared" si="3"/>
         <v>-3.3249136181648611E-2</v>
+      </c>
+      <c r="K31" s="10">
+        <f>RANK(J31,$J$2:$J$52,1)+COUNTIF($J$2:J31,J31)-1</f>
+        <v>32</v>
       </c>
       <c r="L31">
         <v>1870700</v>
@@ -2654,12 +3014,16 @@
         <f t="shared" si="4"/>
         <v>-69308.659999999916</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="9">
         <f t="shared" si="5"/>
         <v>-3.7049585716576634E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" s="10">
+        <f>RANK(O31,$O$2:$O$52,1)+COUNTIF($O$2:O31,O31)-1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2673,9 +3037,13 @@
         <f t="shared" si="0"/>
         <v>-73762.280000009574</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="9">
         <f t="shared" si="1"/>
         <v>-1.2294942827617691E-2</v>
+      </c>
+      <c r="F32" s="10">
+        <f>RANK(E32,$E$2:$E$52,1)+COUNTIF($E$2:E32,E32)-1</f>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>6195500</v>
@@ -2687,9 +3055,13 @@
         <f t="shared" si="2"/>
         <v>-110514.53000000026</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="9">
         <f t="shared" si="3"/>
         <v>-1.7837871035428981E-2</v>
+      </c>
+      <c r="K32" s="10">
+        <f>RANK(J32,$J$2:$J$52,1)+COUNTIF($J$2:J32,J32)-1</f>
+        <v>35</v>
       </c>
       <c r="L32">
         <v>6157400</v>
@@ -2701,12 +3073,16 @@
         <f t="shared" si="4"/>
         <v>-169827.98000000045</v>
       </c>
-      <c r="O32" s="5">
+      <c r="O32" s="9">
         <f t="shared" si="5"/>
         <v>-2.7581118653977402E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32" s="10">
+        <f>RANK(O32,$O$2:$O$52,1)+COUNTIF($O$2:O32,O32)-1</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2720,9 +3096,13 @@
         <f t="shared" si="0"/>
         <v>-7418835.2699990273</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="9">
         <f t="shared" si="1"/>
         <v>-7.9969930789269058E-3</v>
+      </c>
+      <c r="F33" s="10">
+        <f>RANK(E33,$E$2:$E$52,1)+COUNTIF($E$2:E33,E33)-1</f>
+        <v>41</v>
       </c>
       <c r="G33">
         <v>979671000</v>
@@ -2734,9 +3114,13 @@
         <f t="shared" si="2"/>
         <v>-2602486.5199999809</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="9">
         <f t="shared" si="3"/>
         <v>-2.6564903115433454E-3</v>
+      </c>
+      <c r="K33" s="10">
+        <f>RANK(J33,$J$2:$J$52,1)+COUNTIF($J$2:J33,J33)-1</f>
+        <v>43</v>
       </c>
       <c r="L33">
         <v>989572899.99999905</v>
@@ -2748,12 +3132,16 @@
         <f t="shared" si="4"/>
         <v>-5456610.5900000334</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="9">
         <f t="shared" si="5"/>
         <v>-5.5141067323084929E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="P33" s="10">
+        <f>RANK(O33,$O$2:$O$52,1)+COUNTIF($O$2:O33,O33)-1</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2767,9 +3155,13 @@
         <f t="shared" si="0"/>
         <v>-79341.779999999795</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="9">
         <f t="shared" si="1"/>
         <v>-1.8939149738619768E-2</v>
+      </c>
+      <c r="F34" s="10">
+        <f>RANK(E34,$E$2:$E$52,1)+COUNTIF($E$2:E34,E34)-1</f>
+        <v>26</v>
       </c>
       <c r="G34">
         <v>4350600</v>
@@ -2781,9 +3173,13 @@
         <f t="shared" si="2"/>
         <v>-213011.23000001023</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="9">
         <f t="shared" si="3"/>
         <v>-4.8961345561534093E-2</v>
+      </c>
+      <c r="K34" s="10">
+        <f>RANK(J34,$J$2:$J$52,1)+COUNTIF($J$2:J34,J34)-1</f>
+        <v>21</v>
       </c>
       <c r="L34">
         <v>4345600</v>
@@ -2795,12 +3191,16 @@
         <f t="shared" si="4"/>
         <v>-115798.49000000022</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="9">
         <f t="shared" si="5"/>
         <v>-2.6647296115611244E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34" s="10">
+        <f>RANK(O34,$O$2:$O$52,1)+COUNTIF($O$2:O34,O34)-1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2814,9 +3214,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="E35" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="10">
+        <f>RANK(E35,$E$2:$E$52,1)+COUNTIF($E$2:E35,E35)-1</f>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2828,9 +3232,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J35" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="J35" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="10">
+        <f>RANK(J35,$J$2:$J$52,1)+COUNTIF($J$2:J35,J35)-1</f>
+        <v>50</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -2842,12 +3250,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O35" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="O35" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="10">
+        <f>RANK(O35,$O$2:$O$52,1)+COUNTIF($O$2:O35,O35)-1</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -2861,9 +3273,13 @@
         <f t="shared" si="0"/>
         <v>-62776.72000000102</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="9">
         <f t="shared" si="1"/>
         <v>-7.8647857679780775E-2</v>
+      </c>
+      <c r="F36" s="10">
+        <f>RANK(E36,$E$2:$E$52,1)+COUNTIF($E$2:E36,E36)-1</f>
+        <v>10</v>
       </c>
       <c r="G36">
         <v>898700</v>
@@ -2875,9 +3291,13 @@
         <f t="shared" si="2"/>
         <v>-157733.05000000098</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="9">
         <f t="shared" si="3"/>
         <v>-0.17551246244575608</v>
+      </c>
+      <c r="K36" s="10">
+        <f>RANK(J36,$J$2:$J$52,1)+COUNTIF($J$2:J36,J36)-1</f>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>878300</v>
@@ -2889,12 +3309,16 @@
         <f t="shared" si="4"/>
         <v>-101084.71000000101</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="9">
         <f t="shared" si="5"/>
         <v>-0.11509132414892521</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36" s="10">
+        <f>RANK(O36,$O$2:$O$52,1)+COUNTIF($O$2:O36,O36)-1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -2908,9 +3332,13 @@
         <f t="shared" si="0"/>
         <v>-82352.260000010021</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="9">
         <f t="shared" si="1"/>
         <v>-3.9444515758219188E-2</v>
+      </c>
+      <c r="F37" s="10">
+        <f>RANK(E37,$E$2:$E$52,1)+COUNTIF($E$2:E37,E37)-1</f>
+        <v>19</v>
       </c>
       <c r="G37">
         <v>2229200</v>
@@ -2922,9 +3350,13 @@
         <f t="shared" si="2"/>
         <v>-110256.79000000004</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="9">
         <f t="shared" si="3"/>
         <v>-4.9460250314014013E-2</v>
+      </c>
+      <c r="K37" s="10">
+        <f>RANK(J37,$J$2:$J$52,1)+COUNTIF($J$2:J37,J37)-1</f>
+        <v>20</v>
       </c>
       <c r="L37">
         <v>2296900</v>
@@ -2936,12 +3368,16 @@
         <f t="shared" si="4"/>
         <v>-188181.66000000015</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="9">
         <f t="shared" si="5"/>
         <v>-8.1928538464887526E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="P37" s="10">
+        <f>RANK(O37,$O$2:$O$52,1)+COUNTIF($O$2:O37,O37)-1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2955,9 +3391,13 @@
         <f t="shared" si="0"/>
         <v>-16630.180000000051</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="9">
         <f t="shared" si="1"/>
         <v>-1.9443680579913542E-2</v>
+      </c>
+      <c r="F38" s="10">
+        <f>RANK(E38,$E$2:$E$52,1)+COUNTIF($E$2:E38,E38)-1</f>
+        <v>25</v>
       </c>
       <c r="G38">
         <v>792800</v>
@@ -2969,9 +3409,13 @@
         <f t="shared" si="2"/>
         <v>-39348.040000000037</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="9">
         <f t="shared" si="3"/>
         <v>-4.9631735620585316E-2</v>
+      </c>
+      <c r="K38" s="10">
+        <f>RANK(J38,$J$2:$J$52,1)+COUNTIF($J$2:J38,J38)-1</f>
+        <v>19</v>
       </c>
       <c r="L38">
         <v>777800</v>
@@ -2983,12 +3427,16 @@
         <f t="shared" si="4"/>
         <v>-136.73999999999069</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="9">
         <f t="shared" si="5"/>
         <v>-1.7580354847003174E-4</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="P38" s="10">
+        <f>RANK(O38,$O$2:$O$52,1)+COUNTIF($O$2:O38,O38)-1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -3002,9 +3450,13 @@
         <f t="shared" si="0"/>
         <v>-70791.13</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="9">
         <f t="shared" si="1"/>
         <v>-8.008952370177623E-2</v>
+      </c>
+      <c r="F39" s="10">
+        <f>RANK(E39,$E$2:$E$52,1)+COUNTIF($E$2:E39,E39)-1</f>
+        <v>8</v>
       </c>
       <c r="G39">
         <v>1294400</v>
@@ -3016,9 +3468,13 @@
         <f t="shared" si="2"/>
         <v>-180157.72000000998</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="9">
         <f t="shared" si="3"/>
         <v>-0.13918241656366656</v>
+      </c>
+      <c r="K39" s="10">
+        <f>RANK(J39,$J$2:$J$52,1)+COUNTIF($J$2:J39,J39)-1</f>
+        <v>3</v>
       </c>
       <c r="L39">
         <v>1759500</v>
@@ -3030,12 +3486,16 @@
         <f t="shared" si="4"/>
         <v>-79036.1300000099</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="9">
         <f t="shared" si="5"/>
         <v>-4.4919653310605226E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="P39" s="10">
+        <f>RANK(O39,$O$2:$O$52,1)+COUNTIF($O$2:O39,O39)-1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -3049,9 +3509,13 @@
         <f t="shared" si="0"/>
         <v>-816758.14000009745</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="9">
         <f t="shared" si="1"/>
         <v>-2.1279773539092578E-2</v>
+      </c>
+      <c r="F40" s="10">
+        <f>RANK(E40,$E$2:$E$52,1)+COUNTIF($E$2:E40,E40)-1</f>
+        <v>23</v>
       </c>
       <c r="G40">
         <v>39964900</v>
@@ -3063,9 +3527,13 @@
         <f t="shared" si="2"/>
         <v>-1869659.8100000992</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="9">
         <f t="shared" si="3"/>
         <v>-4.6782546934937892E-2</v>
+      </c>
+      <c r="K40" s="10">
+        <f>RANK(J40,$J$2:$J$52,1)+COUNTIF($J$2:J40,J40)-1</f>
+        <v>22</v>
       </c>
       <c r="L40">
         <v>40216700</v>
@@ -3077,12 +3545,16 @@
         <f t="shared" si="4"/>
         <v>-610436.29000010341</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40" s="9">
         <f t="shared" si="5"/>
         <v>-1.5178676768608648E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="P40" s="10">
+        <f>RANK(O40,$O$2:$O$52,1)+COUNTIF($O$2:O40,O40)-1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -3096,9 +3568,13 @@
         <f t="shared" si="0"/>
         <v>-184239.79000001028</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="9">
         <f t="shared" si="1"/>
         <v>-4.0110550149132493E-2</v>
+      </c>
+      <c r="F41" s="10">
+        <f>RANK(E41,$E$2:$E$52,1)+COUNTIF($E$2:E41,E41)-1</f>
+        <v>17</v>
       </c>
       <c r="G41">
         <v>5089500</v>
@@ -3110,9 +3586,13 @@
         <f t="shared" si="2"/>
         <v>-133456.33000001032</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="9">
         <f t="shared" si="3"/>
         <v>-2.6221894095689226E-2</v>
+      </c>
+      <c r="K41" s="10">
+        <f>RANK(J41,$J$2:$J$52,1)+COUNTIF($J$2:J41,J41)-1</f>
+        <v>34</v>
       </c>
       <c r="L41">
         <v>4799900</v>
@@ -3124,12 +3604,16 @@
         <f t="shared" si="4"/>
         <v>-82077.349999999627</v>
       </c>
-      <c r="O41" s="5">
+      <c r="O41" s="9">
         <f t="shared" si="5"/>
         <v>-1.7099804162586642E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="P41" s="10">
+        <f>RANK(O41,$O$2:$O$52,1)+COUNTIF($O$2:O41,O41)-1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -3143,9 +3627,13 @@
         <f t="shared" si="0"/>
         <v>-41624.320001006126</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="9">
         <f t="shared" si="1"/>
         <v>-2.2070943135841053E-4</v>
+      </c>
+      <c r="F42" s="10">
+        <f>RANK(E42,$E$2:$E$52,1)+COUNTIF($E$2:E42,E42)-1</f>
+        <v>44</v>
       </c>
       <c r="G42">
         <v>199130300</v>
@@ -3157,9 +3645,13 @@
         <f t="shared" si="2"/>
         <v>-2375266.6899999976</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="9">
         <f t="shared" si="3"/>
         <v>-1.1928203241796942E-2</v>
+      </c>
+      <c r="K42" s="10">
+        <f>RANK(J42,$J$2:$J$52,1)+COUNTIF($J$2:J42,J42)-1</f>
+        <v>39</v>
       </c>
       <c r="L42">
         <v>199954600</v>
@@ -3171,12 +3663,16 @@
         <f t="shared" si="4"/>
         <v>-36.250001013278961</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="9">
         <f t="shared" si="5"/>
         <v>-1.8129115815929696E-7</v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="P42" s="10">
+        <f>RANK(O42,$O$2:$O$52,1)+COUNTIF($O$2:O42,O42)-1</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -3190,9 +3686,13 @@
         <f t="shared" si="0"/>
         <v>-166754.16999999993</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="9">
         <f t="shared" si="1"/>
         <v>-2.0497353541313264E-2</v>
+      </c>
+      <c r="F43" s="10">
+        <f>RANK(E43,$E$2:$E$52,1)+COUNTIF($E$2:E43,E43)-1</f>
+        <v>24</v>
       </c>
       <c r="G43">
         <v>8560800</v>
@@ -3204,9 +3704,13 @@
         <f t="shared" si="2"/>
         <v>-389327.98000000045</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="9">
         <f t="shared" si="3"/>
         <v>-4.5477990374731388E-2</v>
+      </c>
+      <c r="K43" s="10">
+        <f>RANK(J43,$J$2:$J$52,1)+COUNTIF($J$2:J43,J43)-1</f>
+        <v>23</v>
       </c>
       <c r="L43">
         <v>8497500</v>
@@ -3218,12 +3722,16 @@
         <f t="shared" si="4"/>
         <v>-346517.43000000995</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43" s="9">
         <f t="shared" si="5"/>
         <v>-4.0778750220654303E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="P43" s="10">
+        <f>RANK(O43,$O$2:$O$52,1)+COUNTIF($O$2:O43,O43)-1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -3237,9 +3745,13 @@
         <f t="shared" si="0"/>
         <v>-294095.62000000104</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="9">
         <f t="shared" si="1"/>
         <v>-9.7760750186150751E-3</v>
+      </c>
+      <c r="F44" s="10">
+        <f>RANK(E44,$E$2:$E$52,1)+COUNTIF($E$2:E44,E44)-1</f>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>31040700</v>
@@ -3251,9 +3763,13 @@
         <f t="shared" si="2"/>
         <v>-246988.51999999955</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="9">
         <f t="shared" si="3"/>
         <v>-7.9569249404813532E-3</v>
+      </c>
+      <c r="K44" s="10">
+        <f>RANK(J44,$J$2:$J$52,1)+COUNTIF($J$2:J44,J44)-1</f>
+        <v>41</v>
       </c>
       <c r="L44">
         <v>31282200</v>
@@ -3265,12 +3781,16 @@
         <f t="shared" si="4"/>
         <v>-58.75</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O44" s="9">
         <f t="shared" si="5"/>
         <v>-1.8780648419868168E-6</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="P44" s="10">
+        <f>RANK(O44,$O$2:$O$52,1)+COUNTIF($O$2:O44,O44)-1</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -3284,9 +3804,13 @@
         <f t="shared" si="0"/>
         <v>-712015.95000009984</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="9">
         <f t="shared" si="1"/>
         <v>-1.287514194887851E-2</v>
+      </c>
+      <c r="F45" s="10">
+        <f>RANK(E45,$E$2:$E$52,1)+COUNTIF($E$2:E45,E45)-1</f>
+        <v>34</v>
       </c>
       <c r="G45">
         <v>56792200</v>
@@ -3298,9 +3822,13 @@
         <f t="shared" si="2"/>
         <v>-2197246.0400001034</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="9">
         <f t="shared" si="3"/>
         <v>-3.8689222111488959E-2</v>
+      </c>
+      <c r="K45" s="10">
+        <f>RANK(J45,$J$2:$J$52,1)+COUNTIF($J$2:J45,J45)-1</f>
+        <v>30</v>
       </c>
       <c r="L45">
         <v>56027100</v>
@@ -3312,12 +3840,16 @@
         <f t="shared" si="4"/>
         <v>-640550.34000010043</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45" s="9">
         <f t="shared" si="5"/>
         <v>-1.1432866237947358E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="P45" s="10">
+        <f>RANK(O45,$O$2:$O$52,1)+COUNTIF($O$2:O45,O45)-1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -3331,9 +3863,13 @@
         <f t="shared" si="0"/>
         <v>-777.57000000000698</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="9">
         <f t="shared" si="1"/>
         <v>-3.0010420686993711E-3</v>
+      </c>
+      <c r="F46" s="10">
+        <f>RANK(E46,$E$2:$E$52,1)+COUNTIF($E$2:E46,E46)-1</f>
+        <v>43</v>
       </c>
       <c r="G46">
         <v>266000</v>
@@ -3345,9 +3881,13 @@
         <f t="shared" si="2"/>
         <v>-8597.090000000986</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="9">
         <f t="shared" si="3"/>
         <v>-3.2319887218048821E-2</v>
+      </c>
+      <c r="K46" s="10">
+        <f>RANK(J46,$J$2:$J$52,1)+COUNTIF($J$2:J46,J46)-1</f>
+        <v>33</v>
       </c>
       <c r="L46">
         <v>267100</v>
@@ -3359,12 +3899,16 @@
         <f t="shared" si="4"/>
         <v>-12346.840000000986</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46" s="9">
         <f t="shared" si="5"/>
         <v>-4.6225533508053113E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="P46" s="10">
+        <f>RANK(O46,$O$2:$O$52,1)+COUNTIF($O$2:O46,O46)-1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -3378,9 +3922,13 @@
         <f t="shared" si="0"/>
         <v>-12273.280000001192</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="9">
         <f t="shared" si="1"/>
         <v>-1.7435939690898361E-4</v>
+      </c>
+      <c r="F47" s="10">
+        <f>RANK(E47,$E$2:$E$52,1)+COUNTIF($E$2:E47,E47)-1</f>
+        <v>45</v>
       </c>
       <c r="G47">
         <v>73467000</v>
@@ -3392,9 +3940,13 @@
         <f t="shared" si="2"/>
         <v>-24458.340000003576</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="9">
         <f t="shared" si="3"/>
         <v>-3.3291600310348285E-4</v>
+      </c>
+      <c r="K47" s="10">
+        <f>RANK(J47,$J$2:$J$52,1)+COUNTIF($J$2:J47,J47)-1</f>
+        <v>45</v>
       </c>
       <c r="L47">
         <v>75072800</v>
@@ -3406,12 +3958,16 @@
         <f t="shared" si="4"/>
         <v>-21970.820000097156</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="9">
         <f t="shared" si="5"/>
         <v>-2.9266019117572752E-4</v>
       </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="P47" s="10">
+        <f>RANK(O47,$O$2:$O$52,1)+COUNTIF($O$2:O47,O47)-1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -3425,9 +3981,13 @@
         <f t="shared" si="0"/>
         <v>-209747.43000000995</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="9">
         <f t="shared" si="1"/>
         <v>-3.1133192323107857E-2</v>
+      </c>
+      <c r="F48" s="10">
+        <f>RANK(E48,$E$2:$E$52,1)+COUNTIF($E$2:E48,E48)-1</f>
+        <v>20</v>
       </c>
       <c r="G48">
         <v>7214700</v>
@@ -3439,9 +3999,13 @@
         <f t="shared" si="2"/>
         <v>-292627.44000000041</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="9">
         <f t="shared" si="3"/>
         <v>-4.0559890224125802E-2</v>
+      </c>
+      <c r="K48" s="10">
+        <f>RANK(J48,$J$2:$J$52,1)+COUNTIF($J$2:J48,J48)-1</f>
+        <v>29</v>
       </c>
       <c r="L48">
         <v>7289800</v>
@@ -3453,12 +4017,16 @@
         <f t="shared" si="4"/>
         <v>-407449.76000001002</v>
       </c>
-      <c r="O48" s="5">
+      <c r="O48" s="9">
         <f t="shared" si="5"/>
         <v>-5.5893132870587676E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="P48" s="10">
+        <f>RANK(O48,$O$2:$O$52,1)+COUNTIF($O$2:O48,O48)-1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -3472,9 +4040,13 @@
         <f t="shared" si="0"/>
         <v>-1700.570000000007</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="9">
         <f t="shared" si="1"/>
         <v>-1.8444360086767971E-2</v>
+      </c>
+      <c r="F49" s="10">
+        <f>RANK(E49,$E$2:$E$52,1)+COUNTIF($E$2:E49,E49)-1</f>
+        <v>27</v>
       </c>
       <c r="G49">
         <v>102600</v>
@@ -3486,10 +4058,14 @@
         <f t="shared" si="2"/>
         <v>-7133.1199999999953</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="9">
         <f t="shared" si="3"/>
         <v>-6.9523586744639335E-2</v>
       </c>
+      <c r="K49" s="10">
+        <f>RANK(J49,$J$2:$J$52,1)+COUNTIF($J$2:J49,J49)-1</f>
+        <v>13</v>
+      </c>
       <c r="L49">
         <v>0</v>
       </c>
@@ -3500,12 +4076,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O49" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="O49" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="10">
+        <f>RANK(O49,$O$2:$O$52,1)+COUNTIF($O$2:O49,O49)-1</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -3519,9 +4099,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E50" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E50" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="10">
+        <f>RANK(E50,$E$2:$E$52,1)+COUNTIF($E$2:E50,E50)-1</f>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>859100</v>
@@ -3533,9 +4117,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J50" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="J50" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="10">
+        <f>RANK(J50,$J$2:$J$52,1)+COUNTIF($J$2:J50,J50)-1</f>
+        <v>51</v>
       </c>
       <c r="L50">
         <v>843200</v>
@@ -3547,12 +4135,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O50" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="O50" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="10">
+        <f>RANK(O50,$O$2:$O$52,1)+COUNTIF($O$2:O50,O50)-1</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -3566,9 +4158,13 @@
         <f t="shared" si="0"/>
         <v>-110074.66000000946</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="9">
         <f t="shared" si="1"/>
         <v>-1.2785255822058129E-2</v>
+      </c>
+      <c r="F51" s="10">
+        <f>RANK(E51,$E$2:$E$52,1)+COUNTIF($E$2:E51,E51)-1</f>
+        <v>35</v>
       </c>
       <c r="G51">
         <v>8925500</v>
@@ -3580,9 +4176,13 @@
         <f t="shared" si="2"/>
         <v>-326440.38000000082</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="9">
         <f t="shared" si="3"/>
         <v>-3.6573903982970231E-2</v>
+      </c>
+      <c r="K51" s="10">
+        <f>RANK(J51,$J$2:$J$52,1)+COUNTIF($J$2:J51,J51)-1</f>
+        <v>31</v>
       </c>
       <c r="L51">
         <v>8833900</v>
@@ -3594,12 +4194,16 @@
         <f t="shared" si="4"/>
         <v>-98056.689999999478</v>
       </c>
-      <c r="O51" s="5">
+      <c r="O51" s="9">
         <f t="shared" si="5"/>
         <v>-1.1100045280114048E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="P51" s="10">
+        <f>RANK(O51,$O$2:$O$52,1)+COUNTIF($O$2:O51,O51)-1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -3613,9 +4217,13 @@
         <f t="shared" si="0"/>
         <v>-196315.20000000019</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="9">
         <f t="shared" si="1"/>
         <v>-8.009596083231342E-2</v>
+      </c>
+      <c r="F52" s="10">
+        <f>RANK(E52,$E$2:$E$52,1)+COUNTIF($E$2:E52,E52)-1</f>
+        <v>7</v>
       </c>
       <c r="G52">
         <v>2440700</v>
@@ -3627,9 +4235,13 @@
         <f t="shared" si="2"/>
         <v>-236027.12000000011</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="9">
         <f t="shared" si="3"/>
         <v>-9.6704683082722218E-2</v>
+      </c>
+      <c r="K52" s="10">
+        <f>RANK(J52,$J$2:$J$52,1)+COUNTIF($J$2:J52,J52)-1</f>
+        <v>9</v>
       </c>
       <c r="L52">
         <v>2321600</v>
@@ -3641,17 +4253,21 @@
         <f t="shared" si="4"/>
         <v>-264764.74</v>
       </c>
-      <c r="O52" s="5">
+      <c r="O52" s="9">
         <f t="shared" si="5"/>
         <v>-0.11404408166781529</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" ht="15">
+      <c r="P52" s="10">
+        <f>RANK(O52,$O$2:$O$52,1)+COUNTIF($O$2:O52,O52)-1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15">
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -3665,42 +4281,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15">
+    <row r="63" spans="1:16" ht="15">
       <c r="A63" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary van Valkenburg\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E242C3BA-478D-401F-99B9-F9A0AED01DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8378DDD5-30C5-4FC2-A1DE-21BCA573D713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="90" windowWidth="21877" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,9 +313,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -812,7 +813,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -828,6 +829,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1185,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4285,30 +4287,102 @@
       <c r="A56" t="s">
         <v>24</v>
       </c>
+      <c r="B56" s="11">
+        <f>VLOOKUP(A56,$A$2:$D$52,4,FALSE)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C56" s="11">
+        <f>VLOOKUP(A56,$A$2:$I$52,9,FALSE)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D56" s="11">
+        <f>VLOOKUP(A56,$A$2:$N$52,14,FALSE)</f>
+        <v>-9181.0800000000163</v>
+      </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>25</v>
       </c>
+      <c r="B57" s="11">
+        <f t="shared" ref="B57:B61" si="6">VLOOKUP(A57,$A$2:$D$52,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="11">
+        <f t="shared" ref="C57:C61" si="7">VLOOKUP(A57,$A$2:$I$52,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="11">
+        <f t="shared" ref="D57:D61" si="8">VLOOKUP(A57,$A$2:$N$52,14,FALSE)</f>
+        <v>-311228.08999999997</v>
+      </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>32</v>
       </c>
+      <c r="B58" s="11">
+        <f t="shared" si="6"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C58" s="11">
+        <f t="shared" si="7"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D58" s="11">
+        <f t="shared" si="8"/>
+        <v>-374962.91000000015</v>
+      </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
         <v>38</v>
       </c>
+      <c r="B59" s="11">
+        <f t="shared" si="6"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C59" s="11">
+        <f t="shared" si="7"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D59" s="11">
+        <f t="shared" si="8"/>
+        <v>-72.879999999888241</v>
+      </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
         <v>39</v>
       </c>
+      <c r="B60" s="11">
+        <f t="shared" si="6"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C60" s="11">
+        <f t="shared" si="7"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D60" s="11">
+        <f t="shared" si="8"/>
+        <v>-1724.9000000000233</v>
+      </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>55</v>
+      </c>
+      <c r="B61" s="11">
+        <f t="shared" si="6"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C61" s="11">
+        <f t="shared" si="7"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D61" s="11">
+        <f t="shared" si="8"/>
+        <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="15">

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary van Valkenburg\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8378DDD5-30C5-4FC2-A1DE-21BCA573D713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24921400-6843-4067-BBF9-D9702ECA9930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="90" windowWidth="21877" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1187,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:D61"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4408,30 +4408,102 @@
       <c r="A65" t="s">
         <v>24</v>
       </c>
+      <c r="B65" s="11">
+        <f>_xlfn.XLOOKUP(A65,$A$2:$A$52,$D$2:$D$52)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C65" s="11">
+        <f>_xlfn.XLOOKUP(A65,$A$2:$A$52,$I$2:$I$52)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D65" s="11">
+        <f>_xlfn.XLOOKUP(A65,$A$2:$A$52,$N$2:$N$52)</f>
+        <v>-9181.0800000000163</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="15">
       <c r="A66" t="s">
         <v>25</v>
       </c>
+      <c r="B66" s="11">
+        <f t="shared" ref="B66:B70" si="9">_xlfn.XLOOKUP(A66,$A$2:$A$52,$D$2:$D$52)</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="11">
+        <f t="shared" ref="C66:C70" si="10">_xlfn.XLOOKUP(A66,$A$2:$A$52,$I$2:$I$52)</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="11">
+        <f t="shared" ref="D66:D70" si="11">_xlfn.XLOOKUP(A66,$A$2:$A$52,$N$2:$N$52)</f>
+        <v>-311228.08999999997</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="15">
       <c r="A67" t="s">
         <v>32</v>
       </c>
+      <c r="B67" s="11">
+        <f t="shared" si="9"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C67" s="11">
+        <f t="shared" si="10"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D67" s="11">
+        <f t="shared" si="11"/>
+        <v>-374962.91000000015</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>38</v>
       </c>
+      <c r="B68" s="11">
+        <f t="shared" si="9"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C68" s="11">
+        <f t="shared" si="10"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D68" s="11">
+        <f t="shared" si="11"/>
+        <v>-72.879999999888241</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>39</v>
       </c>
+      <c r="B69" s="11">
+        <f t="shared" si="9"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C69" s="11">
+        <f t="shared" si="10"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D69" s="11">
+        <f t="shared" si="11"/>
+        <v>-1724.9000000000233</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>55</v>
+      </c>
+      <c r="B70" s="11">
+        <f t="shared" si="9"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C70" s="11">
+        <f t="shared" si="10"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D70" s="11">
+        <f t="shared" si="11"/>
+        <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15"/>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary van Valkenburg\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24921400-6843-4067-BBF9-D9702ECA9930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{953A40B7-03A5-41F0-B994-F1E7884E647D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="90" windowWidth="21877" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1187,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65:D70"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74:D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4530,30 +4530,102 @@
       <c r="A74" t="s">
         <v>24</v>
       </c>
+      <c r="B74" s="11">
+        <f>INDEX($D$2:$D$52,MATCH(A74,$A$2:$A$52,0))</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C74" s="11">
+        <f>INDEX($I$2:$I$52,MATCH(A74,$A$2:$A$52,0))</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D74" s="11">
+        <f>INDEX($N$2:$N$52,MATCH(A74,$A$2:$A$52,0))</f>
+        <v>-9181.0800000000163</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="15">
       <c r="A75" t="s">
         <v>25</v>
       </c>
+      <c r="B75" s="11">
+        <f t="shared" ref="B75:B79" si="12">INDEX($D$2:$D$52,MATCH(A75,$A$2:$A$52,0))</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="11">
+        <f t="shared" ref="C75:C79" si="13">INDEX($I$2:$I$52,MATCH(A75,$A$2:$A$52,0))</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="11">
+        <f t="shared" ref="D75:D79" si="14">INDEX($N$2:$N$52,MATCH(A75,$A$2:$A$52,0))</f>
+        <v>-311228.08999999997</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>32</v>
       </c>
+      <c r="B76" s="11">
+        <f t="shared" si="12"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C76" s="11">
+        <f t="shared" si="13"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D76" s="11">
+        <f t="shared" si="14"/>
+        <v>-374962.91000000015</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>38</v>
       </c>
+      <c r="B77" s="11">
+        <f t="shared" si="12"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C77" s="11">
+        <f t="shared" si="13"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D77" s="11">
+        <f t="shared" si="14"/>
+        <v>-72.879999999888241</v>
+      </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>39</v>
       </c>
+      <c r="B78" s="11">
+        <f t="shared" si="12"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C78" s="11">
+        <f t="shared" si="13"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D78" s="11">
+        <f t="shared" si="14"/>
+        <v>-1724.9000000000233</v>
+      </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>55</v>
+      </c>
+      <c r="B79" s="11">
+        <f t="shared" si="12"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C79" s="11">
+        <f t="shared" si="13"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D79" s="11">
+        <f t="shared" si="14"/>
+        <v>-82077.349999999627</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15"/>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary van Valkenburg\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{953A40B7-03A5-41F0-B994-F1E7884E647D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AED475C-2497-4EF4-893D-8017E7D5C185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="90" windowWidth="21877" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="metro_budget" sheetId="1" r:id="rId1"/>
     <sheet name="data_dictionary" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="FY_budget">metro_budget!$A$84:$C$86</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -813,7 +816,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -828,7 +831,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -886,6 +888,966 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Budget vs. Actual</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>metro_budget!$B$82:$B$83</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>Budget</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>metro_budget!$A$84:$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FY17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>metro_budget!$B$84:$B$86</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7670700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7968300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7759600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6333-451C-BB1A-23D70C02C30A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>metro_budget!$C$82:$C$83</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>metro_budget!$A$84:$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FY17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>metro_budget!$C$84:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6947552.6699999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7020609.3200000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7497322.9100000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6333-451C-BB1A-23D70C02C30A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="723923975"/>
+        <c:axId val="723926023"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="723923975"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="723926023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="723926023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="723923975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F551BA62-AB9F-E31D-1176-48DCA6FA2B5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1187,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74:D79"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1273,7 +2235,7 @@
         <f>IFERROR((D2/B2), "0")</f>
         <v>-4.3170750765267295E-2</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2">
         <f>RANK(E2,$E$2:$E$52,1)+COUNTIF($E$2:E2,E2)-1</f>
         <v>14</v>
       </c>
@@ -1291,7 +2253,7 @@
         <f>IFERROR((I2/G2), "0")</f>
         <v>-9.4972027086493035E-2</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2">
         <f>RANK(J2,$J$2:$J$52,1)+COUNTIF($J$2:J2,J2)-1</f>
         <v>10</v>
       </c>
@@ -1309,7 +2271,7 @@
         <f>IFERROR((N2/L2),"0")</f>
         <v>-5.6484362894991494E-2</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2">
         <f>RANK(O2,$O$2:$O$52,1)+COUNTIF($O$2:O2,O2)-1</f>
         <v>14</v>
       </c>
@@ -1332,7 +2294,7 @@
         <f t="shared" ref="E3:E52" si="1">IFERROR((D3/B3), "0")</f>
         <v>-2.3069981751824741E-2</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3">
         <f>RANK(E3,$E$2:$E$52,1)+COUNTIF($E$2:E3,E3)-1</f>
         <v>22</v>
       </c>
@@ -1350,7 +2312,7 @@
         <f t="shared" ref="J3:J52" si="3">IFERROR((I3/G3), "0")</f>
         <v>-6.6804928315415249E-2</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3">
         <f>RANK(J3,$J$2:$J$52,1)+COUNTIF($J$2:J3,J3)-1</f>
         <v>14</v>
       </c>
@@ -1368,7 +2330,7 @@
         <f t="shared" ref="O3:O52" si="5">IFERROR((N3/L3),"0")</f>
         <v>-1.3540749922529313E-3</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3">
         <f>RANK(O3,$O$2:$O$52,1)+COUNTIF($O$2:O3,O3)-1</f>
         <v>37</v>
       </c>
@@ -1391,7 +2353,7 @@
         <f t="shared" si="1"/>
         <v>-4.9327413275443007E-3</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4">
         <f>RANK(E4,$E$2:$E$52,1)+COUNTIF($E$2:E4,E4)-1</f>
         <v>42</v>
       </c>
@@ -1409,7 +2371,7 @@
         <f t="shared" si="3"/>
         <v>-1.7141743558856015E-2</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4">
         <f>RANK(J4,$J$2:$J$52,1)+COUNTIF($J$2:J4,J4)-1</f>
         <v>36</v>
       </c>
@@ -1427,7 +2389,7 @@
         <f t="shared" si="5"/>
         <v>-2.6599210899959033E-2</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4">
         <f>RANK(O4,$O$2:$O$52,1)+COUNTIF($O$2:O4,O4)-1</f>
         <v>25</v>
       </c>
@@ -1450,7 +2412,7 @@
         <f t="shared" si="1"/>
         <v>-9.4273968477453174E-2</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5">
         <f>RANK(E5,$E$2:$E$52,1)+COUNTIF($E$2:E5,E5)-1</f>
         <v>4</v>
       </c>
@@ -1468,7 +2430,7 @@
         <f t="shared" si="3"/>
         <v>-0.118932605449092</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5">
         <f>RANK(J5,$J$2:$J$52,1)+COUNTIF($J$2:J5,J5)-1</f>
         <v>5</v>
       </c>
@@ -1486,7 +2448,7 @@
         <f t="shared" si="5"/>
         <v>-3.3800336357544182E-2</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5">
         <f>RANK(O5,$O$2:$O$52,1)+COUNTIF($O$2:O5,O5)-1</f>
         <v>22</v>
       </c>
@@ -1509,7 +2471,7 @@
         <f t="shared" si="1"/>
         <v>-5.7149963352064452E-2</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6">
         <f>RANK(E6,$E$2:$E$52,1)+COUNTIF($E$2:E6,E6)-1</f>
         <v>11</v>
       </c>
@@ -1527,7 +2489,7 @@
         <f t="shared" si="3"/>
         <v>-1.7301283547257551E-3</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6">
         <f>RANK(J6,$J$2:$J$52,1)+COUNTIF($J$2:J6,J6)-1</f>
         <v>44</v>
       </c>
@@ -1545,7 +2507,7 @@
         <f t="shared" si="5"/>
         <v>-1.925202156356929E-4</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6">
         <f>RANK(O6,$O$2:$O$52,1)+COUNTIF($O$2:O6,O6)-1</f>
         <v>39</v>
       </c>
@@ -1568,7 +2530,7 @@
         <f t="shared" si="1"/>
         <v>-0.11502817362571344</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7">
         <f>RANK(E7,$E$2:$E$52,1)+COUNTIF($E$2:E7,E7)-1</f>
         <v>2</v>
       </c>
@@ -1586,7 +2548,7 @@
         <f t="shared" si="3"/>
         <v>-0.10009631366303927</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7">
         <f>RANK(J7,$J$2:$J$52,1)+COUNTIF($J$2:J7,J7)-1</f>
         <v>8</v>
       </c>
@@ -1604,7 +2566,7 @@
         <f t="shared" si="5"/>
         <v>-0.11920361114432618</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7">
         <f>RANK(O7,$O$2:$O$52,1)+COUNTIF($O$2:O7,O7)-1</f>
         <v>4</v>
       </c>
@@ -1627,7 +2589,7 @@
         <f t="shared" si="1"/>
         <v>-0.15235918433091292</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8">
         <f>RANK(E8,$E$2:$E$52,1)+COUNTIF($E$2:E8,E8)-1</f>
         <v>1</v>
       </c>
@@ -1645,7 +2607,7 @@
         <f t="shared" si="3"/>
         <v>-0.13000189224870184</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8">
         <f>RANK(J8,$J$2:$J$52,1)+COUNTIF($J$2:J8,J8)-1</f>
         <v>4</v>
       </c>
@@ -1663,7 +2625,7 @@
         <f t="shared" si="5"/>
         <v>-0.15295680364719175</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8">
         <f>RANK(O8,$O$2:$O$52,1)+COUNTIF($O$2:O8,O8)-1</f>
         <v>2</v>
       </c>
@@ -1686,7 +2648,7 @@
         <f t="shared" si="1"/>
         <v>-4.2417130511048909E-2</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9">
         <f>RANK(E9,$E$2:$E$52,1)+COUNTIF($E$2:E9,E9)-1</f>
         <v>16</v>
       </c>
@@ -1704,7 +2666,7 @@
         <f t="shared" si="3"/>
         <v>-0.10336567542917005</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9">
         <f>RANK(J9,$J$2:$J$52,1)+COUNTIF($J$2:J9,J9)-1</f>
         <v>7</v>
       </c>
@@ -1722,7 +2684,7 @@
         <f t="shared" si="5"/>
         <v>-7.3852043000788653E-2</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9">
         <f>RANK(O9,$O$2:$O$52,1)+COUNTIF($O$2:O9,O9)-1</f>
         <v>9</v>
       </c>
@@ -1745,7 +2707,7 @@
         <f t="shared" si="1"/>
         <v>-8.1681998646514792E-2</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10">
         <f>RANK(E10,$E$2:$E$52,1)+COUNTIF($E$2:E10,E10)-1</f>
         <v>6</v>
       </c>
@@ -1763,7 +2725,7 @@
         <f t="shared" si="3"/>
         <v>-5.5113408723747932E-2</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10">
         <f>RANK(J10,$J$2:$J$52,1)+COUNTIF($J$2:J10,J10)-1</f>
         <v>17</v>
       </c>
@@ -1781,7 +2743,7 @@
         <f t="shared" si="5"/>
         <v>-1.883298461538465E-2</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10">
         <f>RANK(O10,$O$2:$O$52,1)+COUNTIF($O$2:O10,O10)-1</f>
         <v>29</v>
       </c>
@@ -1804,7 +2766,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11">
         <f>RANK(E11,$E$2:$E$52,1)+COUNTIF($E$2:E11,E11)-1</f>
         <v>47</v>
       </c>
@@ -1822,7 +2784,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11">
         <f>RANK(J11,$J$2:$J$52,1)+COUNTIF($J$2:J11,J11)-1</f>
         <v>48</v>
       </c>
@@ -1840,7 +2802,7 @@
         <f t="shared" si="5"/>
         <v>-0.82994157333333329</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11">
         <f>RANK(O11,$O$2:$O$52,1)+COUNTIF($O$2:O11,O11)-1</f>
         <v>1</v>
       </c>
@@ -1863,7 +2825,7 @@
         <f t="shared" si="1"/>
         <v>-5.0060657805601608E-2</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12">
         <f>RANK(E12,$E$2:$E$52,1)+COUNTIF($E$2:E12,E12)-1</f>
         <v>13</v>
       </c>
@@ -1881,7 +2843,7 @@
         <f t="shared" si="3"/>
         <v>-0.10527708280146378</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12">
         <f>RANK(J12,$J$2:$J$52,1)+COUNTIF($J$2:J12,J12)-1</f>
         <v>6</v>
       </c>
@@ -1899,7 +2861,7 @@
         <f t="shared" si="5"/>
         <v>-6.5433934755654441E-2</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12">
         <f>RANK(O12,$O$2:$O$52,1)+COUNTIF($O$2:O12,O12)-1</f>
         <v>10</v>
       </c>
@@ -1922,7 +2884,7 @@
         <f t="shared" si="1"/>
         <v>-1.2912833886247806E-2</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13">
         <f>RANK(E13,$E$2:$E$52,1)+COUNTIF($E$2:E13,E13)-1</f>
         <v>33</v>
       </c>
@@ -1940,7 +2902,7 @@
         <f t="shared" si="3"/>
         <v>-5.0552253482656594E-2</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13">
         <f>RANK(J13,$J$2:$J$52,1)+COUNTIF($J$2:J13,J13)-1</f>
         <v>18</v>
       </c>
@@ -1958,7 +2920,7 @@
         <f t="shared" si="5"/>
         <v>-2.4217184605222895E-2</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13">
         <f>RANK(O13,$O$2:$O$52,1)+COUNTIF($O$2:O13,O13)-1</f>
         <v>27</v>
       </c>
@@ -1981,7 +2943,7 @@
         <f t="shared" si="1"/>
         <v>-1.3637949218750009E-2</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14">
         <f>RANK(E14,$E$2:$E$52,1)+COUNTIF($E$2:E14,E14)-1</f>
         <v>30</v>
       </c>
@@ -1999,7 +2961,7 @@
         <f t="shared" si="3"/>
         <v>-1.1492968897266765E-2</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14">
         <f>RANK(J14,$J$2:$J$52,1)+COUNTIF($J$2:J14,J14)-1</f>
         <v>40</v>
       </c>
@@ -2017,7 +2979,7 @@
         <f t="shared" si="5"/>
         <v>-4.0308095781071827E-2</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14">
         <f>RANK(O14,$O$2:$O$52,1)+COUNTIF($O$2:O14,O14)-1</f>
         <v>19</v>
       </c>
@@ -2040,7 +3002,7 @@
         <f t="shared" si="1"/>
         <v>3.1837408866824991E-3</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15">
         <f>RANK(E15,$E$2:$E$52,1)+COUNTIF($E$2:E15,E15)-1</f>
         <v>48</v>
       </c>
@@ -2058,7 +3020,7 @@
         <f t="shared" si="3"/>
         <v>-4.4532273014072019E-2</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15">
         <f>RANK(J15,$J$2:$J$52,1)+COUNTIF($J$2:J15,J15)-1</f>
         <v>24</v>
       </c>
@@ -2076,7 +3038,7 @@
         <f t="shared" si="5"/>
         <v>-2.3829085727446114E-2</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15">
         <f>RANK(O15,$O$2:$O$52,1)+COUNTIF($O$2:O15,O15)-1</f>
         <v>28</v>
       </c>
@@ -2099,7 +3061,7 @@
         <f t="shared" si="1"/>
         <v>-1.1850188616360429E-2</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16">
         <f>RANK(E16,$E$2:$E$52,1)+COUNTIF($E$2:E16,E16)-1</f>
         <v>37</v>
       </c>
@@ -2117,7 +3079,7 @@
         <f t="shared" si="3"/>
         <v>-2.769017341040361E-4</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16">
         <f>RANK(J16,$J$2:$J$52,1)+COUNTIF($J$2:J16,J16)-1</f>
         <v>46</v>
       </c>
@@ -2135,7 +3097,7 @@
         <f t="shared" si="5"/>
         <v>-1.4464932677229222E-5</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16">
         <f>RANK(O16,$O$2:$O$52,1)+COUNTIF($O$2:O16,O16)-1</f>
         <v>43</v>
       </c>
@@ -2158,7 +3120,7 @@
         <f t="shared" si="1"/>
         <v>-2.8351094826658003E-2</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17">
         <f>RANK(E17,$E$2:$E$52,1)+COUNTIF($E$2:E17,E17)-1</f>
         <v>21</v>
       </c>
@@ -2176,7 +3138,7 @@
         <f t="shared" si="3"/>
         <v>-4.3401666263871937E-2</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17">
         <f>RANK(J17,$J$2:$J$52,1)+COUNTIF($J$2:J17,J17)-1</f>
         <v>25</v>
       </c>
@@ -2194,7 +3156,7 @@
         <f t="shared" si="5"/>
         <v>-6.3071811282801551E-2</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17">
         <f>RANK(O17,$O$2:$O$52,1)+COUNTIF($O$2:O17,O17)-1</f>
         <v>11</v>
       </c>
@@ -2217,7 +3179,7 @@
         <f t="shared" si="1"/>
         <v>-5.4037002206391245E-2</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18">
         <f>RANK(E18,$E$2:$E$52,1)+COUNTIF($E$2:E18,E18)-1</f>
         <v>12</v>
       </c>
@@ -2235,7 +3197,7 @@
         <f t="shared" si="3"/>
         <v>-6.6149619014330668E-2</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18">
         <f>RANK(J18,$J$2:$J$52,1)+COUNTIF($J$2:J18,J18)-1</f>
         <v>15</v>
       </c>
@@ -2253,7 +3215,7 @@
         <f t="shared" si="5"/>
         <v>-0.12882667147667154</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18">
         <f>RANK(O18,$O$2:$O$52,1)+COUNTIF($O$2:O18,O18)-1</f>
         <v>3</v>
       </c>
@@ -2276,7 +3238,7 @@
         <f t="shared" si="1"/>
         <v>-4.258504294298146E-2</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19">
         <f>RANK(E19,$E$2:$E$52,1)+COUNTIF($E$2:E19,E19)-1</f>
         <v>15</v>
       </c>
@@ -2294,7 +3256,7 @@
         <f t="shared" si="3"/>
         <v>-7.4289145810384635E-2</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19">
         <f>RANK(J19,$J$2:$J$52,1)+COUNTIF($J$2:J19,J19)-1</f>
         <v>12</v>
       </c>
@@ -2312,7 +3274,7 @@
         <f t="shared" si="5"/>
         <v>-6.1687262121374278E-2</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19">
         <f>RANK(O19,$O$2:$O$52,1)+COUNTIF($O$2:O19,O19)-1</f>
         <v>12</v>
       </c>
@@ -2335,7 +3297,7 @@
         <f t="shared" si="1"/>
         <v>-1.2379538203300809E-5</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20">
         <f>RANK(E20,$E$2:$E$52,1)+COUNTIF($E$2:E20,E20)-1</f>
         <v>46</v>
       </c>
@@ -2353,7 +3315,7 @@
         <f t="shared" si="3"/>
         <v>-7.4142392760188761E-5</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20">
         <f>RANK(J20,$J$2:$J$52,1)+COUNTIF($J$2:J20,J20)-1</f>
         <v>47</v>
       </c>
@@ -2371,7 +3333,7 @@
         <f t="shared" si="5"/>
         <v>-8.9158438821450736E-7</v>
       </c>
-      <c r="P20" s="10">
+      <c r="P20">
         <f>RANK(O20,$O$2:$O$52,1)+COUNTIF($O$2:O20,O20)-1</f>
         <v>46</v>
       </c>
@@ -2394,7 +3356,7 @@
         <f t="shared" si="1"/>
         <v>-7.9052463618023094E-2</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21">
         <f>RANK(E21,$E$2:$E$52,1)+COUNTIF($E$2:E21,E21)-1</f>
         <v>9</v>
       </c>
@@ -2412,7 +3374,7 @@
         <f t="shared" si="3"/>
         <v>-7.5167420624229556E-2</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21">
         <f>RANK(J21,$J$2:$J$52,1)+COUNTIF($J$2:J21,J21)-1</f>
         <v>11</v>
       </c>
@@ -2430,7 +3392,7 @@
         <f t="shared" si="5"/>
         <v>-3.6546762734864152E-2</v>
       </c>
-      <c r="P21" s="10">
+      <c r="P21">
         <f>RANK(O21,$O$2:$O$52,1)+COUNTIF($O$2:O21,O21)-1</f>
         <v>21</v>
       </c>
@@ -2453,7 +3415,7 @@
         <f t="shared" si="1"/>
         <v>-1.3285502334437123E-2</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22">
         <f>RANK(E22,$E$2:$E$52,1)+COUNTIF($E$2:E22,E22)-1</f>
         <v>32</v>
       </c>
@@ -2471,7 +3433,7 @@
         <f t="shared" si="3"/>
         <v>-1.5752170574348738E-2</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22">
         <f>RANK(J22,$J$2:$J$52,1)+COUNTIF($J$2:J22,J22)-1</f>
         <v>38</v>
       </c>
@@ -2489,7 +3451,7 @@
         <f t="shared" si="5"/>
         <v>-6.2439674240938325E-5</v>
       </c>
-      <c r="P22" s="10">
+      <c r="P22">
         <f>RANK(O22,$O$2:$O$52,1)+COUNTIF($O$2:O22,O22)-1</f>
         <v>42</v>
       </c>
@@ -2512,7 +3474,7 @@
         <f t="shared" si="1"/>
         <v>-3.9590110100806722E-2</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23">
         <f>RANK(E23,$E$2:$E$52,1)+COUNTIF($E$2:E23,E23)-1</f>
         <v>18</v>
       </c>
@@ -2530,7 +3492,7 @@
         <f t="shared" si="3"/>
         <v>-4.2394738976719144E-2</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23">
         <f>RANK(J23,$J$2:$J$52,1)+COUNTIF($J$2:J23,J23)-1</f>
         <v>26</v>
       </c>
@@ -2548,7 +3510,7 @@
         <f t="shared" si="5"/>
         <v>-2.5892971236375011E-2</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23">
         <f>RANK(O23,$O$2:$O$52,1)+COUNTIF($O$2:O23,O23)-1</f>
         <v>26</v>
       </c>
@@ -2571,7 +3533,7 @@
         <f t="shared" si="1"/>
         <v>-1.3334943305713101E-2</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24">
         <f>RANK(E24,$E$2:$E$52,1)+COUNTIF($E$2:E24,E24)-1</f>
         <v>31</v>
       </c>
@@ -2589,7 +3551,7 @@
         <f t="shared" si="3"/>
         <v>-4.087856565111897E-2</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24">
         <f>RANK(J24,$J$2:$J$52,1)+COUNTIF($J$2:J24,J24)-1</f>
         <v>28</v>
       </c>
@@ -2607,7 +3569,7 @@
         <f t="shared" si="5"/>
         <v>-6.5504224339284781E-5</v>
       </c>
-      <c r="P24" s="10">
+      <c r="P24">
         <f>RANK(O24,$O$2:$O$52,1)+COUNTIF($O$2:O24,O24)-1</f>
         <v>41</v>
       </c>
@@ -2630,7 +3592,7 @@
         <f t="shared" si="1"/>
         <v>-1.0226130964676661E-2</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25">
         <f>RANK(E25,$E$2:$E$52,1)+COUNTIF($E$2:E25,E25)-1</f>
         <v>38</v>
       </c>
@@ -2648,7 +3610,7 @@
         <f t="shared" si="3"/>
         <v>-1.5846773555029746E-2</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25">
         <f>RANK(J25,$J$2:$J$52,1)+COUNTIF($J$2:J25,J25)-1</f>
         <v>37</v>
       </c>
@@ -2666,7 +3628,7 @@
         <f t="shared" si="5"/>
         <v>-3.4741188318228064E-3</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P25">
         <f>RANK(O25,$O$2:$O$52,1)+COUNTIF($O$2:O25,O25)-1</f>
         <v>35</v>
       </c>
@@ -2689,7 +3651,7 @@
         <f t="shared" si="1"/>
         <v>-8.5306091660634673E-2</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26">
         <f>RANK(E26,$E$2:$E$52,1)+COUNTIF($E$2:E26,E26)-1</f>
         <v>5</v>
       </c>
@@ -2707,7 +3669,7 @@
         <f t="shared" si="3"/>
         <v>-5.8776040939327839E-2</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26">
         <f>RANK(J26,$J$2:$J$52,1)+COUNTIF($J$2:J26,J26)-1</f>
         <v>16</v>
       </c>
@@ -2725,7 +3687,7 @@
         <f t="shared" si="5"/>
         <v>-5.7720881286022069E-2</v>
       </c>
-      <c r="P26" s="10">
+      <c r="P26">
         <f>RANK(O26,$O$2:$O$52,1)+COUNTIF($O$2:O26,O26)-1</f>
         <v>13</v>
       </c>
@@ -2748,7 +3710,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27">
         <f>RANK(E27,$E$2:$E$52,1)+COUNTIF($E$2:E27,E27)-1</f>
         <v>48</v>
       </c>
@@ -2766,7 +3728,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27">
         <f>RANK(J27,$J$2:$J$52,1)+COUNTIF($J$2:J27,J27)-1</f>
         <v>49</v>
       </c>
@@ -2784,7 +3746,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P27" s="10">
+      <c r="P27">
         <f>RANK(O27,$O$2:$O$52,1)+COUNTIF($O$2:O27,O27)-1</f>
         <v>48</v>
       </c>
@@ -2807,7 +3769,7 @@
         <f t="shared" si="1"/>
         <v>-9.5782760864849215E-2</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28">
         <f>RANK(E28,$E$2:$E$52,1)+COUNTIF($E$2:E28,E28)-1</f>
         <v>3</v>
       </c>
@@ -2825,7 +3787,7 @@
         <f t="shared" si="3"/>
         <v>-0.17103239309050916</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28">
         <f>RANK(J28,$J$2:$J$52,1)+COUNTIF($J$2:J28,J28)-1</f>
         <v>2</v>
       </c>
@@ -2843,7 +3805,7 @@
         <f t="shared" si="5"/>
         <v>-8.6909325643882263E-2</v>
       </c>
-      <c r="P28" s="10">
+      <c r="P28">
         <f>RANK(O28,$O$2:$O$52,1)+COUNTIF($O$2:O28,O28)-1</f>
         <v>7</v>
       </c>
@@ -2866,7 +3828,7 @@
         <f t="shared" si="1"/>
         <v>-1.4800253727847622E-2</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29">
         <f>RANK(E29,$E$2:$E$52,1)+COUNTIF($E$2:E29,E29)-1</f>
         <v>28</v>
       </c>
@@ -2884,7 +3846,7 @@
         <f t="shared" si="3"/>
         <v>-4.1099320021590155E-2</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29">
         <f>RANK(J29,$J$2:$J$52,1)+COUNTIF($J$2:J29,J29)-1</f>
         <v>27</v>
       </c>
@@ -2902,7 +3864,7 @@
         <f t="shared" si="5"/>
         <v>-1.2225336516860273E-5</v>
       </c>
-      <c r="P29" s="10">
+      <c r="P29">
         <f>RANK(O29,$O$2:$O$52,1)+COUNTIF($O$2:O29,O29)-1</f>
         <v>44</v>
       </c>
@@ -2925,7 +3887,7 @@
         <f t="shared" si="1"/>
         <v>-8.3831374359143746E-3</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30">
         <f>RANK(E30,$E$2:$E$52,1)+COUNTIF($E$2:E30,E30)-1</f>
         <v>40</v>
       </c>
@@ -2943,7 +3905,7 @@
         <f t="shared" si="3"/>
         <v>-3.9561962641116366E-3</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30">
         <f>RANK(J30,$J$2:$J$52,1)+COUNTIF($J$2:J30,J30)-1</f>
         <v>42</v>
       </c>
@@ -2961,7 +3923,7 @@
         <f t="shared" si="5"/>
         <v>-2.7439209100169185E-3</v>
       </c>
-      <c r="P30" s="10">
+      <c r="P30">
         <f>RANK(O30,$O$2:$O$52,1)+COUNTIF($O$2:O30,O30)-1</f>
         <v>36</v>
       </c>
@@ -2984,7 +3946,7 @@
         <f t="shared" si="1"/>
         <v>-1.4030533529678329E-2</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31">
         <f>RANK(E31,$E$2:$E$52,1)+COUNTIF($E$2:E31,E31)-1</f>
         <v>29</v>
       </c>
@@ -3002,7 +3964,7 @@
         <f t="shared" si="3"/>
         <v>-3.3249136181648611E-2</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31">
         <f>RANK(J31,$J$2:$J$52,1)+COUNTIF($J$2:J31,J31)-1</f>
         <v>32</v>
       </c>
@@ -3020,7 +3982,7 @@
         <f t="shared" si="5"/>
         <v>-3.7049585716576634E-2</v>
       </c>
-      <c r="P31" s="10">
+      <c r="P31">
         <f>RANK(O31,$O$2:$O$52,1)+COUNTIF($O$2:O31,O31)-1</f>
         <v>20</v>
       </c>
@@ -3043,7 +4005,7 @@
         <f t="shared" si="1"/>
         <v>-1.2294942827617691E-2</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32">
         <f>RANK(E32,$E$2:$E$52,1)+COUNTIF($E$2:E32,E32)-1</f>
         <v>36</v>
       </c>
@@ -3061,7 +4023,7 @@
         <f t="shared" si="3"/>
         <v>-1.7837871035428981E-2</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32">
         <f>RANK(J32,$J$2:$J$52,1)+COUNTIF($J$2:J32,J32)-1</f>
         <v>35</v>
       </c>
@@ -3079,7 +4041,7 @@
         <f t="shared" si="5"/>
         <v>-2.7581118653977402E-2</v>
       </c>
-      <c r="P32" s="10">
+      <c r="P32">
         <f>RANK(O32,$O$2:$O$52,1)+COUNTIF($O$2:O32,O32)-1</f>
         <v>23</v>
       </c>
@@ -3102,7 +4064,7 @@
         <f t="shared" si="1"/>
         <v>-7.9969930789269058E-3</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33">
         <f>RANK(E33,$E$2:$E$52,1)+COUNTIF($E$2:E33,E33)-1</f>
         <v>41</v>
       </c>
@@ -3120,7 +4082,7 @@
         <f t="shared" si="3"/>
         <v>-2.6564903115433454E-3</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33">
         <f>RANK(J33,$J$2:$J$52,1)+COUNTIF($J$2:J33,J33)-1</f>
         <v>43</v>
       </c>
@@ -3138,7 +4100,7 @@
         <f t="shared" si="5"/>
         <v>-5.5141067323084929E-3</v>
       </c>
-      <c r="P33" s="10">
+      <c r="P33">
         <f>RANK(O33,$O$2:$O$52,1)+COUNTIF($O$2:O33,O33)-1</f>
         <v>34</v>
       </c>
@@ -3161,7 +4123,7 @@
         <f t="shared" si="1"/>
         <v>-1.8939149738619768E-2</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34">
         <f>RANK(E34,$E$2:$E$52,1)+COUNTIF($E$2:E34,E34)-1</f>
         <v>26</v>
       </c>
@@ -3179,7 +4141,7 @@
         <f t="shared" si="3"/>
         <v>-4.8961345561534093E-2</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34">
         <f>RANK(J34,$J$2:$J$52,1)+COUNTIF($J$2:J34,J34)-1</f>
         <v>21</v>
       </c>
@@ -3197,7 +4159,7 @@
         <f t="shared" si="5"/>
         <v>-2.6647296115611244E-2</v>
       </c>
-      <c r="P34" s="10">
+      <c r="P34">
         <f>RANK(O34,$O$2:$O$52,1)+COUNTIF($O$2:O34,O34)-1</f>
         <v>24</v>
       </c>
@@ -3220,7 +4182,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35">
         <f>RANK(E35,$E$2:$E$52,1)+COUNTIF($E$2:E35,E35)-1</f>
         <v>49</v>
       </c>
@@ -3238,7 +4200,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35">
         <f>RANK(J35,$J$2:$J$52,1)+COUNTIF($J$2:J35,J35)-1</f>
         <v>50</v>
       </c>
@@ -3256,7 +4218,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P35" s="10">
+      <c r="P35">
         <f>RANK(O35,$O$2:$O$52,1)+COUNTIF($O$2:O35,O35)-1</f>
         <v>49</v>
       </c>
@@ -3279,7 +4241,7 @@
         <f t="shared" si="1"/>
         <v>-7.8647857679780775E-2</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36">
         <f>RANK(E36,$E$2:$E$52,1)+COUNTIF($E$2:E36,E36)-1</f>
         <v>10</v>
       </c>
@@ -3297,7 +4259,7 @@
         <f t="shared" si="3"/>
         <v>-0.17551246244575608</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36">
         <f>RANK(J36,$J$2:$J$52,1)+COUNTIF($J$2:J36,J36)-1</f>
         <v>1</v>
       </c>
@@ -3315,7 +4277,7 @@
         <f t="shared" si="5"/>
         <v>-0.11509132414892521</v>
       </c>
-      <c r="P36" s="10">
+      <c r="P36">
         <f>RANK(O36,$O$2:$O$52,1)+COUNTIF($O$2:O36,O36)-1</f>
         <v>5</v>
       </c>
@@ -3338,7 +4300,7 @@
         <f t="shared" si="1"/>
         <v>-3.9444515758219188E-2</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37">
         <f>RANK(E37,$E$2:$E$52,1)+COUNTIF($E$2:E37,E37)-1</f>
         <v>19</v>
       </c>
@@ -3356,7 +4318,7 @@
         <f t="shared" si="3"/>
         <v>-4.9460250314014013E-2</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37">
         <f>RANK(J37,$J$2:$J$52,1)+COUNTIF($J$2:J37,J37)-1</f>
         <v>20</v>
       </c>
@@ -3374,7 +4336,7 @@
         <f t="shared" si="5"/>
         <v>-8.1928538464887526E-2</v>
       </c>
-      <c r="P37" s="10">
+      <c r="P37">
         <f>RANK(O37,$O$2:$O$52,1)+COUNTIF($O$2:O37,O37)-1</f>
         <v>8</v>
       </c>
@@ -3397,7 +4359,7 @@
         <f t="shared" si="1"/>
         <v>-1.9443680579913542E-2</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38">
         <f>RANK(E38,$E$2:$E$52,1)+COUNTIF($E$2:E38,E38)-1</f>
         <v>25</v>
       </c>
@@ -3415,7 +4377,7 @@
         <f t="shared" si="3"/>
         <v>-4.9631735620585316E-2</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38">
         <f>RANK(J38,$J$2:$J$52,1)+COUNTIF($J$2:J38,J38)-1</f>
         <v>19</v>
       </c>
@@ -3433,7 +4395,7 @@
         <f t="shared" si="5"/>
         <v>-1.7580354847003174E-4</v>
       </c>
-      <c r="P38" s="10">
+      <c r="P38">
         <f>RANK(O38,$O$2:$O$52,1)+COUNTIF($O$2:O38,O38)-1</f>
         <v>40</v>
       </c>
@@ -3456,7 +4418,7 @@
         <f t="shared" si="1"/>
         <v>-8.008952370177623E-2</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39">
         <f>RANK(E39,$E$2:$E$52,1)+COUNTIF($E$2:E39,E39)-1</f>
         <v>8</v>
       </c>
@@ -3474,7 +4436,7 @@
         <f t="shared" si="3"/>
         <v>-0.13918241656366656</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39">
         <f>RANK(J39,$J$2:$J$52,1)+COUNTIF($J$2:J39,J39)-1</f>
         <v>3</v>
       </c>
@@ -3492,7 +4454,7 @@
         <f t="shared" si="5"/>
         <v>-4.4919653310605226E-2</v>
       </c>
-      <c r="P39" s="10">
+      <c r="P39">
         <f>RANK(O39,$O$2:$O$52,1)+COUNTIF($O$2:O39,O39)-1</f>
         <v>17</v>
       </c>
@@ -3515,7 +4477,7 @@
         <f t="shared" si="1"/>
         <v>-2.1279773539092578E-2</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40">
         <f>RANK(E40,$E$2:$E$52,1)+COUNTIF($E$2:E40,E40)-1</f>
         <v>23</v>
       </c>
@@ -3533,7 +4495,7 @@
         <f t="shared" si="3"/>
         <v>-4.6782546934937892E-2</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40">
         <f>RANK(J40,$J$2:$J$52,1)+COUNTIF($J$2:J40,J40)-1</f>
         <v>22</v>
       </c>
@@ -3551,7 +4513,7 @@
         <f t="shared" si="5"/>
         <v>-1.5178676768608648E-2</v>
       </c>
-      <c r="P40" s="10">
+      <c r="P40">
         <f>RANK(O40,$O$2:$O$52,1)+COUNTIF($O$2:O40,O40)-1</f>
         <v>31</v>
       </c>
@@ -3574,7 +4536,7 @@
         <f t="shared" si="1"/>
         <v>-4.0110550149132493E-2</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41">
         <f>RANK(E41,$E$2:$E$52,1)+COUNTIF($E$2:E41,E41)-1</f>
         <v>17</v>
       </c>
@@ -3592,7 +4554,7 @@
         <f t="shared" si="3"/>
         <v>-2.6221894095689226E-2</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41">
         <f>RANK(J41,$J$2:$J$52,1)+COUNTIF($J$2:J41,J41)-1</f>
         <v>34</v>
       </c>
@@ -3610,7 +4572,7 @@
         <f t="shared" si="5"/>
         <v>-1.7099804162586642E-2</v>
       </c>
-      <c r="P41" s="10">
+      <c r="P41">
         <f>RANK(O41,$O$2:$O$52,1)+COUNTIF($O$2:O41,O41)-1</f>
         <v>30</v>
       </c>
@@ -3633,7 +4595,7 @@
         <f t="shared" si="1"/>
         <v>-2.2070943135841053E-4</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42">
         <f>RANK(E42,$E$2:$E$52,1)+COUNTIF($E$2:E42,E42)-1</f>
         <v>44</v>
       </c>
@@ -3651,7 +4613,7 @@
         <f t="shared" si="3"/>
         <v>-1.1928203241796942E-2</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42">
         <f>RANK(J42,$J$2:$J$52,1)+COUNTIF($J$2:J42,J42)-1</f>
         <v>39</v>
       </c>
@@ -3669,7 +4631,7 @@
         <f t="shared" si="5"/>
         <v>-1.8129115815929696E-7</v>
       </c>
-      <c r="P42" s="10">
+      <c r="P42">
         <f>RANK(O42,$O$2:$O$52,1)+COUNTIF($O$2:O42,O42)-1</f>
         <v>47</v>
       </c>
@@ -3692,7 +4654,7 @@
         <f t="shared" si="1"/>
         <v>-2.0497353541313264E-2</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43">
         <f>RANK(E43,$E$2:$E$52,1)+COUNTIF($E$2:E43,E43)-1</f>
         <v>24</v>
       </c>
@@ -3710,7 +4672,7 @@
         <f t="shared" si="3"/>
         <v>-4.5477990374731388E-2</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43">
         <f>RANK(J43,$J$2:$J$52,1)+COUNTIF($J$2:J43,J43)-1</f>
         <v>23</v>
       </c>
@@ -3728,7 +4690,7 @@
         <f t="shared" si="5"/>
         <v>-4.0778750220654303E-2</v>
       </c>
-      <c r="P43" s="10">
+      <c r="P43">
         <f>RANK(O43,$O$2:$O$52,1)+COUNTIF($O$2:O43,O43)-1</f>
         <v>18</v>
       </c>
@@ -3751,7 +4713,7 @@
         <f t="shared" si="1"/>
         <v>-9.7760750186150751E-3</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44">
         <f>RANK(E44,$E$2:$E$52,1)+COUNTIF($E$2:E44,E44)-1</f>
         <v>39</v>
       </c>
@@ -3769,7 +4731,7 @@
         <f t="shared" si="3"/>
         <v>-7.9569249404813532E-3</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K44">
         <f>RANK(J44,$J$2:$J$52,1)+COUNTIF($J$2:J44,J44)-1</f>
         <v>41</v>
       </c>
@@ -3787,7 +4749,7 @@
         <f t="shared" si="5"/>
         <v>-1.8780648419868168E-6</v>
       </c>
-      <c r="P44" s="10">
+      <c r="P44">
         <f>RANK(O44,$O$2:$O$52,1)+COUNTIF($O$2:O44,O44)-1</f>
         <v>45</v>
       </c>
@@ -3810,7 +4772,7 @@
         <f t="shared" si="1"/>
         <v>-1.287514194887851E-2</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45">
         <f>RANK(E45,$E$2:$E$52,1)+COUNTIF($E$2:E45,E45)-1</f>
         <v>34</v>
       </c>
@@ -3828,7 +4790,7 @@
         <f t="shared" si="3"/>
         <v>-3.8689222111488959E-2</v>
       </c>
-      <c r="K45" s="10">
+      <c r="K45">
         <f>RANK(J45,$J$2:$J$52,1)+COUNTIF($J$2:J45,J45)-1</f>
         <v>30</v>
       </c>
@@ -3846,7 +4808,7 @@
         <f t="shared" si="5"/>
         <v>-1.1432866237947358E-2</v>
       </c>
-      <c r="P45" s="10">
+      <c r="P45">
         <f>RANK(O45,$O$2:$O$52,1)+COUNTIF($O$2:O45,O45)-1</f>
         <v>32</v>
       </c>
@@ -3869,7 +4831,7 @@
         <f t="shared" si="1"/>
         <v>-3.0010420686993711E-3</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46">
         <f>RANK(E46,$E$2:$E$52,1)+COUNTIF($E$2:E46,E46)-1</f>
         <v>43</v>
       </c>
@@ -3887,7 +4849,7 @@
         <f t="shared" si="3"/>
         <v>-3.2319887218048821E-2</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K46">
         <f>RANK(J46,$J$2:$J$52,1)+COUNTIF($J$2:J46,J46)-1</f>
         <v>33</v>
       </c>
@@ -3905,7 +4867,7 @@
         <f t="shared" si="5"/>
         <v>-4.6225533508053113E-2</v>
       </c>
-      <c r="P46" s="10">
+      <c r="P46">
         <f>RANK(O46,$O$2:$O$52,1)+COUNTIF($O$2:O46,O46)-1</f>
         <v>16</v>
       </c>
@@ -3928,7 +4890,7 @@
         <f t="shared" si="1"/>
         <v>-1.7435939690898361E-4</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47">
         <f>RANK(E47,$E$2:$E$52,1)+COUNTIF($E$2:E47,E47)-1</f>
         <v>45</v>
       </c>
@@ -3946,7 +4908,7 @@
         <f t="shared" si="3"/>
         <v>-3.3291600310348285E-4</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K47">
         <f>RANK(J47,$J$2:$J$52,1)+COUNTIF($J$2:J47,J47)-1</f>
         <v>45</v>
       </c>
@@ -3964,7 +4926,7 @@
         <f t="shared" si="5"/>
         <v>-2.9266019117572752E-4</v>
       </c>
-      <c r="P47" s="10">
+      <c r="P47">
         <f>RANK(O47,$O$2:$O$52,1)+COUNTIF($O$2:O47,O47)-1</f>
         <v>38</v>
       </c>
@@ -3987,7 +4949,7 @@
         <f t="shared" si="1"/>
         <v>-3.1133192323107857E-2</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48">
         <f>RANK(E48,$E$2:$E$52,1)+COUNTIF($E$2:E48,E48)-1</f>
         <v>20</v>
       </c>
@@ -4005,7 +4967,7 @@
         <f t="shared" si="3"/>
         <v>-4.0559890224125802E-2</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K48">
         <f>RANK(J48,$J$2:$J$52,1)+COUNTIF($J$2:J48,J48)-1</f>
         <v>29</v>
       </c>
@@ -4023,7 +4985,7 @@
         <f t="shared" si="5"/>
         <v>-5.5893132870587676E-2</v>
       </c>
-      <c r="P48" s="10">
+      <c r="P48">
         <f>RANK(O48,$O$2:$O$52,1)+COUNTIF($O$2:O48,O48)-1</f>
         <v>15</v>
       </c>
@@ -4046,7 +5008,7 @@
         <f t="shared" si="1"/>
         <v>-1.8444360086767971E-2</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49">
         <f>RANK(E49,$E$2:$E$52,1)+COUNTIF($E$2:E49,E49)-1</f>
         <v>27</v>
       </c>
@@ -4064,7 +5026,7 @@
         <f t="shared" si="3"/>
         <v>-6.9523586744639335E-2</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K49">
         <f>RANK(J49,$J$2:$J$52,1)+COUNTIF($J$2:J49,J49)-1</f>
         <v>13</v>
       </c>
@@ -4082,7 +5044,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P49" s="10">
+      <c r="P49">
         <f>RANK(O49,$O$2:$O$52,1)+COUNTIF($O$2:O49,O49)-1</f>
         <v>50</v>
       </c>
@@ -4105,7 +5067,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50">
         <f>RANK(E50,$E$2:$E$52,1)+COUNTIF($E$2:E50,E50)-1</f>
         <v>50</v>
       </c>
@@ -4123,7 +5085,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K50" s="10">
+      <c r="K50">
         <f>RANK(J50,$J$2:$J$52,1)+COUNTIF($J$2:J50,J50)-1</f>
         <v>51</v>
       </c>
@@ -4141,7 +5103,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P50" s="10">
+      <c r="P50">
         <f>RANK(O50,$O$2:$O$52,1)+COUNTIF($O$2:O50,O50)-1</f>
         <v>51</v>
       </c>
@@ -4164,7 +5126,7 @@
         <f t="shared" si="1"/>
         <v>-1.2785255822058129E-2</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51">
         <f>RANK(E51,$E$2:$E$52,1)+COUNTIF($E$2:E51,E51)-1</f>
         <v>35</v>
       </c>
@@ -4182,7 +5144,7 @@
         <f t="shared" si="3"/>
         <v>-3.6573903982970231E-2</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K51">
         <f>RANK(J51,$J$2:$J$52,1)+COUNTIF($J$2:J51,J51)-1</f>
         <v>31</v>
       </c>
@@ -4200,7 +5162,7 @@
         <f t="shared" si="5"/>
         <v>-1.1100045280114048E-2</v>
       </c>
-      <c r="P51" s="10">
+      <c r="P51">
         <f>RANK(O51,$O$2:$O$52,1)+COUNTIF($O$2:O51,O51)-1</f>
         <v>33</v>
       </c>
@@ -4223,7 +5185,7 @@
         <f t="shared" si="1"/>
         <v>-8.009596083231342E-2</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52">
         <f>RANK(E52,$E$2:$E$52,1)+COUNTIF($E$2:E52,E52)-1</f>
         <v>7</v>
       </c>
@@ -4241,7 +5203,7 @@
         <f t="shared" si="3"/>
         <v>-9.6704683082722218E-2</v>
       </c>
-      <c r="K52" s="10">
+      <c r="K52">
         <f>RANK(J52,$J$2:$J$52,1)+COUNTIF($J$2:J52,J52)-1</f>
         <v>9</v>
       </c>
@@ -4259,7 +5221,7 @@
         <f t="shared" si="5"/>
         <v>-0.11404408166781529</v>
       </c>
-      <c r="P52" s="10">
+      <c r="P52">
         <f>RANK(O52,$O$2:$O$52,1)+COUNTIF($O$2:O52,O52)-1</f>
         <v>6</v>
       </c>
@@ -4287,15 +5249,15 @@
       <c r="A56" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="10">
         <f>VLOOKUP(A56,$A$2:$D$52,4,FALSE)</f>
         <v>-36209.630000000005</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="10">
         <f>VLOOKUP(A56,$A$2:$I$52,9,FALSE)</f>
         <v>-27292.159999999974</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="10">
         <f>VLOOKUP(A56,$A$2:$N$52,14,FALSE)</f>
         <v>-9181.0800000000163</v>
       </c>
@@ -4304,15 +5266,15 @@
       <c r="A57" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="10">
         <f t="shared" ref="B57:B61" si="6">VLOOKUP(A57,$A$2:$D$52,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="10">
         <f t="shared" ref="C57:C61" si="7">VLOOKUP(A57,$A$2:$I$52,9,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="10">
         <f t="shared" ref="D57:D61" si="8">VLOOKUP(A57,$A$2:$N$52,14,FALSE)</f>
         <v>-311228.08999999997</v>
       </c>
@@ -4321,15 +5283,15 @@
       <c r="A58" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="10">
         <f t="shared" si="6"/>
         <v>-149396.10000000987</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="10">
         <f t="shared" si="7"/>
         <v>-189254.06000000006</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="10">
         <f t="shared" si="8"/>
         <v>-374962.91000000015</v>
       </c>
@@ -4338,15 +5300,15 @@
       <c r="A59" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="10">
         <f t="shared" si="6"/>
         <v>-12230.810000000056</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="10">
         <f t="shared" si="7"/>
         <v>-45485.580000000075</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="10">
         <f t="shared" si="8"/>
         <v>-72.879999999888241</v>
       </c>
@@ -4355,15 +5317,15 @@
       <c r="A60" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="10">
         <f t="shared" si="6"/>
         <v>-4950.4699999999721</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="10">
         <f t="shared" si="7"/>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="10">
         <f t="shared" si="8"/>
         <v>-1724.9000000000233</v>
       </c>
@@ -4372,15 +5334,15 @@
       <c r="A61" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="10">
         <f t="shared" si="6"/>
         <v>-184239.79000001028</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="10">
         <f t="shared" si="7"/>
         <v>-133456.33000001032</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="10">
         <f t="shared" si="8"/>
         <v>-82077.349999999627</v>
       </c>
@@ -4408,15 +5370,15 @@
       <c r="A65" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="10">
         <f>_xlfn.XLOOKUP(A65,$A$2:$A$52,$D$2:$D$52)</f>
         <v>-36209.630000000005</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65" s="10">
         <f>_xlfn.XLOOKUP(A65,$A$2:$A$52,$I$2:$I$52)</f>
         <v>-27292.159999999974</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="10">
         <f>_xlfn.XLOOKUP(A65,$A$2:$A$52,$N$2:$N$52)</f>
         <v>-9181.0800000000163</v>
       </c>
@@ -4425,15 +5387,15 @@
       <c r="A66" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="11">
+      <c r="B66" s="10">
         <f t="shared" ref="B66:B70" si="9">_xlfn.XLOOKUP(A66,$A$2:$A$52,$D$2:$D$52)</f>
         <v>0</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="10">
         <f t="shared" ref="C66:C70" si="10">_xlfn.XLOOKUP(A66,$A$2:$A$52,$I$2:$I$52)</f>
         <v>0</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="10">
         <f t="shared" ref="D66:D70" si="11">_xlfn.XLOOKUP(A66,$A$2:$A$52,$N$2:$N$52)</f>
         <v>-311228.08999999997</v>
       </c>
@@ -4442,15 +5404,15 @@
       <c r="A67" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67" s="10">
         <f t="shared" si="9"/>
         <v>-149396.10000000987</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="10">
         <f t="shared" si="10"/>
         <v>-189254.06000000006</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="10">
         <f t="shared" si="11"/>
         <v>-374962.91000000015</v>
       </c>
@@ -4459,15 +5421,15 @@
       <c r="A68" t="s">
         <v>38</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B68" s="10">
         <f t="shared" si="9"/>
         <v>-12230.810000000056</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="10">
         <f t="shared" si="10"/>
         <v>-45485.580000000075</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="10">
         <f t="shared" si="11"/>
         <v>-72.879999999888241</v>
       </c>
@@ -4476,15 +5438,15 @@
       <c r="A69" t="s">
         <v>39</v>
       </c>
-      <c r="B69" s="11">
+      <c r="B69" s="10">
         <f t="shared" si="9"/>
         <v>-4950.4699999999721</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69" s="10">
         <f t="shared" si="10"/>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="10">
         <f t="shared" si="11"/>
         <v>-1724.9000000000233</v>
       </c>
@@ -4493,15 +5455,15 @@
       <c r="A70" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="11">
+      <c r="B70" s="10">
         <f t="shared" si="9"/>
         <v>-184239.79000001028</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="10">
         <f t="shared" si="10"/>
         <v>-133456.33000001032</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="10">
         <f t="shared" si="11"/>
         <v>-82077.349999999627</v>
       </c>
@@ -4530,15 +5492,15 @@
       <c r="A74" t="s">
         <v>24</v>
       </c>
-      <c r="B74" s="11">
+      <c r="B74" s="10">
         <f>INDEX($D$2:$D$52,MATCH(A74,$A$2:$A$52,0))</f>
         <v>-36209.630000000005</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74" s="10">
         <f>INDEX($I$2:$I$52,MATCH(A74,$A$2:$A$52,0))</f>
         <v>-27292.159999999974</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="10">
         <f>INDEX($N$2:$N$52,MATCH(A74,$A$2:$A$52,0))</f>
         <v>-9181.0800000000163</v>
       </c>
@@ -4547,15 +5509,15 @@
       <c r="A75" t="s">
         <v>25</v>
       </c>
-      <c r="B75" s="11">
+      <c r="B75" s="10">
         <f t="shared" ref="B75:B79" si="12">INDEX($D$2:$D$52,MATCH(A75,$A$2:$A$52,0))</f>
         <v>0</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C75" s="10">
         <f t="shared" ref="C75:C79" si="13">INDEX($I$2:$I$52,MATCH(A75,$A$2:$A$52,0))</f>
         <v>0</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="10">
         <f t="shared" ref="D75:D79" si="14">INDEX($N$2:$N$52,MATCH(A75,$A$2:$A$52,0))</f>
         <v>-311228.08999999997</v>
       </c>
@@ -4564,15 +5526,15 @@
       <c r="A76" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="11">
+      <c r="B76" s="10">
         <f t="shared" si="12"/>
         <v>-149396.10000000987</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="10">
         <f t="shared" si="13"/>
         <v>-189254.06000000006</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="10">
         <f t="shared" si="14"/>
         <v>-374962.91000000015</v>
       </c>
@@ -4581,15 +5543,15 @@
       <c r="A77" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="11">
+      <c r="B77" s="10">
         <f t="shared" si="12"/>
         <v>-12230.810000000056</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C77" s="10">
         <f t="shared" si="13"/>
         <v>-45485.580000000075</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D77" s="10">
         <f t="shared" si="14"/>
         <v>-72.879999999888241</v>
       </c>
@@ -4598,15 +5560,15 @@
       <c r="A78" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="11">
+      <c r="B78" s="10">
         <f t="shared" si="12"/>
         <v>-4950.4699999999721</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="10">
         <f t="shared" si="13"/>
         <v>-8005.7900000010268</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="10">
         <f t="shared" si="14"/>
         <v>-1724.9000000000233</v>
       </c>
@@ -4615,15 +5577,15 @@
       <c r="A79" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="11">
+      <c r="B79" s="10">
         <f t="shared" si="12"/>
         <v>-184239.79000001028</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C79" s="10">
         <f t="shared" si="13"/>
         <v>-133456.33000001032</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D79" s="10">
         <f t="shared" si="14"/>
         <v>-82077.349999999627</v>
       </c>
@@ -4636,7 +5598,7 @@
     </row>
     <row r="82" spans="1:7" ht="15">
       <c r="A82" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4651,22 +5613,40 @@
       <c r="A84" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
+      <c r="B84" s="6">
+        <f>INDEX(B2:B52,MATCH($A$82,$A$2:$A$52,0))</f>
+        <v>7670700</v>
+      </c>
+      <c r="C84" s="6">
+        <f>INDEX(C2:C52,MATCH($A$82,$A$2:$A$52,0))</f>
+        <v>6947552.6699999999</v>
+      </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
+      <c r="B85" s="6">
+        <f>INDEX(G$2:G$52,MATCH($A$82,$A$2:$A$52,0))</f>
+        <v>7968300</v>
+      </c>
+      <c r="C85" s="6">
+        <f>INDEX(H$2:H$52,MATCH($A$82,$A$2:$A$52,0))</f>
+        <v>7020609.3200000003</v>
+      </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
+      <c r="B86" s="6">
+        <f>INDEX(L$2:L$52,MATCH($A$82,$A$2:$A$52,0))</f>
+        <v>7759600</v>
+      </c>
+      <c r="C86" s="6">
+        <f>INDEX(M$2:M$52,MATCH($A$82,$A$2:$A$52,0))</f>
+        <v>7497322.9100000001</v>
+      </c>
     </row>
     <row r="87" spans="1:7" ht="15"/>
     <row r="88" spans="1:7" ht="15">
@@ -4809,13 +5789,17 @@
     <row r="106" spans="1:9" ht="15"/>
     <row r="107" spans="1:9" ht="15"/>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
       <formula1>$A$2:$A$52</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A82" xr:uid="{15A9EB2E-D22A-41C3-B246-C47D82C5214D}">
+      <formula1>$A$2:$A$52</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28521"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary van Valkenburg\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AED475C-2497-4EF4-893D-8017E7D5C185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C290739-F305-4EBE-8C53-72175C765F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="90" windowWidth="21877" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="90" windowWidth="21877" windowHeight="13080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metro_budget" sheetId="1" r:id="rId1"/>
-    <sheet name="data_dictionary" sheetId="2" r:id="rId2"/>
+    <sheet name="metro_budget (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="data_dictionary" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="FY_budget" localSheetId="1">'metro_budget (2)'!$A$84:$C$86</definedName>
     <definedName name="FY_budget">metro_budget!$A$84:$C$86</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -39,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="90">
   <si>
     <t>Department</t>
   </si>
@@ -974,6 +998,9 @@
               <c:f>metro_budget!$B$82:$B$83</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>General Services</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>Budget</c:v>
                 </c:pt>
@@ -1014,13 +1041,13 @@
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7670700</c:v>
+                  <c:v>24332100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7968300</c:v>
+                  <c:v>24497400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7759600</c:v>
+                  <c:v>24323000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,6 +1066,9 @@
               <c:f>metro_budget!$C$82:$C$83</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>General Services</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>Actual</c:v>
                 </c:pt>
@@ -1079,13 +1109,13 @@
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6947552.6699999999</c:v>
+                  <c:v>22408587.5499999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7020609.3200000003</c:v>
+                  <c:v>22655993.629999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7497322.9100000001</c:v>
+                  <c:v>23434073.089999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,6 +1123,386 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6333-451C-BB1A-23D70C02C30A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="723923975"/>
+        <c:axId val="723926023"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="723923975"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="723926023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="723926023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:crossAx val="723923975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Budget vs. Actual</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'metro_budget (2)'!$B$82:$B$83</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Administrative</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Budget</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'metro_budget (2)'!$A$84:$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FY17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'metro_budget (2)'!$B$84:$B$86</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>356640100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>382685200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>376548600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9BB-406D-9040-A312EE741AE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'metro_budget (2)'!$C$82:$C$83</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Administrative</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'metro_budget (2)'!$A$84:$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>FY17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FY18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FY19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'metro_budget (2)'!$C$84:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>341243679.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>346340810.81999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>355279492.22999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F9BB-406D-9040-A312EE741AE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1304,7 +1714,552 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1850,6 +2805,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA474A5A-B557-4B13-BA01-BA688365A6A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2149,8 +3147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2232,7 +3230,7 @@
         <v>-15396420.870000005</v>
       </c>
       <c r="E2" s="9">
-        <f>IFERROR((D2/B2), "0")</f>
+        <f>IFERROR((D2/B2), 0)</f>
         <v>-4.3170750765267295E-2</v>
       </c>
       <c r="F2">
@@ -2291,7 +3289,7 @@
         <v>-7585.4099999999744</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E52" si="1">IFERROR((D3/B3), "0")</f>
+        <f t="shared" ref="E3:E52" si="1">IFERROR((D3/B3), 0)</f>
         <v>-2.3069981751824741E-2</v>
       </c>
       <c r="F3">
@@ -2762,7 +3760,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="9" t="str">
+      <c r="E11" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3004,7 +4002,7 @@
       </c>
       <c r="F15">
         <f>RANK(E15,$E$2:$E$52,1)+COUNTIF($E$2:E15,E15)-1</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G15">
         <v>184167800</v>
@@ -3706,7 +4704,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="9" t="str">
+      <c r="E27" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4178,7 +5176,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="9" t="str">
+      <c r="E35" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5598,7 +6596,7 @@
     </row>
     <row r="82" spans="1:7" ht="15">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -5615,11 +6613,11 @@
       </c>
       <c r="B84" s="6">
         <f>INDEX(B2:B52,MATCH($A$82,$A$2:$A$52,0))</f>
-        <v>7670700</v>
+        <v>24332100</v>
       </c>
       <c r="C84" s="6">
         <f>INDEX(C2:C52,MATCH($A$82,$A$2:$A$52,0))</f>
-        <v>6947552.6699999999</v>
+        <v>22408587.5499999</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -5628,11 +6626,11 @@
       </c>
       <c r="B85" s="6">
         <f>INDEX(G$2:G$52,MATCH($A$82,$A$2:$A$52,0))</f>
-        <v>7968300</v>
+        <v>24497400</v>
       </c>
       <c r="C85" s="6">
         <f>INDEX(H$2:H$52,MATCH($A$82,$A$2:$A$52,0))</f>
-        <v>7020609.3200000003</v>
+        <v>22655993.629999999</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -5641,11 +6639,11 @@
       </c>
       <c r="B86" s="6">
         <f>INDEX(L$2:L$52,MATCH($A$82,$A$2:$A$52,0))</f>
-        <v>7759600</v>
+        <v>24323000</v>
       </c>
       <c r="C86" s="6">
         <f>INDEX(M$2:M$52,MATCH($A$82,$A$2:$A$52,0))</f>
-        <v>7497322.9100000001</v>
+        <v>23434073.089999899</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15"/>
@@ -5789,12 +6787,3781 @@
     <row r="106" spans="1:9" ht="15"/>
     <row r="107" spans="1:9" ht="15"/>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A82:A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
       <formula1>$A$2:$A$52</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A82" xr:uid="{15A9EB2E-D22A-41C3-B246-C47D82C5214D}">
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDCAE7B-9A6F-4045-8A93-7DF600F88A9C}">
+  <dimension ref="A1:P100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98:G100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>356640100</v>
+      </c>
+      <c r="C2">
+        <v>341243679.13</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>-15396420.870000005</v>
+      </c>
+      <c r="E2" s="9">
+        <f>IFERROR((D2/B2), "0")</f>
+        <v>-4.3170750765267295E-2</v>
+      </c>
+      <c r="F2">
+        <f>RANK(E2,$E$2:$E$52,1)+COUNTIF($E$2:E2,E2)-1</f>
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>382685200</v>
+      </c>
+      <c r="H2">
+        <v>346340810.81999999</v>
+      </c>
+      <c r="I2">
+        <f>H2-G2</f>
+        <v>-36344389.180000007</v>
+      </c>
+      <c r="J2" s="9">
+        <f>IFERROR((I2/G2), "0")</f>
+        <v>-9.4972027086493035E-2</v>
+      </c>
+      <c r="K2">
+        <f>RANK(J2,$J$2:$J$52,1)+COUNTIF($J$2:J2,J2)-1</f>
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>376548600</v>
+      </c>
+      <c r="M2">
+        <v>355279492.22999901</v>
+      </c>
+      <c r="N2">
+        <f>M2-L2</f>
+        <v>-21269107.770000994</v>
+      </c>
+      <c r="O2" s="9">
+        <f>IFERROR((N2/L2),"0")</f>
+        <v>-5.6484362894991494E-2</v>
+      </c>
+      <c r="P2">
+        <f>RANK(O2,$O$2:$O$52,1)+COUNTIF($O$2:O2,O2)-1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>328800</v>
+      </c>
+      <c r="C3">
+        <v>321214.59000000003</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D52" si="0">C3-B3</f>
+        <v>-7585.4099999999744</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E52" si="1">IFERROR((D3/B3), "0")</f>
+        <v>-2.3069981751824741E-2</v>
+      </c>
+      <c r="F3">
+        <f>RANK(E3,$E$2:$E$52,1)+COUNTIF($E$2:E3,E3)-1</f>
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>334800</v>
+      </c>
+      <c r="H3">
+        <v>312433.70999999897</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I52" si="2">H3-G3</f>
+        <v>-22366.290000001027</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J52" si="3">IFERROR((I3/G3), "0")</f>
+        <v>-6.6804928315415249E-2</v>
+      </c>
+      <c r="K3">
+        <f>RANK(J3,$J$2:$J$52,1)+COUNTIF($J$2:J3,J3)-1</f>
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>322700</v>
+      </c>
+      <c r="M3">
+        <v>322263.03999999998</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N52" si="4">M3-L3</f>
+        <v>-436.96000000002095</v>
+      </c>
+      <c r="O3" s="9">
+        <f t="shared" ref="O3:O52" si="5">IFERROR((N3/L3),"0")</f>
+        <v>-1.3540749922529313E-3</v>
+      </c>
+      <c r="P3">
+        <f>RANK(O3,$O$2:$O$52,1)+COUNTIF($O$2:O3,O3)-1</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>3130600</v>
+      </c>
+      <c r="C4">
+        <v>3115157.5599999898</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-15442.440000010189</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" si="1"/>
+        <v>-4.9327413275443007E-3</v>
+      </c>
+      <c r="F4">
+        <f>RANK(E4,$E$2:$E$52,1)+COUNTIF($E$2:E4,E4)-1</f>
+        <v>42</v>
+      </c>
+      <c r="G4">
+        <v>3652300</v>
+      </c>
+      <c r="H4">
+        <v>3589693.2099999902</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>-62606.790000009816</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.7141743558856015E-2</v>
+      </c>
+      <c r="K4">
+        <f>RANK(J4,$J$2:$J$52,1)+COUNTIF($J$2:J4,J4)-1</f>
+        <v>36</v>
+      </c>
+      <c r="L4">
+        <v>3662400</v>
+      </c>
+      <c r="M4">
+        <v>3564983.04999999</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>-97416.950000009965</v>
+      </c>
+      <c r="O4" s="9">
+        <f t="shared" si="5"/>
+        <v>-2.6599210899959033E-2</v>
+      </c>
+      <c r="P4">
+        <f>RANK(O4,$O$2:$O$52,1)+COUNTIF($O$2:O4,O4)-1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>7670700</v>
+      </c>
+      <c r="C5">
+        <v>6947552.6699999999</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-723147.33000000007</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="1"/>
+        <v>-9.4273968477453174E-2</v>
+      </c>
+      <c r="F5">
+        <f>RANK(E5,$E$2:$E$52,1)+COUNTIF($E$2:E5,E5)-1</f>
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>7968300</v>
+      </c>
+      <c r="H5">
+        <v>7020609.3200000003</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>-947690.6799999997</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.118932605449092</v>
+      </c>
+      <c r="K5">
+        <f>RANK(J5,$J$2:$J$52,1)+COUNTIF($J$2:J5,J5)-1</f>
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>7759600</v>
+      </c>
+      <c r="M5">
+        <v>7497322.9100000001</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>-262277.08999999985</v>
+      </c>
+      <c r="O5" s="9">
+        <f t="shared" si="5"/>
+        <v>-3.3800336357544182E-2</v>
+      </c>
+      <c r="P5">
+        <f>RANK(O5,$O$2:$O$52,1)+COUNTIF($O$2:O5,O5)-1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>409300</v>
+      </c>
+      <c r="C6">
+        <v>385908.52</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-23391.479999999981</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="1"/>
+        <v>-5.7149963352064452E-2</v>
+      </c>
+      <c r="F6">
+        <f>RANK(E6,$E$2:$E$52,1)+COUNTIF($E$2:E6,E6)-1</f>
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>428500</v>
+      </c>
+      <c r="H6">
+        <v>427758.64</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>-741.35999999998603</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.7301283547257551E-3</v>
+      </c>
+      <c r="K6">
+        <f>RANK(J6,$J$2:$J$52,1)+COUNTIF($J$2:J6,J6)-1</f>
+        <v>44</v>
+      </c>
+      <c r="L6">
+        <v>445200</v>
+      </c>
+      <c r="M6">
+        <v>445114.28999999899</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>-85.710000001010485</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.925202156356929E-4</v>
+      </c>
+      <c r="P6">
+        <f>RANK(O6,$O$2:$O$52,1)+COUNTIF($O$2:O6,O6)-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>3329000</v>
+      </c>
+      <c r="C7">
+        <v>2946071.21</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-382928.79000000004</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.11502817362571344</v>
+      </c>
+      <c r="F7">
+        <f>RANK(E7,$E$2:$E$52,1)+COUNTIF($E$2:E7,E7)-1</f>
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3390900</v>
+      </c>
+      <c r="H7">
+        <v>3051483.41</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>-339416.58999999985</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.10009631366303927</v>
+      </c>
+      <c r="K7">
+        <f>RANK(J7,$J$2:$J$52,1)+COUNTIF($J$2:J7,J7)-1</f>
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>3345200</v>
+      </c>
+      <c r="M7">
+        <v>2946440.08</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>-398759.91999999993</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.11920361114432618</v>
+      </c>
+      <c r="P7">
+        <f>RANK(O7,$O$2:$O$52,1)+COUNTIF($O$2:O7,O7)-1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>1552100</v>
+      </c>
+      <c r="C8">
+        <v>1315623.30999999</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-236476.69000000996</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.15235918433091292</v>
+      </c>
+      <c r="F8">
+        <f>RANK(E8,$E$2:$E$52,1)+COUNTIF($E$2:E8,E8)-1</f>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1590700</v>
+      </c>
+      <c r="H8">
+        <v>1383905.98999999</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>-206794.01000001002</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.13000189224870184</v>
+      </c>
+      <c r="K8">
+        <f>RANK(J8,$J$2:$J$52,1)+COUNTIF($J$2:J8,J8)-1</f>
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>1579300</v>
+      </c>
+      <c r="M8">
+        <v>1337735.3199999901</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>-241564.68000000995</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.15295680364719175</v>
+      </c>
+      <c r="P8">
+        <f>RANK(O8,$O$2:$O$52,1)+COUNTIF($O$2:O8,O8)-1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>9349400</v>
+      </c>
+      <c r="C9">
+        <v>8952825.2799999993</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-396574.72000000067</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="1"/>
+        <v>-4.2417130511048909E-2</v>
+      </c>
+      <c r="F9">
+        <f>RANK(E9,$E$2:$E$52,1)+COUNTIF($E$2:E9,E9)-1</f>
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>11073700</v>
+      </c>
+      <c r="H9">
+        <v>9929059.5199999996</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>-1144640.4800000004</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.10336567542917005</v>
+      </c>
+      <c r="K9">
+        <f>RANK(J9,$J$2:$J$52,1)+COUNTIF($J$2:J9,J9)-1</f>
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>10790500</v>
+      </c>
+      <c r="M9">
+        <v>9993599.52999999</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>-796900.47000000998</v>
+      </c>
+      <c r="O9" s="9">
+        <f t="shared" si="5"/>
+        <v>-7.3852043000788653E-2</v>
+      </c>
+      <c r="P9">
+        <f>RANK(O9,$O$2:$O$52,1)+COUNTIF($O$2:O9,O9)-1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>443300</v>
+      </c>
+      <c r="C10">
+        <v>407090.37</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="1"/>
+        <v>-8.1681998646514792E-2</v>
+      </c>
+      <c r="F10">
+        <f>RANK(E10,$E$2:$E$52,1)+COUNTIF($E$2:E10,E10)-1</f>
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>495200</v>
+      </c>
+      <c r="H10">
+        <v>467907.84000000003</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="3"/>
+        <v>-5.5113408723747932E-2</v>
+      </c>
+      <c r="K10">
+        <f>RANK(J10,$J$2:$J$52,1)+COUNTIF($J$2:J10,J10)-1</f>
+        <v>17</v>
+      </c>
+      <c r="L10">
+        <v>487500</v>
+      </c>
+      <c r="M10">
+        <v>478318.92</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>-9181.0800000000163</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.883298461538465E-2</v>
+      </c>
+      <c r="P10">
+        <f>RANK(O10,$O$2:$O$52,1)+COUNTIF($O$2:O10,O10)-1</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>RANK(E11,$E$2:$E$52,1)+COUNTIF($E$2:E11,E11)-1</f>
+        <v>47</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>RANK(J11,$J$2:$J$52,1)+COUNTIF($J$2:J11,J11)-1</f>
+        <v>48</v>
+      </c>
+      <c r="L11">
+        <v>375000</v>
+      </c>
+      <c r="M11">
+        <v>63771.91</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>-311228.08999999997</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.82994157333333329</v>
+      </c>
+      <c r="P11">
+        <f>RANK(O11,$O$2:$O$52,1)+COUNTIF($O$2:O11,O11)-1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>4280900</v>
+      </c>
+      <c r="C12">
+        <v>4066595.33</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-214304.66999999993</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="1"/>
+        <v>-5.0060657805601608E-2</v>
+      </c>
+      <c r="F12">
+        <f>RANK(E12,$E$2:$E$52,1)+COUNTIF($E$2:E12,E12)-1</f>
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>4700400</v>
+      </c>
+      <c r="H12">
+        <v>4205555.5999999996</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>-494844.40000000037</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.10527708280146378</v>
+      </c>
+      <c r="K12">
+        <f>RANK(J12,$J$2:$J$52,1)+COUNTIF($J$2:J12,J12)-1</f>
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <v>4677800</v>
+      </c>
+      <c r="M12">
+        <v>4371713.1399999997</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>-306086.86000000034</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" si="5"/>
+        <v>-6.5433934755654441E-2</v>
+      </c>
+      <c r="P12">
+        <f>RANK(O12,$O$2:$O$52,1)+COUNTIF($O$2:O12,O12)-1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>5847800</v>
+      </c>
+      <c r="C13">
+        <v>5772288.3300000001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-75511.669999999925</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.2912833886247806E-2</v>
+      </c>
+      <c r="F13">
+        <f>RANK(E13,$E$2:$E$52,1)+COUNTIF($E$2:E13,E13)-1</f>
+        <v>33</v>
+      </c>
+      <c r="G13">
+        <v>6223700</v>
+      </c>
+      <c r="H13">
+        <v>5909077.9399999902</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>-314622.06000000983</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="3"/>
+        <v>-5.0552253482656594E-2</v>
+      </c>
+      <c r="K13">
+        <f>RANK(J13,$J$2:$J$52,1)+COUNTIF($J$2:J13,J13)-1</f>
+        <v>18</v>
+      </c>
+      <c r="L13">
+        <v>6207300</v>
+      </c>
+      <c r="M13">
+        <v>6056976.6699999999</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>-150323.33000000007</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="5"/>
+        <v>-2.4217184605222895E-2</v>
+      </c>
+      <c r="P13">
+        <f>RANK(O13,$O$2:$O$52,1)+COUNTIF($O$2:O13,O13)-1</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>512000</v>
+      </c>
+      <c r="C14">
+        <v>505017.37</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-6982.6300000000047</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.3637949218750009E-2</v>
+      </c>
+      <c r="F14">
+        <f>RANK(E14,$E$2:$E$52,1)+COUNTIF($E$2:E14,E14)-1</f>
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>530500</v>
+      </c>
+      <c r="H14">
+        <v>524402.98</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>-6097.0200000000186</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.1492968897266765E-2</v>
+      </c>
+      <c r="K14">
+        <f>RANK(J14,$J$2:$J$52,1)+COUNTIF($J$2:J14,J14)-1</f>
+        <v>40</v>
+      </c>
+      <c r="L14">
+        <v>526200</v>
+      </c>
+      <c r="M14">
+        <v>504989.88</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>-21210.119999999995</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="5"/>
+        <v>-4.0308095781071827E-2</v>
+      </c>
+      <c r="P14">
+        <f>RANK(O14,$O$2:$O$52,1)+COUNTIF($O$2:O14,O14)-1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>156049100</v>
+      </c>
+      <c r="C15">
+        <v>156545919.90000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>496819.90000000596</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="1"/>
+        <v>3.1837408866824991E-3</v>
+      </c>
+      <c r="F15">
+        <f>RANK(E15,$E$2:$E$52,1)+COUNTIF($E$2:E15,E15)-1</f>
+        <v>48</v>
+      </c>
+      <c r="G15">
+        <v>184167800</v>
+      </c>
+      <c r="H15">
+        <v>175966389.24999899</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>-8201410.7500010133</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="3"/>
+        <v>-4.4532273014072019E-2</v>
+      </c>
+      <c r="K15">
+        <f>RANK(J15,$J$2:$J$52,1)+COUNTIF($J$2:J15,J15)-1</f>
+        <v>24</v>
+      </c>
+      <c r="L15">
+        <v>188953500</v>
+      </c>
+      <c r="M15">
+        <v>184450910.84999901</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>-4502589.1500009894</v>
+      </c>
+      <c r="O15" s="9">
+        <f t="shared" si="5"/>
+        <v>-2.3829085727446114E-2</v>
+      </c>
+      <c r="P15">
+        <f>RANK(O15,$O$2:$O$52,1)+COUNTIF($O$2:O15,O15)-1</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>6600700</v>
+      </c>
+      <c r="C16">
+        <v>6522480.4599999897</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-78219.540000010282</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.1850188616360429E-2</v>
+      </c>
+      <c r="F16">
+        <f>RANK(E16,$E$2:$E$52,1)+COUNTIF($E$2:E16,E16)-1</f>
+        <v>37</v>
+      </c>
+      <c r="G16">
+        <v>7352500</v>
+      </c>
+      <c r="H16">
+        <v>7350464.0800000001</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>-2035.9199999999255</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="3"/>
+        <v>-2.769017341040361E-4</v>
+      </c>
+      <c r="K16">
+        <f>RANK(J16,$J$2:$J$52,1)+COUNTIF($J$2:J16,J16)-1</f>
+        <v>46</v>
+      </c>
+      <c r="L16">
+        <v>7397200</v>
+      </c>
+      <c r="M16">
+        <v>7397093</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>-107</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.4464932677229222E-5</v>
+      </c>
+      <c r="P16">
+        <f>RANK(O16,$O$2:$O$52,1)+COUNTIF($O$2:O16,O16)-1</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="14.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>14860800</v>
+      </c>
+      <c r="C17">
+        <v>14439480.050000001</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-421319.94999999925</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="1"/>
+        <v>-2.8351094826658003E-2</v>
+      </c>
+      <c r="F17">
+        <f>RANK(E17,$E$2:$E$52,1)+COUNTIF($E$2:E17,E17)-1</f>
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <v>15309700</v>
+      </c>
+      <c r="H17">
+        <v>14645233.51</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>-664466.49000000022</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="3"/>
+        <v>-4.3401666263871937E-2</v>
+      </c>
+      <c r="K17">
+        <f>RANK(J17,$J$2:$J$52,1)+COUNTIF($J$2:J17,J17)-1</f>
+        <v>25</v>
+      </c>
+      <c r="L17">
+        <v>15311800</v>
+      </c>
+      <c r="M17">
+        <v>14346057.039999999</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>-965742.96000000089</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" si="5"/>
+        <v>-6.3071811282801551E-2</v>
+      </c>
+      <c r="P17">
+        <f>RANK(O17,$O$2:$O$52,1)+COUNTIF($O$2:O17,O17)-1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="14.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>2764700</v>
+      </c>
+      <c r="C18">
+        <v>2615303.8999999901</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="1"/>
+        <v>-5.4037002206391245E-2</v>
+      </c>
+      <c r="F18">
+        <f>RANK(E18,$E$2:$E$52,1)+COUNTIF($E$2:E18,E18)-1</f>
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>2861000</v>
+      </c>
+      <c r="H18">
+        <v>2671745.94</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="3"/>
+        <v>-6.6149619014330668E-2</v>
+      </c>
+      <c r="K18">
+        <f>RANK(J18,$J$2:$J$52,1)+COUNTIF($J$2:J18,J18)-1</f>
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <v>2910600</v>
+      </c>
+      <c r="M18">
+        <v>2535637.09</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>-374962.91000000015</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.12882667147667154</v>
+      </c>
+      <c r="P18">
+        <f>RANK(O18,$O$2:$O$52,1)+COUNTIF($O$2:O18,O18)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>8837300</v>
+      </c>
+      <c r="C19">
+        <v>8460963.1999999899</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-376336.80000001006</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="1"/>
+        <v>-4.258504294298146E-2</v>
+      </c>
+      <c r="F19">
+        <f>RANK(E19,$E$2:$E$52,1)+COUNTIF($E$2:E19,E19)-1</f>
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>9713300</v>
+      </c>
+      <c r="H19">
+        <v>8991707.2399999909</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>-721592.76000000909</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="3"/>
+        <v>-7.4289145810384635E-2</v>
+      </c>
+      <c r="K19">
+        <f>RANK(J19,$J$2:$J$52,1)+COUNTIF($J$2:J19,J19)-1</f>
+        <v>12</v>
+      </c>
+      <c r="L19">
+        <v>9343000</v>
+      </c>
+      <c r="M19">
+        <v>8766655.9100000001</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>-576344.08999999985</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" si="5"/>
+        <v>-6.1687262121374278E-2</v>
+      </c>
+      <c r="P19">
+        <f>RANK(O19,$O$2:$O$52,1)+COUNTIF($O$2:O19,O19)-1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="14.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>124385900</v>
+      </c>
+      <c r="C20">
+        <v>124384360.159999</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-1539.8400010019541</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.2379538203300809E-5</v>
+      </c>
+      <c r="F20">
+        <f>RANK(E20,$E$2:$E$52,1)+COUNTIF($E$2:E20,E20)-1</f>
+        <v>46</v>
+      </c>
+      <c r="G20">
+        <v>131849400</v>
+      </c>
+      <c r="H20">
+        <v>131839624.37</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>-9775.6299999952316</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="3"/>
+        <v>-7.4142392760188761E-5</v>
+      </c>
+      <c r="K20">
+        <f>RANK(J20,$J$2:$J$52,1)+COUNTIF($J$2:J20,J20)-1</f>
+        <v>47</v>
+      </c>
+      <c r="L20">
+        <v>130621400</v>
+      </c>
+      <c r="M20">
+        <v>130621283.53999899</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>-116.46000100672245</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" si="5"/>
+        <v>-8.9158438821450736E-7</v>
+      </c>
+      <c r="P20">
+        <f>RANK(O20,$O$2:$O$52,1)+COUNTIF($O$2:O20,O20)-1</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="14.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>24332100</v>
+      </c>
+      <c r="C21">
+        <v>22408587.5499999</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-1923512.4500000998</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="1"/>
+        <v>-7.9052463618023094E-2</v>
+      </c>
+      <c r="F21">
+        <f>RANK(E21,$E$2:$E$52,1)+COUNTIF($E$2:E21,E21)-1</f>
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>24497400</v>
+      </c>
+      <c r="H21">
+        <v>22655993.629999999</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>-1841406.370000001</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="3"/>
+        <v>-7.5167420624229556E-2</v>
+      </c>
+      <c r="K21">
+        <f>RANK(J21,$J$2:$J$52,1)+COUNTIF($J$2:J21,J21)-1</f>
+        <v>11</v>
+      </c>
+      <c r="L21">
+        <v>24323000</v>
+      </c>
+      <c r="M21">
+        <v>23434073.089999899</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>-888926.91000010073</v>
+      </c>
+      <c r="O21" s="9">
+        <f t="shared" si="5"/>
+        <v>-3.6546762734864152E-2</v>
+      </c>
+      <c r="P21">
+        <f>RANK(O21,$O$2:$O$52,1)+COUNTIF($O$2:O21,O21)-1</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="14.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>11566000</v>
+      </c>
+      <c r="C22">
+        <v>11412339.8799999</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-153660.12000009976</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.3285502334437123E-2</v>
+      </c>
+      <c r="F22">
+        <f>RANK(E22,$E$2:$E$52,1)+COUNTIF($E$2:E22,E22)-1</f>
+        <v>32</v>
+      </c>
+      <c r="G22">
+        <v>11980700</v>
+      </c>
+      <c r="H22">
+        <v>11791977.9699999</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>-188722.03000009991</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.5752170574348738E-2</v>
+      </c>
+      <c r="K22">
+        <f>RANK(J22,$J$2:$J$52,1)+COUNTIF($J$2:J22,J22)-1</f>
+        <v>38</v>
+      </c>
+      <c r="L22">
+        <v>11935200</v>
+      </c>
+      <c r="M22">
+        <v>11934454.77</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>-745.23000000044703</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" si="5"/>
+        <v>-6.2439674240938325E-5</v>
+      </c>
+      <c r="P22">
+        <f>RANK(O22,$O$2:$O$52,1)+COUNTIF($O$2:O22,O22)-1</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="14.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>20862700</v>
+      </c>
+      <c r="C23">
+        <v>20036743.4099999</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-825956.59000010043</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="1"/>
+        <v>-3.9590110100806722E-2</v>
+      </c>
+      <c r="F23">
+        <f>RANK(E23,$E$2:$E$52,1)+COUNTIF($E$2:E23,E23)-1</f>
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <v>22683800</v>
+      </c>
+      <c r="H23">
+        <v>21722126.219999898</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>-961673.78000010177</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="3"/>
+        <v>-4.2394738976719144E-2</v>
+      </c>
+      <c r="K23">
+        <f>RANK(J23,$J$2:$J$52,1)+COUNTIF($J$2:J23,J23)-1</f>
+        <v>26</v>
+      </c>
+      <c r="L23">
+        <v>23220300</v>
+      </c>
+      <c r="M23">
+        <v>22619057.440000001</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>-601242.55999999866</v>
+      </c>
+      <c r="O23" s="9">
+        <f t="shared" si="5"/>
+        <v>-2.5892971236375011E-2</v>
+      </c>
+      <c r="P23">
+        <f>RANK(O23,$O$2:$O$52,1)+COUNTIF($O$2:O23,O23)-1</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="14.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>917200</v>
+      </c>
+      <c r="C24">
+        <v>904969.19</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.3334943305713101E-2</v>
+      </c>
+      <c r="F24">
+        <f>RANK(E24,$E$2:$E$52,1)+COUNTIF($E$2:E24,E24)-1</f>
+        <v>31</v>
+      </c>
+      <c r="G24">
+        <v>1112700</v>
+      </c>
+      <c r="H24">
+        <v>1067214.42</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="3"/>
+        <v>-4.087856565111897E-2</v>
+      </c>
+      <c r="K24">
+        <f>RANK(J24,$J$2:$J$52,1)+COUNTIF($J$2:J24,J24)-1</f>
+        <v>28</v>
+      </c>
+      <c r="L24">
+        <v>1112600</v>
+      </c>
+      <c r="M24">
+        <v>1112527.1200000001</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>-72.879999999888241</v>
+      </c>
+      <c r="O24" s="9">
+        <f t="shared" si="5"/>
+        <v>-6.5504224339284781E-5</v>
+      </c>
+      <c r="P24">
+        <f>RANK(O24,$O$2:$O$52,1)+COUNTIF($O$2:O24,O24)-1</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="14.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>484100</v>
+      </c>
+      <c r="C25">
+        <v>479149.53</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.0226130964676661E-2</v>
+      </c>
+      <c r="F25">
+        <f>RANK(E25,$E$2:$E$52,1)+COUNTIF($E$2:E25,E25)-1</f>
+        <v>38</v>
+      </c>
+      <c r="G25">
+        <v>505200</v>
+      </c>
+      <c r="H25">
+        <v>497194.20999999897</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.5846773555029746E-2</v>
+      </c>
+      <c r="K25">
+        <f>RANK(J25,$J$2:$J$52,1)+COUNTIF($J$2:J25,J25)-1</f>
+        <v>37</v>
+      </c>
+      <c r="L25">
+        <v>496500</v>
+      </c>
+      <c r="M25">
+        <v>494775.1</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>-1724.9000000000233</v>
+      </c>
+      <c r="O25" s="9">
+        <f t="shared" si="5"/>
+        <v>-3.4741188318228064E-3</v>
+      </c>
+      <c r="P25">
+        <f>RANK(O25,$O$2:$O$52,1)+COUNTIF($O$2:O25,O25)-1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="14.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>5249800</v>
+      </c>
+      <c r="C26">
+        <v>4801960.08</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-447839.91999999993</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="1"/>
+        <v>-8.5306091660634673E-2</v>
+      </c>
+      <c r="F26">
+        <f>RANK(E26,$E$2:$E$52,1)+COUNTIF($E$2:E26,E26)-1</f>
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>5442200</v>
+      </c>
+      <c r="H26">
+        <v>5122329.02999999</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>-319870.97000000998</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="3"/>
+        <v>-5.8776040939327839E-2</v>
+      </c>
+      <c r="K26">
+        <f>RANK(J26,$J$2:$J$52,1)+COUNTIF($J$2:J26,J26)-1</f>
+        <v>16</v>
+      </c>
+      <c r="L26">
+        <v>5430700</v>
+      </c>
+      <c r="M26">
+        <v>5117235.21</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="4"/>
+        <v>-313464.79000000004</v>
+      </c>
+      <c r="O26" s="9">
+        <f t="shared" si="5"/>
+        <v>-5.7720881286022069E-2</v>
+      </c>
+      <c r="P26">
+        <f>RANK(O26,$O$2:$O$52,1)+COUNTIF($O$2:O26,O26)-1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="14.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>RANK(E27,$E$2:$E$52,1)+COUNTIF($E$2:E27,E27)-1</f>
+        <v>48</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f>RANK(J27,$J$2:$J$52,1)+COUNTIF($J$2:J27,J27)-1</f>
+        <v>49</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f>RANK(O27,$O$2:$O$52,1)+COUNTIF($O$2:O27,O27)-1</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="14.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28">
+        <v>1382900</v>
+      </c>
+      <c r="C28">
+        <v>1250442.02</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>-132457.97999999998</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="1"/>
+        <v>-9.5782760864849215E-2</v>
+      </c>
+      <c r="F28">
+        <f>RANK(E28,$E$2:$E$52,1)+COUNTIF($E$2:E28,E28)-1</f>
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>1545700</v>
+      </c>
+      <c r="H28">
+        <v>1281335.23</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>-264364.77</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.17103239309050916</v>
+      </c>
+      <c r="K28">
+        <f>RANK(J28,$J$2:$J$52,1)+COUNTIF($J$2:J28,J28)-1</f>
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>1525900</v>
+      </c>
+      <c r="M28">
+        <v>1393285.06</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>-132614.93999999994</v>
+      </c>
+      <c r="O28" s="9">
+        <f t="shared" si="5"/>
+        <v>-8.6909325643882263E-2</v>
+      </c>
+      <c r="P28">
+        <f>RANK(O28,$O$2:$O$52,1)+COUNTIF($O$2:O28,O28)-1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="14.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>2561800</v>
+      </c>
+      <c r="C29">
+        <v>2523884.71</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>-37915.290000000037</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.4800253727847622E-2</v>
+      </c>
+      <c r="F29">
+        <f>RANK(E29,$E$2:$E$52,1)+COUNTIF($E$2:E29,E29)-1</f>
+        <v>28</v>
+      </c>
+      <c r="G29">
+        <v>2779500</v>
+      </c>
+      <c r="H29">
+        <v>2665264.4399999902</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>-114235.56000000983</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="3"/>
+        <v>-4.1099320021590155E-2</v>
+      </c>
+      <c r="K29">
+        <f>RANK(J29,$J$2:$J$52,1)+COUNTIF($J$2:J29,J29)-1</f>
+        <v>27</v>
+      </c>
+      <c r="L29">
+        <v>2889900</v>
+      </c>
+      <c r="M29">
+        <v>2889864.67</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>-35.330000000074506</v>
+      </c>
+      <c r="O29" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.2225336516860273E-5</v>
+      </c>
+      <c r="P29">
+        <f>RANK(O29,$O$2:$O$52,1)+COUNTIF($O$2:O29,O29)-1</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="14.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>12132200</v>
+      </c>
+      <c r="C30">
+        <v>12030494.1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>-101705.90000000037</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="1"/>
+        <v>-8.3831374359143746E-3</v>
+      </c>
+      <c r="F30">
+        <f>RANK(E30,$E$2:$E$52,1)+COUNTIF($E$2:E30,E30)-1</f>
+        <v>40</v>
+      </c>
+      <c r="G30">
+        <v>12735900</v>
+      </c>
+      <c r="H30">
+        <v>12685514.279999901</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>-50385.720000099391</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="3"/>
+        <v>-3.9561962641116366E-3</v>
+      </c>
+      <c r="K30">
+        <f>RANK(J30,$J$2:$J$52,1)+COUNTIF($J$2:J30,J30)-1</f>
+        <v>42</v>
+      </c>
+      <c r="L30">
+        <v>12861300</v>
+      </c>
+      <c r="M30">
+        <v>12826009.609999999</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="4"/>
+        <v>-35290.390000000596</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" si="5"/>
+        <v>-2.7439209100169185E-3</v>
+      </c>
+      <c r="P30">
+        <f>RANK(O30,$O$2:$O$52,1)+COUNTIF($O$2:O30,O30)-1</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="14.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>1765600</v>
+      </c>
+      <c r="C31">
+        <v>1740827.69</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>-24772.310000000056</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.4030533529678329E-2</v>
+      </c>
+      <c r="F31">
+        <f>RANK(E31,$E$2:$E$52,1)+COUNTIF($E$2:E31,E31)-1</f>
+        <v>29</v>
+      </c>
+      <c r="G31">
+        <v>1823300</v>
+      </c>
+      <c r="H31">
+        <v>1762676.85</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>-60623.149999999907</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="3"/>
+        <v>-3.3249136181648611E-2</v>
+      </c>
+      <c r="K31">
+        <f>RANK(J31,$J$2:$J$52,1)+COUNTIF($J$2:J31,J31)-1</f>
+        <v>32</v>
+      </c>
+      <c r="L31">
+        <v>1870700</v>
+      </c>
+      <c r="M31">
+        <v>1801391.34</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="4"/>
+        <v>-69308.659999999916</v>
+      </c>
+      <c r="O31" s="9">
+        <f t="shared" si="5"/>
+        <v>-3.7049585716576634E-2</v>
+      </c>
+      <c r="P31">
+        <f>RANK(O31,$O$2:$O$52,1)+COUNTIF($O$2:O31,O31)-1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="14.25">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32">
+        <v>5999400</v>
+      </c>
+      <c r="C32">
+        <v>5925637.7199999904</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>-73762.280000009574</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.2294942827617691E-2</v>
+      </c>
+      <c r="F32">
+        <f>RANK(E32,$E$2:$E$52,1)+COUNTIF($E$2:E32,E32)-1</f>
+        <v>36</v>
+      </c>
+      <c r="G32">
+        <v>6195500</v>
+      </c>
+      <c r="H32">
+        <v>6084985.4699999997</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>-110514.53000000026</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.7837871035428981E-2</v>
+      </c>
+      <c r="K32">
+        <f>RANK(J32,$J$2:$J$52,1)+COUNTIF($J$2:J32,J32)-1</f>
+        <v>35</v>
+      </c>
+      <c r="L32">
+        <v>6157400</v>
+      </c>
+      <c r="M32">
+        <v>5987572.0199999996</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="4"/>
+        <v>-169827.98000000045</v>
+      </c>
+      <c r="O32" s="9">
+        <f t="shared" si="5"/>
+        <v>-2.7581118653977402E-2</v>
+      </c>
+      <c r="P32">
+        <f>RANK(O32,$O$2:$O$52,1)+COUNTIF($O$2:O32,O32)-1</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="14.25">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>927703099.99999905</v>
+      </c>
+      <c r="C33">
+        <v>920284264.73000002</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>-7418835.2699990273</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="1"/>
+        <v>-7.9969930789269058E-3</v>
+      </c>
+      <c r="F33">
+        <f>RANK(E33,$E$2:$E$52,1)+COUNTIF($E$2:E33,E33)-1</f>
+        <v>41</v>
+      </c>
+      <c r="G33">
+        <v>979671000</v>
+      </c>
+      <c r="H33">
+        <v>977068513.48000002</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>-2602486.5199999809</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="3"/>
+        <v>-2.6564903115433454E-3</v>
+      </c>
+      <c r="K33">
+        <f>RANK(J33,$J$2:$J$52,1)+COUNTIF($J$2:J33,J33)-1</f>
+        <v>43</v>
+      </c>
+      <c r="L33">
+        <v>989572899.99999905</v>
+      </c>
+      <c r="M33">
+        <v>984116289.40999901</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="4"/>
+        <v>-5456610.5900000334</v>
+      </c>
+      <c r="O33" s="9">
+        <f t="shared" si="5"/>
+        <v>-5.5141067323084929E-3</v>
+      </c>
+      <c r="P33">
+        <f>RANK(O33,$O$2:$O$52,1)+COUNTIF($O$2:O33,O33)-1</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="14.25">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>4189300</v>
+      </c>
+      <c r="C34">
+        <v>4109958.22</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>-79341.779999999795</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.8939149738619768E-2</v>
+      </c>
+      <c r="F34">
+        <f>RANK(E34,$E$2:$E$52,1)+COUNTIF($E$2:E34,E34)-1</f>
+        <v>26</v>
+      </c>
+      <c r="G34">
+        <v>4350600</v>
+      </c>
+      <c r="H34">
+        <v>4137588.7699999898</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>-213011.23000001023</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" si="3"/>
+        <v>-4.8961345561534093E-2</v>
+      </c>
+      <c r="K34">
+        <f>RANK(J34,$J$2:$J$52,1)+COUNTIF($J$2:J34,J34)-1</f>
+        <v>21</v>
+      </c>
+      <c r="L34">
+        <v>4345600</v>
+      </c>
+      <c r="M34">
+        <v>4229801.51</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="4"/>
+        <v>-115798.49000000022</v>
+      </c>
+      <c r="O34" s="9">
+        <f t="shared" si="5"/>
+        <v>-2.6647296115611244E-2</v>
+      </c>
+      <c r="P34">
+        <f>RANK(O34,$O$2:$O$52,1)+COUNTIF($O$2:O34,O34)-1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="14.25">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>RANK(E35,$E$2:$E$52,1)+COUNTIF($E$2:E35,E35)-1</f>
+        <v>49</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f>RANK(J35,$J$2:$J$52,1)+COUNTIF($J$2:J35,J35)-1</f>
+        <v>50</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f>RANK(O35,$O$2:$O$52,1)+COUNTIF($O$2:O35,O35)-1</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="14.25">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>798200</v>
+      </c>
+      <c r="C36">
+        <v>735423.27999999898</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>-62776.72000000102</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" si="1"/>
+        <v>-7.8647857679780775E-2</v>
+      </c>
+      <c r="F36">
+        <f>RANK(E36,$E$2:$E$52,1)+COUNTIF($E$2:E36,E36)-1</f>
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>898700</v>
+      </c>
+      <c r="H36">
+        <v>740966.94999999902</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>-157733.05000000098</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.17551246244575608</v>
+      </c>
+      <c r="K36">
+        <f>RANK(J36,$J$2:$J$52,1)+COUNTIF($J$2:J36,J36)-1</f>
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>878300</v>
+      </c>
+      <c r="M36">
+        <v>777215.28999999899</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="4"/>
+        <v>-101084.71000000101</v>
+      </c>
+      <c r="O36" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.11509132414892521</v>
+      </c>
+      <c r="P36">
+        <f>RANK(O36,$O$2:$O$52,1)+COUNTIF($O$2:O36,O36)-1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="14.25">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37">
+        <v>2087800</v>
+      </c>
+      <c r="C37">
+        <v>2005447.73999999</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>-82352.260000010021</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" si="1"/>
+        <v>-3.9444515758219188E-2</v>
+      </c>
+      <c r="F37">
+        <f>RANK(E37,$E$2:$E$52,1)+COUNTIF($E$2:E37,E37)-1</f>
+        <v>19</v>
+      </c>
+      <c r="G37">
+        <v>2229200</v>
+      </c>
+      <c r="H37">
+        <v>2118943.21</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>-110256.79000000004</v>
+      </c>
+      <c r="J37" s="9">
+        <f t="shared" si="3"/>
+        <v>-4.9460250314014013E-2</v>
+      </c>
+      <c r="K37">
+        <f>RANK(J37,$J$2:$J$52,1)+COUNTIF($J$2:J37,J37)-1</f>
+        <v>20</v>
+      </c>
+      <c r="L37">
+        <v>2296900</v>
+      </c>
+      <c r="M37">
+        <v>2108718.34</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="4"/>
+        <v>-188181.66000000015</v>
+      </c>
+      <c r="O37" s="9">
+        <f t="shared" si="5"/>
+        <v>-8.1928538464887526E-2</v>
+      </c>
+      <c r="P37">
+        <f>RANK(O37,$O$2:$O$52,1)+COUNTIF($O$2:O37,O37)-1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="14.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38">
+        <v>855300</v>
+      </c>
+      <c r="C38">
+        <v>838669.82</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>-16630.180000000051</v>
+      </c>
+      <c r="E38" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.9443680579913542E-2</v>
+      </c>
+      <c r="F38">
+        <f>RANK(E38,$E$2:$E$52,1)+COUNTIF($E$2:E38,E38)-1</f>
+        <v>25</v>
+      </c>
+      <c r="G38">
+        <v>792800</v>
+      </c>
+      <c r="H38">
+        <v>753451.96</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>-39348.040000000037</v>
+      </c>
+      <c r="J38" s="9">
+        <f t="shared" si="3"/>
+        <v>-4.9631735620585316E-2</v>
+      </c>
+      <c r="K38">
+        <f>RANK(J38,$J$2:$J$52,1)+COUNTIF($J$2:J38,J38)-1</f>
+        <v>19</v>
+      </c>
+      <c r="L38">
+        <v>777800</v>
+      </c>
+      <c r="M38">
+        <v>777663.26</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="4"/>
+        <v>-136.73999999999069</v>
+      </c>
+      <c r="O38" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.7580354847003174E-4</v>
+      </c>
+      <c r="P38">
+        <f>RANK(O38,$O$2:$O$52,1)+COUNTIF($O$2:O38,O38)-1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="14.25">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39">
+        <v>883900</v>
+      </c>
+      <c r="C39">
+        <v>813108.87</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>-70791.13</v>
+      </c>
+      <c r="E39" s="9">
+        <f t="shared" si="1"/>
+        <v>-8.008952370177623E-2</v>
+      </c>
+      <c r="F39">
+        <f>RANK(E39,$E$2:$E$52,1)+COUNTIF($E$2:E39,E39)-1</f>
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>1294400</v>
+      </c>
+      <c r="H39">
+        <v>1114242.27999999</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>-180157.72000000998</v>
+      </c>
+      <c r="J39" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.13918241656366656</v>
+      </c>
+      <c r="K39">
+        <f>RANK(J39,$J$2:$J$52,1)+COUNTIF($J$2:J39,J39)-1</f>
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>1759500</v>
+      </c>
+      <c r="M39">
+        <v>1680463.8699999901</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="4"/>
+        <v>-79036.1300000099</v>
+      </c>
+      <c r="O39" s="9">
+        <f t="shared" si="5"/>
+        <v>-4.4919653310605226E-2</v>
+      </c>
+      <c r="P39">
+        <f>RANK(O39,$O$2:$O$52,1)+COUNTIF($O$2:O39,O39)-1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="14.25">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <v>38381900</v>
+      </c>
+      <c r="C40">
+        <v>37565141.859999903</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>-816758.14000009745</v>
+      </c>
+      <c r="E40" s="9">
+        <f t="shared" si="1"/>
+        <v>-2.1279773539092578E-2</v>
+      </c>
+      <c r="F40">
+        <f>RANK(E40,$E$2:$E$52,1)+COUNTIF($E$2:E40,E40)-1</f>
+        <v>23</v>
+      </c>
+      <c r="G40">
+        <v>39964900</v>
+      </c>
+      <c r="H40">
+        <v>38095240.189999901</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>-1869659.8100000992</v>
+      </c>
+      <c r="J40" s="9">
+        <f t="shared" si="3"/>
+        <v>-4.6782546934937892E-2</v>
+      </c>
+      <c r="K40">
+        <f>RANK(J40,$J$2:$J$52,1)+COUNTIF($J$2:J40,J40)-1</f>
+        <v>22</v>
+      </c>
+      <c r="L40">
+        <v>40216700</v>
+      </c>
+      <c r="M40">
+        <v>39606263.709999897</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="4"/>
+        <v>-610436.29000010341</v>
+      </c>
+      <c r="O40" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.5178676768608648E-2</v>
+      </c>
+      <c r="P40">
+        <f>RANK(O40,$O$2:$O$52,1)+COUNTIF($O$2:O40,O40)-1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="14.25">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>4593300</v>
+      </c>
+      <c r="C41">
+        <v>4409060.2099999897</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="E41" s="9">
+        <f t="shared" si="1"/>
+        <v>-4.0110550149132493E-2</v>
+      </c>
+      <c r="F41">
+        <f>RANK(E41,$E$2:$E$52,1)+COUNTIF($E$2:E41,E41)-1</f>
+        <v>17</v>
+      </c>
+      <c r="G41">
+        <v>5089500</v>
+      </c>
+      <c r="H41">
+        <v>4956043.6699999897</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="J41" s="9">
+        <f t="shared" si="3"/>
+        <v>-2.6221894095689226E-2</v>
+      </c>
+      <c r="K41">
+        <f>RANK(J41,$J$2:$J$52,1)+COUNTIF($J$2:J41,J41)-1</f>
+        <v>34</v>
+      </c>
+      <c r="L41">
+        <v>4799900</v>
+      </c>
+      <c r="M41">
+        <v>4717822.6500000004</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="4"/>
+        <v>-82077.349999999627</v>
+      </c>
+      <c r="O41" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.7099804162586642E-2</v>
+      </c>
+      <c r="P41">
+        <f>RANK(O41,$O$2:$O$52,1)+COUNTIF($O$2:O41,O41)-1</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="14.25">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42">
+        <v>188593300</v>
+      </c>
+      <c r="C42">
+        <v>188551675.67999899</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>-41624.320001006126</v>
+      </c>
+      <c r="E42" s="9">
+        <f t="shared" si="1"/>
+        <v>-2.2070943135841053E-4</v>
+      </c>
+      <c r="F42">
+        <f>RANK(E42,$E$2:$E$52,1)+COUNTIF($E$2:E42,E42)-1</f>
+        <v>44</v>
+      </c>
+      <c r="G42">
+        <v>199130300</v>
+      </c>
+      <c r="H42">
+        <v>196755033.31</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>-2375266.6899999976</v>
+      </c>
+      <c r="J42" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.1928203241796942E-2</v>
+      </c>
+      <c r="K42">
+        <f>RANK(J42,$J$2:$J$52,1)+COUNTIF($J$2:J42,J42)-1</f>
+        <v>39</v>
+      </c>
+      <c r="L42">
+        <v>199954600</v>
+      </c>
+      <c r="M42">
+        <v>199954563.74999899</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="4"/>
+        <v>-36.250001013278961</v>
+      </c>
+      <c r="O42" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.8129115815929696E-7</v>
+      </c>
+      <c r="P42">
+        <f>RANK(O42,$O$2:$O$52,1)+COUNTIF($O$2:O42,O42)-1</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="14.25">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43">
+        <v>8135400</v>
+      </c>
+      <c r="C43">
+        <v>7968645.8300000001</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>-166754.16999999993</v>
+      </c>
+      <c r="E43" s="9">
+        <f t="shared" si="1"/>
+        <v>-2.0497353541313264E-2</v>
+      </c>
+      <c r="F43">
+        <f>RANK(E43,$E$2:$E$52,1)+COUNTIF($E$2:E43,E43)-1</f>
+        <v>24</v>
+      </c>
+      <c r="G43">
+        <v>8560800</v>
+      </c>
+      <c r="H43">
+        <v>8171472.0199999996</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>-389327.98000000045</v>
+      </c>
+      <c r="J43" s="9">
+        <f t="shared" si="3"/>
+        <v>-4.5477990374731388E-2</v>
+      </c>
+      <c r="K43">
+        <f>RANK(J43,$J$2:$J$52,1)+COUNTIF($J$2:J43,J43)-1</f>
+        <v>23</v>
+      </c>
+      <c r="L43">
+        <v>8497500</v>
+      </c>
+      <c r="M43">
+        <v>8150982.5699999901</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="4"/>
+        <v>-346517.43000000995</v>
+      </c>
+      <c r="O43" s="9">
+        <f t="shared" si="5"/>
+        <v>-4.0778750220654303E-2</v>
+      </c>
+      <c r="P43">
+        <f>RANK(O43,$O$2:$O$52,1)+COUNTIF($O$2:O43,O43)-1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="14.25">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44">
+        <v>30083200</v>
+      </c>
+      <c r="C44">
+        <v>29789104.379999999</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>-294095.62000000104</v>
+      </c>
+      <c r="E44" s="9">
+        <f t="shared" si="1"/>
+        <v>-9.7760750186150751E-3</v>
+      </c>
+      <c r="F44">
+        <f>RANK(E44,$E$2:$E$52,1)+COUNTIF($E$2:E44,E44)-1</f>
+        <v>39</v>
+      </c>
+      <c r="G44">
+        <v>31040700</v>
+      </c>
+      <c r="H44">
+        <v>30793711.48</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>-246988.51999999955</v>
+      </c>
+      <c r="J44" s="9">
+        <f t="shared" si="3"/>
+        <v>-7.9569249404813532E-3</v>
+      </c>
+      <c r="K44">
+        <f>RANK(J44,$J$2:$J$52,1)+COUNTIF($J$2:J44,J44)-1</f>
+        <v>41</v>
+      </c>
+      <c r="L44">
+        <v>31282200</v>
+      </c>
+      <c r="M44">
+        <v>31282141.25</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="4"/>
+        <v>-58.75</v>
+      </c>
+      <c r="O44" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.8780648419868168E-6</v>
+      </c>
+      <c r="P44">
+        <f>RANK(O44,$O$2:$O$52,1)+COUNTIF($O$2:O44,O44)-1</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="14.25">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45">
+        <v>55301600</v>
+      </c>
+      <c r="C45">
+        <v>54589584.0499999</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>-712015.95000009984</v>
+      </c>
+      <c r="E45" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.287514194887851E-2</v>
+      </c>
+      <c r="F45">
+        <f>RANK(E45,$E$2:$E$52,1)+COUNTIF($E$2:E45,E45)-1</f>
+        <v>34</v>
+      </c>
+      <c r="G45">
+        <v>56792200</v>
+      </c>
+      <c r="H45">
+        <v>54594953.959999897</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>-2197246.0400001034</v>
+      </c>
+      <c r="J45" s="9">
+        <f t="shared" si="3"/>
+        <v>-3.8689222111488959E-2</v>
+      </c>
+      <c r="K45">
+        <f>RANK(J45,$J$2:$J$52,1)+COUNTIF($J$2:J45,J45)-1</f>
+        <v>30</v>
+      </c>
+      <c r="L45">
+        <v>56027100</v>
+      </c>
+      <c r="M45">
+        <v>55386549.6599999</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="4"/>
+        <v>-640550.34000010043</v>
+      </c>
+      <c r="O45" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.1432866237947358E-2</v>
+      </c>
+      <c r="P45">
+        <f>RANK(O45,$O$2:$O$52,1)+COUNTIF($O$2:O45,O45)-1</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="14.25">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46">
+        <v>259100</v>
+      </c>
+      <c r="C46">
+        <v>258322.43</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>-777.57000000000698</v>
+      </c>
+      <c r="E46" s="9">
+        <f t="shared" si="1"/>
+        <v>-3.0010420686993711E-3</v>
+      </c>
+      <c r="F46">
+        <f>RANK(E46,$E$2:$E$52,1)+COUNTIF($E$2:E46,E46)-1</f>
+        <v>43</v>
+      </c>
+      <c r="G46">
+        <v>266000</v>
+      </c>
+      <c r="H46">
+        <v>257402.90999999901</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>-8597.090000000986</v>
+      </c>
+      <c r="J46" s="9">
+        <f t="shared" si="3"/>
+        <v>-3.2319887218048821E-2</v>
+      </c>
+      <c r="K46">
+        <f>RANK(J46,$J$2:$J$52,1)+COUNTIF($J$2:J46,J46)-1</f>
+        <v>33</v>
+      </c>
+      <c r="L46">
+        <v>267100</v>
+      </c>
+      <c r="M46">
+        <v>254753.15999999901</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="4"/>
+        <v>-12346.840000000986</v>
+      </c>
+      <c r="O46" s="9">
+        <f t="shared" si="5"/>
+        <v>-4.6225533508053113E-2</v>
+      </c>
+      <c r="P46">
+        <f>RANK(O46,$O$2:$O$52,1)+COUNTIF($O$2:O46,O46)-1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="14.25">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47">
+        <v>70390700</v>
+      </c>
+      <c r="C47">
+        <v>70378426.719999999</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>-12273.280000001192</v>
+      </c>
+      <c r="E47" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.7435939690898361E-4</v>
+      </c>
+      <c r="F47">
+        <f>RANK(E47,$E$2:$E$52,1)+COUNTIF($E$2:E47,E47)-1</f>
+        <v>45</v>
+      </c>
+      <c r="G47">
+        <v>73467000</v>
+      </c>
+      <c r="H47">
+        <v>73442541.659999996</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>-24458.340000003576</v>
+      </c>
+      <c r="J47" s="9">
+        <f t="shared" si="3"/>
+        <v>-3.3291600310348285E-4</v>
+      </c>
+      <c r="K47">
+        <f>RANK(J47,$J$2:$J$52,1)+COUNTIF($J$2:J47,J47)-1</f>
+        <v>45</v>
+      </c>
+      <c r="L47">
+        <v>75072800</v>
+      </c>
+      <c r="M47">
+        <v>75050829.179999903</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="4"/>
+        <v>-21970.820000097156</v>
+      </c>
+      <c r="O47" s="9">
+        <f t="shared" si="5"/>
+        <v>-2.9266019117572752E-4</v>
+      </c>
+      <c r="P47">
+        <f>RANK(O47,$O$2:$O$52,1)+COUNTIF($O$2:O47,O47)-1</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="14.25">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48">
+        <v>6737100</v>
+      </c>
+      <c r="C48">
+        <v>6527352.5699999901</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>-209747.43000000995</v>
+      </c>
+      <c r="E48" s="9">
+        <f t="shared" si="1"/>
+        <v>-3.1133192323107857E-2</v>
+      </c>
+      <c r="F48">
+        <f>RANK(E48,$E$2:$E$52,1)+COUNTIF($E$2:E48,E48)-1</f>
+        <v>20</v>
+      </c>
+      <c r="G48">
+        <v>7214700</v>
+      </c>
+      <c r="H48">
+        <v>6922072.5599999996</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>-292627.44000000041</v>
+      </c>
+      <c r="J48" s="9">
+        <f t="shared" si="3"/>
+        <v>-4.0559890224125802E-2</v>
+      </c>
+      <c r="K48">
+        <f>RANK(J48,$J$2:$J$52,1)+COUNTIF($J$2:J48,J48)-1</f>
+        <v>29</v>
+      </c>
+      <c r="L48">
+        <v>7289800</v>
+      </c>
+      <c r="M48">
+        <v>6882350.23999999</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="4"/>
+        <v>-407449.76000001002</v>
+      </c>
+      <c r="O48" s="9">
+        <f t="shared" si="5"/>
+        <v>-5.5893132870587676E-2</v>
+      </c>
+      <c r="P48">
+        <f>RANK(O48,$O$2:$O$52,1)+COUNTIF($O$2:O48,O48)-1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="14.25">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49">
+        <v>92200</v>
+      </c>
+      <c r="C49">
+        <v>90499.43</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>-1700.570000000007</v>
+      </c>
+      <c r="E49" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.8444360086767971E-2</v>
+      </c>
+      <c r="F49">
+        <f>RANK(E49,$E$2:$E$52,1)+COUNTIF($E$2:E49,E49)-1</f>
+        <v>27</v>
+      </c>
+      <c r="G49">
+        <v>102600</v>
+      </c>
+      <c r="H49">
+        <v>95466.880000000005</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>-7133.1199999999953</v>
+      </c>
+      <c r="J49" s="9">
+        <f t="shared" si="3"/>
+        <v>-6.9523586744639335E-2</v>
+      </c>
+      <c r="K49">
+        <f>RANK(J49,$J$2:$J$52,1)+COUNTIF($J$2:J49,J49)-1</f>
+        <v>13</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f>RANK(O49,$O$2:$O$52,1)+COUNTIF($O$2:O49,O49)-1</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="14.25">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50">
+        <v>832600</v>
+      </c>
+      <c r="C50">
+        <v>832600</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>RANK(E50,$E$2:$E$52,1)+COUNTIF($E$2:E50,E50)-1</f>
+        <v>50</v>
+      </c>
+      <c r="G50">
+        <v>859100</v>
+      </c>
+      <c r="H50">
+        <v>859100</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f>RANK(J50,$J$2:$J$52,1)+COUNTIF($J$2:J50,J50)-1</f>
+        <v>51</v>
+      </c>
+      <c r="L50">
+        <v>843200</v>
+      </c>
+      <c r="M50">
+        <v>843200</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f>RANK(O50,$O$2:$O$52,1)+COUNTIF($O$2:O50,O50)-1</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="14.25">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51">
+        <v>8609500</v>
+      </c>
+      <c r="C51">
+        <v>8499425.3399999905</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>-110074.66000000946</v>
+      </c>
+      <c r="E51" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.2785255822058129E-2</v>
+      </c>
+      <c r="F51">
+        <f>RANK(E51,$E$2:$E$52,1)+COUNTIF($E$2:E51,E51)-1</f>
+        <v>35</v>
+      </c>
+      <c r="G51">
+        <v>8925500</v>
+      </c>
+      <c r="H51">
+        <v>8599059.6199999992</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>-326440.38000000082</v>
+      </c>
+      <c r="J51" s="9">
+        <f t="shared" si="3"/>
+        <v>-3.6573903982970231E-2</v>
+      </c>
+      <c r="K51">
+        <f>RANK(J51,$J$2:$J$52,1)+COUNTIF($J$2:J51,J51)-1</f>
+        <v>31</v>
+      </c>
+      <c r="L51">
+        <v>8833900</v>
+      </c>
+      <c r="M51">
+        <v>8735843.3100000005</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="4"/>
+        <v>-98056.689999999478</v>
+      </c>
+      <c r="O51" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.1100045280114048E-2</v>
+      </c>
+      <c r="P51">
+        <f>RANK(O51,$O$2:$O$52,1)+COUNTIF($O$2:O51,O51)-1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="14.25">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52">
+        <v>2451000</v>
+      </c>
+      <c r="C52">
+        <v>2254684.7999999998</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>-196315.20000000019</v>
+      </c>
+      <c r="E52" s="9">
+        <f t="shared" si="1"/>
+        <v>-8.009596083231342E-2</v>
+      </c>
+      <c r="F52">
+        <f>RANK(E52,$E$2:$E$52,1)+COUNTIF($E$2:E52,E52)-1</f>
+        <v>7</v>
+      </c>
+      <c r="G52">
+        <v>2440700</v>
+      </c>
+      <c r="H52">
+        <v>2204672.88</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>-236027.12000000011</v>
+      </c>
+      <c r="J52" s="9">
+        <f t="shared" si="3"/>
+        <v>-9.6704683082722218E-2</v>
+      </c>
+      <c r="K52">
+        <f>RANK(J52,$J$2:$J$52,1)+COUNTIF($J$2:J52,J52)-1</f>
+        <v>9</v>
+      </c>
+      <c r="L52">
+        <v>2321600</v>
+      </c>
+      <c r="M52">
+        <v>2056835.26</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="4"/>
+        <v>-264764.74</v>
+      </c>
+      <c r="O52" s="9">
+        <f t="shared" si="5"/>
+        <v>-0.11404408166781529</v>
+      </c>
+      <c r="P52">
+        <f>RANK(O52,$O$2:$O$52,1)+COUNTIF($O$2:O52,O52)-1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="14.25">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="14.25">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="10">
+        <f>VLOOKUP($A56,$A$1:$P$52,MATCH(B$55,$A$1:$P$1,0),FALSE)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C56" s="10">
+        <f>VLOOKUP($A56,$A$1:$P$52,MATCH(C$55,$A$1:$P$1,0),FALSE)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D56" s="10">
+        <f>VLOOKUP($A56,$A$1:$P$52,MATCH(D$55,$A$1:$P$1,0),FALSE)</f>
+        <v>-9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="14.25">
+      <c r="A57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="10">
+        <f t="shared" ref="B57:D61" si="6">VLOOKUP($A57,$A$1:$P$52,MATCH(B$55,$A$1:$P$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D57" s="10">
+        <f t="shared" si="6"/>
+        <v>-311228.08999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="14.25">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="10">
+        <f t="shared" si="6"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C58" s="10">
+        <f t="shared" si="6"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D58" s="10">
+        <f t="shared" si="6"/>
+        <v>-374962.91000000015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="14.25">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="10">
+        <f t="shared" si="6"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C59" s="10">
+        <f t="shared" si="6"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D59" s="10">
+        <f t="shared" si="6"/>
+        <v>-72.879999999888241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="14.25">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="10">
+        <f t="shared" si="6"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C60" s="10">
+        <f t="shared" si="6"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D60" s="10">
+        <f t="shared" si="6"/>
+        <v>-1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="14.25">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="10">
+        <f t="shared" si="6"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C61" s="10">
+        <f t="shared" si="6"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D61" s="10">
+        <f t="shared" si="6"/>
+        <v>-82077.349999999627</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="14.25">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="10" cm="1">
+        <f t="array" ref="B65">_xlfn.XLOOKUP($A65,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(B$64,$A$1:$P$1,0)))</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C65" s="10" cm="1">
+        <f t="array" ref="C65">_xlfn.XLOOKUP($A65,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(C$64,$A$1:$P$1,0)))</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D65" s="10" cm="1">
+        <f t="array" ref="D65">_xlfn.XLOOKUP($A65,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(D$64,$A$1:$P$1,0)))</f>
+        <v>-9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="10" cm="1">
+        <f t="array" ref="B66">_xlfn.XLOOKUP($A66,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(B$64,$A$1:$P$1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="10" cm="1">
+        <f t="array" ref="C66">_xlfn.XLOOKUP($A66,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(C$64,$A$1:$P$1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="10" cm="1">
+        <f t="array" ref="D66">_xlfn.XLOOKUP($A66,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(D$64,$A$1:$P$1,0)))</f>
+        <v>-311228.08999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="10" cm="1">
+        <f t="array" ref="B67">_xlfn.XLOOKUP($A67,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(B$64,$A$1:$P$1,0)))</f>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C67" s="10" cm="1">
+        <f t="array" ref="C67">_xlfn.XLOOKUP($A67,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(C$64,$A$1:$P$1,0)))</f>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D67" s="10" cm="1">
+        <f t="array" ref="D67">_xlfn.XLOOKUP($A67,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(D$64,$A$1:$P$1,0)))</f>
+        <v>-374962.91000000015</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="14.25">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="10" cm="1">
+        <f t="array" ref="B68">_xlfn.XLOOKUP($A68,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(B$64,$A$1:$P$1,0)))</f>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C68" s="10" cm="1">
+        <f t="array" ref="C68">_xlfn.XLOOKUP($A68,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(C$64,$A$1:$P$1,0)))</f>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D68" s="10" cm="1">
+        <f t="array" ref="D68">_xlfn.XLOOKUP($A68,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(D$64,$A$1:$P$1,0)))</f>
+        <v>-72.879999999888241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="14.25">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="10" cm="1">
+        <f t="array" ref="B69">_xlfn.XLOOKUP($A69,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(B$64,$A$1:$P$1,0)))</f>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C69" s="10" cm="1">
+        <f t="array" ref="C69">_xlfn.XLOOKUP($A69,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(C$64,$A$1:$P$1,0)))</f>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D69" s="10" cm="1">
+        <f t="array" ref="D69">_xlfn.XLOOKUP($A69,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(D$64,$A$1:$P$1,0)))</f>
+        <v>-1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="14.25">
+      <c r="A70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="10" cm="1">
+        <f t="array" ref="B70">_xlfn.XLOOKUP($A70,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(B$64,$A$1:$P$1,0)))</f>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C70" s="10" cm="1">
+        <f t="array" ref="C70">_xlfn.XLOOKUP($A70,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(C$64,$A$1:$P$1,0)))</f>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D70" s="10" cm="1">
+        <f t="array" ref="D70">_xlfn.XLOOKUP($A70,$A$2:$A$52,INDEX($A$2:$P$52,,MATCH(D$64,$A$1:$P$1,0)))</f>
+        <v>-82077.349999999627</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="10">
+        <f>INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(B$73,$A$1:$P$1,0))</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C74" s="10">
+        <f t="shared" ref="C74:D79" si="7">INDEX($A$2:$P$52,MATCH($A74,$A$2:$A$52,0),MATCH(C$73,$A$1:$P$1,0))</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D74" s="10">
+        <f t="shared" si="7"/>
+        <v>-9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="10">
+        <f t="shared" ref="B75:B79" si="8">INDEX($A$2:$P$52,MATCH($A75,$A$2:$A$52,0),MATCH(B$73,$A$1:$P$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D75" s="10">
+        <f t="shared" si="7"/>
+        <v>-311228.08999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="14.25">
+      <c r="A76" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="10">
+        <f t="shared" si="8"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C76" s="10">
+        <f t="shared" si="7"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D76" s="10">
+        <f t="shared" si="7"/>
+        <v>-374962.91000000015</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="14.25">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="10">
+        <f t="shared" si="8"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C77" s="10">
+        <f t="shared" si="7"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D77" s="10">
+        <f t="shared" si="7"/>
+        <v>-72.879999999888241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="14.25">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="10">
+        <f t="shared" si="8"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C78" s="10">
+        <f t="shared" si="7"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D78" s="10">
+        <f t="shared" si="7"/>
+        <v>-1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="14.25">
+      <c r="A79" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="10">
+        <f t="shared" si="8"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C79" s="10">
+        <f t="shared" si="7"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D79" s="10">
+        <f t="shared" si="7"/>
+        <v>-82077.349999999627</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="14.25">
+      <c r="B83" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="14.25">
+      <c r="A84" t="s">
+        <v>73</v>
+      </c>
+      <c r="B84" s="6">
+        <f>INDEX($A$2:$P$52,MATCH($A$82,$A$2:$A$52,0),2)</f>
+        <v>356640100</v>
+      </c>
+      <c r="C84" s="6">
+        <f>INDEX(C2:C52,MATCH($A$82,$A$2:$A$52,0))</f>
+        <v>341243679.13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="14.25">
+      <c r="A85" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" s="6">
+        <f>INDEX(G$2:G$52,MATCH($A$82,$A$2:$A$52,0))</f>
+        <v>382685200</v>
+      </c>
+      <c r="C85" s="6">
+        <f>INDEX(H$2:H$52,MATCH($A$82,$A$2:$A$52,0))</f>
+        <v>346340810.81999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="14.25">
+      <c r="A86" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" s="6">
+        <f>INDEX(L$2:L$52,MATCH($A$82,$A$2:$A$52,0))</f>
+        <v>376548600</v>
+      </c>
+      <c r="C86" s="6">
+        <f>INDEX(M$2:M$52,MATCH($A$82,$A$2:$A$52,0))</f>
+        <v>355279492.22999901</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" s="7">
+        <v>1</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7">
+        <v>2</v>
+      </c>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="B90" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="14.25">
+      <c r="A91" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" t="str" cm="1">
+        <f t="array" ref="B91">_xlfn.XLOOKUP($B$89,INDEX($A$2:$P$52,,MATCH(A91&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52)</f>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="C91" s="5" cm="1">
+        <f t="array" ref="C91">_xlfn.XLOOKUP($B$89,INDEX($A$2:$P$52,,MATCH(A91&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH(A91&amp;"_diff_pct",$A$1:$P$1,0)))</f>
+        <v>-0.15235918433091292</v>
+      </c>
+      <c r="D91" t="str" cm="1">
+        <f t="array" ref="D91">_xlfn.XLOOKUP($D$89,INDEX($A$2:$P$52,,MATCH(A91&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52)</f>
+        <v>Circuit Court Clerk</v>
+      </c>
+      <c r="E91" s="5" cm="1">
+        <f t="array" ref="E91">_xlfn.XLOOKUP($D$89,INDEX($A$2:$P$52,,MATCH(A91&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH(A91&amp;"_diff_pct",$A$1:$P$1,0)))</f>
+        <v>-0.11502817362571344</v>
+      </c>
+      <c r="F91" t="str" cm="1">
+        <f t="array" ref="F91">_xlfn.XLOOKUP($F$89,INDEX($A$2:$P$52,,MATCH(A91&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52)</f>
+        <v>Internal Audit</v>
+      </c>
+      <c r="G91" s="5" cm="1">
+        <f t="array" ref="G91">_xlfn.XLOOKUP($F$89,INDEX($A$2:$P$52,,MATCH(A91&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH(A91&amp;"_diff_pct",$A$1:$P$1,0)))</f>
+        <v>-9.5782760864849215E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="14.25">
+      <c r="A92" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" t="str" cm="1">
+        <f t="array" ref="B92">_xlfn.XLOOKUP($B$89,INDEX($A$2:$P$52,,MATCH(A92&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52)</f>
+        <v>Metropolitan Clerk</v>
+      </c>
+      <c r="C92" s="5" cm="1">
+        <f t="array" ref="C92">_xlfn.XLOOKUP($B$89,INDEX($A$2:$P$52,,MATCH(A92&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH(A92&amp;"_diff_pct",$A$1:$P$1,0)))</f>
+        <v>-0.17551246244575608</v>
+      </c>
+      <c r="D92" t="str" cm="1">
+        <f t="array" ref="D92">_xlfn.XLOOKUP($D$89,INDEX($A$2:$P$52,,MATCH(A92&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52)</f>
+        <v>Internal Audit</v>
+      </c>
+      <c r="E92" s="5" cm="1">
+        <f t="array" ref="E92">_xlfn.XLOOKUP($D$89,INDEX($A$2:$P$52,,MATCH(A92&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH(A92&amp;"_diff_pct",$A$1:$P$1,0)))</f>
+        <v>-0.17103239309050916</v>
+      </c>
+      <c r="F92" t="str" cm="1">
+        <f t="array" ref="F92">_xlfn.XLOOKUP($F$89,INDEX($A$2:$P$52,,MATCH(A92&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52)</f>
+        <v>Office of Family Safety</v>
+      </c>
+      <c r="G92" s="5" cm="1">
+        <f t="array" ref="G92">_xlfn.XLOOKUP($F$89,INDEX($A$2:$P$52,,MATCH(A92&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH(A92&amp;"_diff_pct",$A$1:$P$1,0)))</f>
+        <v>-0.13918241656366656</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="14.25">
+      <c r="A93" t="s">
+        <v>75</v>
+      </c>
+      <c r="B93" t="str" cm="1">
+        <f t="array" ref="B93">_xlfn.XLOOKUP($B$89,INDEX($A$2:$P$52,,MATCH(A93&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52)</f>
+        <v>Community Oversight Board</v>
+      </c>
+      <c r="C93" s="5" cm="1">
+        <f t="array" ref="C93">_xlfn.XLOOKUP($B$89,INDEX($A$2:$P$52,,MATCH(A93&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH(A93&amp;"_diff_pct",$A$1:$P$1,0)))</f>
+        <v>-0.82994157333333329</v>
+      </c>
+      <c r="D93" t="str" cm="1">
+        <f t="array" ref="D93">_xlfn.XLOOKUP($D$89,INDEX($A$2:$P$52,,MATCH(A93&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52)</f>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="E93" s="5" cm="1">
+        <f t="array" ref="E93">_xlfn.XLOOKUP($D$89,INDEX($A$2:$P$52,,MATCH(A93&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH(A93&amp;"_diff_pct",$A$1:$P$1,0)))</f>
+        <v>-0.15295680364719175</v>
+      </c>
+      <c r="F93" t="str" cm="1">
+        <f t="array" ref="F93">_xlfn.XLOOKUP($F$89,INDEX($A$2:$P$52,,MATCH(A93&amp;"_rank",$A$1:$P$1,0)),$A$2:$A$52)</f>
+        <v>Election Commission</v>
+      </c>
+      <c r="G93" s="5" cm="1">
+        <f t="array" ref="G93">_xlfn.XLOOKUP($F$89,INDEX($A$2:$P$52,,MATCH(A93&amp;"_rank",$A$1:$P$1,0)),INDEX($A$2:$P$52,,MATCH(A93&amp;"_diff_pct",$A$1:$P$1,0)))</f>
+        <v>-0.12882667147667154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>77</v>
+      </c>
+      <c r="B96" s="7">
+        <v>1</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7">
+        <v>2</v>
+      </c>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="B97" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="14.25">
+      <c r="A98" t="s">
+        <v>73</v>
+      </c>
+      <c r="B98" t="str">
+        <f>INDEX($A$2:$A$52,MATCH($B$96,INDEX($A$2:$P$52,,MATCH(A98&amp;"_rank",$A$1:$P$1,0)),0))</f>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="C98" s="4">
+        <f>INDEX($A$2:$P$52,MATCH($B$96,INDEX($A$2:$P$52,,MATCH(A98&amp;"_rank",$A$1:$P$1,0)),0),MATCH(A98&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-0.15235918433091292</v>
+      </c>
+      <c r="D98" t="str">
+        <f>INDEX($A$2:$A$52,MATCH($D$96,INDEX($A$2:$P$52,,MATCH(A98&amp;"_rank",$A$1:$P$1,0)),0))</f>
+        <v>Circuit Court Clerk</v>
+      </c>
+      <c r="E98" s="4">
+        <f>INDEX($A$2:$P$52,MATCH($D$96,INDEX($A$2:$P$52,,MATCH(A98&amp;"_rank",$A$1:$P$1,0)),0),MATCH(A98&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-0.11502817362571344</v>
+      </c>
+      <c r="F98" t="str">
+        <f>INDEX($A$2:$A$52,MATCH($F$96,INDEX($A$2:$P$52,,MATCH(A98&amp;"_rank",$A$1:$P$1,0)),0))</f>
+        <v>Internal Audit</v>
+      </c>
+      <c r="G98" s="4">
+        <f>INDEX($A$2:$P$52,MATCH($F$96,INDEX($A$2:$P$52,,MATCH(A98&amp;"_rank",$A$1:$P$1,0)),0),MATCH(A98&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-9.5782760864849215E-2</v>
+      </c>
+      <c r="I98" s="4"/>
+    </row>
+    <row r="99" spans="1:9" ht="14.25">
+      <c r="A99" t="s">
+        <v>74</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" ref="B99:B100" si="9">INDEX($A$2:$A$52,MATCH($B$96,INDEX($A$2:$P$52,,MATCH(A99&amp;"_rank",$A$1:$P$1,0)),0))</f>
+        <v>Metropolitan Clerk</v>
+      </c>
+      <c r="C99" s="4">
+        <f t="shared" ref="C99:C100" si="10">INDEX($A$2:$P$52,MATCH($B$96,INDEX($A$2:$P$52,,MATCH(A99&amp;"_rank",$A$1:$P$1,0)),0),MATCH(A99&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-0.17551246244575608</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" ref="D99:D100" si="11">INDEX($A$2:$A$52,MATCH($D$96,INDEX($A$2:$P$52,,MATCH(A99&amp;"_rank",$A$1:$P$1,0)),0))</f>
+        <v>Internal Audit</v>
+      </c>
+      <c r="E99" s="4">
+        <f t="shared" ref="E99:E100" si="12">INDEX($A$2:$P$52,MATCH($D$96,INDEX($A$2:$P$52,,MATCH(A99&amp;"_rank",$A$1:$P$1,0)),0),MATCH(A99&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-0.17103239309050916</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" ref="F99:F100" si="13">INDEX($A$2:$A$52,MATCH($F$96,INDEX($A$2:$P$52,,MATCH(A99&amp;"_rank",$A$1:$P$1,0)),0))</f>
+        <v>Office of Family Safety</v>
+      </c>
+      <c r="G99" s="4">
+        <f t="shared" ref="G99:G100" si="14">INDEX($A$2:$P$52,MATCH($F$96,INDEX($A$2:$P$52,,MATCH(A99&amp;"_rank",$A$1:$P$1,0)),0),MATCH(A99&amp;"_diff_pct",$A$1:$P$1,0))</f>
+        <v>-0.13918241656366656</v>
+      </c>
+      <c r="I99" s="4"/>
+    </row>
+    <row r="100" spans="1:9" ht="14.25">
+      <c r="A100" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="9"/>
+        <v>Community Oversight Board</v>
+      </c>
+      <c r="C100" s="4">
+        <f t="shared" si="10"/>
+        <v>-0.82994157333333329</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="11"/>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="E100" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.15295680364719175</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="13"/>
+        <v>Election Commission</v>
+      </c>
+      <c r="G100" s="4">
+        <f t="shared" si="14"/>
+        <v>-0.12882667147667154</v>
+      </c>
+      <c r="I100" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:B83" xr:uid="{5CBA52EE-FBF2-4752-B7D7-B776F0F9A7C1}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A82:A83" xr:uid="{6A5705B1-1BCD-4780-B54A-8CA026AAB75A}">
       <formula1>$A$2:$A$52</formula1>
     </dataValidation>
   </dataValidations>
@@ -5803,7 +10570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB99AC6-F6B8-4A26-96BE-D02EE21B4B6C}">
   <dimension ref="A1:B10"/>
   <sheetViews>
